--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1084,7 +1084,7 @@
         <v>400</v>
       </c>
       <c r="F17" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1128,7 +1128,7 @@
         <v>-400</v>
       </c>
       <c r="F18" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
@@ -1231,7 +1231,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="F21" s="3">
         <v>-400</v>
@@ -1991,7 +1991,7 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K41" s="3">
         <v>900</v>
@@ -2076,7 +2076,7 @@
         <v>400</v>
       </c>
       <c r="I43" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -2193,7 +2193,7 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E46" s="3">
         <v>400</v>
@@ -2281,25 +2281,25 @@
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>29900</v>
+        <v>28800</v>
       </c>
       <c r="E48" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="F48" s="3">
-        <v>29900</v>
+        <v>28900</v>
       </c>
       <c r="G48" s="3">
-        <v>29900</v>
+        <v>28800</v>
       </c>
       <c r="H48" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="I48" s="3">
-        <v>30300</v>
+        <v>29300</v>
       </c>
       <c r="J48" s="3">
-        <v>30300</v>
+        <v>29200</v>
       </c>
       <c r="K48" s="3">
         <v>29900</v>
@@ -2325,25 +2325,25 @@
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E49" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F49" s="3">
         <v>3000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>3000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>3100</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>3100</v>
       </c>
-      <c r="H49" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I49" s="3">
-        <v>3300</v>
-      </c>
       <c r="J49" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K49" s="3">
         <v>3200</v>
@@ -2472,7 +2472,7 @@
         <v>0</v>
       </c>
       <c r="I52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>100</v>
@@ -2545,25 +2545,25 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>32000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>32100</v>
+      </c>
+      <c r="F54" s="3">
+        <v>32200</v>
+      </c>
+      <c r="G54" s="3">
+        <v>32200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>32900</v>
+      </c>
+      <c r="I54" s="3">
         <v>33100</v>
       </c>
-      <c r="E54" s="3">
-        <v>33300</v>
-      </c>
-      <c r="F54" s="3">
-        <v>33400</v>
-      </c>
-      <c r="G54" s="3">
-        <v>33400</v>
-      </c>
-      <c r="H54" s="3">
-        <v>34100</v>
-      </c>
-      <c r="I54" s="3">
-        <v>34200</v>
-      </c>
       <c r="J54" s="3">
-        <v>34400</v>
+        <v>33200</v>
       </c>
       <c r="K54" s="3">
         <v>34300</v>
@@ -2625,16 +2625,16 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="E57" s="3">
         <v>800</v>
       </c>
       <c r="F57" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G57" s="3">
         <v>2100</v>
-      </c>
-      <c r="G57" s="3">
-        <v>2200</v>
       </c>
       <c r="H57" s="3">
         <v>2200</v>
@@ -2643,7 +2643,7 @@
         <v>2400</v>
       </c>
       <c r="J57" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K57" s="3">
         <v>2200</v>
@@ -2675,7 +2675,7 @@
         <v>900</v>
       </c>
       <c r="F58" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="G58" s="3">
         <v>800</v>
@@ -2757,16 +2757,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E60" s="3">
         <v>1700</v>
       </c>
       <c r="F60" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G60" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H60" s="3">
         <v>2200</v>
@@ -2775,7 +2775,7 @@
         <v>2400</v>
       </c>
       <c r="J60" s="3">
-        <v>2300</v>
+        <v>2200</v>
       </c>
       <c r="K60" s="3">
         <v>2200</v>
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="I61" s="3">
         <v>800</v>
@@ -3021,25 +3021,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E66" s="3">
         <v>1700</v>
       </c>
       <c r="F66" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="G66" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="H66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="I66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="J66" s="3">
-        <v>3000</v>
+        <v>2800</v>
       </c>
       <c r="K66" s="3">
         <v>2700</v>
@@ -3259,25 +3259,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8600</v>
+        <v>-8300</v>
       </c>
       <c r="E72" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-8000</v>
       </c>
-      <c r="F72" s="3">
-        <v>-8300</v>
-      </c>
       <c r="G72" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="H72" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I72" s="3">
         <v>-7000</v>
       </c>
-      <c r="I72" s="3">
-        <v>-7300</v>
-      </c>
       <c r="J72" s="3">
-        <v>-6400</v>
+        <v>-6200</v>
       </c>
       <c r="K72" s="3">
         <v>-5900</v>
@@ -3435,25 +3435,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31200</v>
+        <v>30200</v>
       </c>
       <c r="E76" s="3">
-        <v>31600</v>
+        <v>30500</v>
       </c>
       <c r="F76" s="3">
+        <v>29400</v>
+      </c>
+      <c r="G76" s="3">
+        <v>29300</v>
+      </c>
+      <c r="H76" s="3">
+        <v>29900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>29900</v>
+      </c>
+      <c r="J76" s="3">
         <v>30400</v>
-      </c>
-      <c r="G76" s="3">
-        <v>30400</v>
-      </c>
-      <c r="H76" s="3">
-        <v>31000</v>
-      </c>
-      <c r="I76" s="3">
-        <v>31000</v>
-      </c>
-      <c r="J76" s="3">
-        <v>31500</v>
       </c>
       <c r="K76" s="3">
         <v>31600</v>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,74 +665,81 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -775,8 +782,14 @@
       <c r="P8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -819,8 +832,14 @@
       <c r="P9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -863,8 +882,14 @@
       <c r="P10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -881,16 +906,18 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>4</v>
@@ -898,11 +925,11 @@
       <c r="G12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3">
+        <v>100</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,28 +1002,34 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>3600</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>-400</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1007,14 +1046,20 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
+      <c r="O14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,14 +1073,14 @@
         <v>0</v>
       </c>
       <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="3">
         <v>200</v>
       </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
       <c r="J15" s="3">
         <v>0</v>
       </c>
@@ -1057,8 +1102,14 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,19 +1123,21 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>300</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F17" s="3">
         <v>600</v>
-      </c>
-      <c r="E17" s="3">
-        <v>400</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>400</v>
@@ -1093,31 +1146,37 @@
         <v>500</v>
       </c>
       <c r="I17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
+        <v>500</v>
+      </c>
+      <c r="L17" s="3">
+        <v>500</v>
+      </c>
+      <c r="M17" s="3">
         <v>800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>300</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1125,10 +1184,10 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-400</v>
+        <v>-3600</v>
       </c>
       <c r="F18" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="G18" s="3">
         <v>-400</v>
@@ -1137,31 +1196,37 @@
         <v>-500</v>
       </c>
       <c r="I18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M18" s="3">
         <v>-800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,8 +1243,10 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1187,43 +1254,49 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>1500</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>1600</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1900</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1231,43 +1304,49 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>1100</v>
+        <v>-3700</v>
       </c>
       <c r="F21" s="3">
-        <v>-400</v>
+        <v>-600</v>
       </c>
       <c r="G21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="L21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-800</v>
+      </c>
+      <c r="N21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-300</v>
       </c>
-      <c r="H21" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-800</v>
-      </c>
-      <c r="L21" s="3">
-        <v>1300</v>
-      </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-300</v>
       </c>
-      <c r="N21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1310,52 +1389,64 @@
       <c r="P22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F23" s="3">
         <v>-600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K23" s="3">
         <v>-500</v>
       </c>
-      <c r="H23" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
       </c>
-      <c r="J23" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-800</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>1300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1398,8 +1489,14 @@
       <c r="P24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F26" s="3">
         <v>-600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K26" s="3">
         <v>-500</v>
       </c>
-      <c r="H26" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
       </c>
-      <c r="J26" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>1300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F27" s="3">
         <v>-600</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K27" s="3">
         <v>-500</v>
       </c>
-      <c r="H27" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
       </c>
-      <c r="J27" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-800</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>1300</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-300</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,8 +1689,14 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1618,8 +1739,14 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,8 +1839,14 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1715,87 +1854,99 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>-1500</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1900</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F33" s="3">
         <v>-600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K33" s="3">
         <v>-500</v>
       </c>
-      <c r="H33" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
       </c>
-      <c r="J33" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-800</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>1300</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-300</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F35" s="3">
         <v>-600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K35" s="3">
         <v>-500</v>
       </c>
-      <c r="H35" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
       </c>
-      <c r="J35" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-800</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>1300</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-300</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,8 +2138,10 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1976,13 +2149,13 @@
         <v>0</v>
       </c>
       <c r="E41" s="3">
+        <v>0</v>
+      </c>
+      <c r="F41" s="3">
+        <v>0</v>
+      </c>
+      <c r="G41" s="3">
         <v>100</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0</v>
-      </c>
-      <c r="G41" s="3">
-        <v>200</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -1991,28 +2164,34 @@
         <v>200</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>200</v>
+      </c>
+      <c r="L41" s="3">
         <v>400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>900</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>300</v>
       </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2023,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -2035,7 +2214,7 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2047,51 +2226,57 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>100</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
-      </c>
-      <c r="E43" s="3">
-        <v>300</v>
       </c>
       <c r="F43" s="3">
         <v>300</v>
       </c>
       <c r="G43" s="3">
+        <v>300</v>
+      </c>
+      <c r="H43" s="3">
+        <v>300</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>200</v>
       </c>
       <c r="M43" s="3">
         <v>200</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
@@ -2099,8 +2284,14 @@
       <c r="P43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3">
+        <v>200</v>
+      </c>
+      <c r="R43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2143,13 +2334,19 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3">
-        <v>0</v>
+      <c r="D45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E45" s="3">
         <v>0</v>
@@ -2187,52 +2384,64 @@
       <c r="P45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>100</v>
+      </c>
+      <c r="E46" s="3">
         <v>200</v>
       </c>
-      <c r="E46" s="3">
-        <v>400</v>
-      </c>
       <c r="F46" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="G46" s="3">
         <v>400</v>
       </c>
       <c r="H46" s="3">
+        <v>400</v>
+      </c>
+      <c r="I46" s="3">
+        <v>400</v>
+      </c>
+      <c r="J46" s="3">
         <v>500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
-      </c>
-      <c r="M46" s="3">
-        <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
       </c>
       <c r="O46" s="3">
         <v>300</v>
       </c>
       <c r="P46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>300</v>
+      </c>
+      <c r="R46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2275,66 +2484,78 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>28800</v>
+        <v>0</v>
       </c>
       <c r="E48" s="3">
-        <v>28900</v>
+        <v>0</v>
       </c>
       <c r="F48" s="3">
-        <v>28900</v>
+        <v>30200</v>
       </c>
       <c r="G48" s="3">
-        <v>28800</v>
+        <v>30200</v>
       </c>
       <c r="H48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="I48" s="3">
+        <v>30200</v>
+      </c>
+      <c r="J48" s="3">
+        <v>30700</v>
+      </c>
+      <c r="K48" s="3">
         <v>29300</v>
       </c>
-      <c r="I48" s="3">
-        <v>29300</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>29200</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>31200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>31200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>31100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>32100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3">
-        <v>2900</v>
+      <c r="D49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E49" s="3">
-        <v>2900</v>
+        <v>0</v>
       </c>
       <c r="F49" s="3">
         <v>3000</v>
       </c>
       <c r="G49" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="H49" s="3">
         <v>3100</v>
@@ -2343,13 +2564,13 @@
         <v>3100</v>
       </c>
       <c r="J49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K49" s="3">
         <v>3100</v>
       </c>
-      <c r="K49" s="3">
-        <v>3200</v>
-      </c>
       <c r="L49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="M49" s="3">
         <v>3200</v>
@@ -2358,13 +2579,19 @@
         <v>3200</v>
       </c>
       <c r="O49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="P49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3300</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,8 +2684,14 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2475,14 +2714,14 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
       <c r="M52" s="3">
         <v>0</v>
       </c>
@@ -2490,13 +2729,19 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>32000</v>
+        <v>200</v>
       </c>
       <c r="E54" s="3">
-        <v>32100</v>
+        <v>200</v>
       </c>
       <c r="F54" s="3">
-        <v>32200</v>
+        <v>33500</v>
       </c>
       <c r="G54" s="3">
-        <v>32200</v>
+        <v>33700</v>
       </c>
       <c r="H54" s="3">
-        <v>32900</v>
+        <v>33800</v>
       </c>
       <c r="I54" s="3">
+        <v>3600</v>
+      </c>
+      <c r="J54" s="3">
+        <v>34500</v>
+      </c>
+      <c r="K54" s="3">
         <v>33100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>33200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>34300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>34600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>34700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>34800</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>35800</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,81 +2878,89 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F57" s="3">
+        <v>900</v>
+      </c>
+      <c r="G57" s="3">
         <v>800</v>
       </c>
-      <c r="E57" s="3">
-        <v>800</v>
-      </c>
-      <c r="F57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="J57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K57" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L57" s="3">
         <v>2200</v>
       </c>
-      <c r="I57" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>2200</v>
       </c>
-      <c r="K57" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>5600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>5600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>6200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F58" s="3">
         <v>1000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
+        <v>900</v>
+      </c>
+      <c r="I58" s="3">
         <v>800</v>
       </c>
-      <c r="G58" s="3">
-        <v>800</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M58" s="3">
         <v>0</v>
@@ -2702,13 +2969,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -2733,70 +3006,82 @@
       <c r="J59" s="3">
         <v>0</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
+      <c r="K59" s="3">
+        <v>0</v>
       </c>
       <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N59" s="3">
         <v>3200</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="E60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G60" s="3">
         <v>1700</v>
       </c>
-      <c r="F60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2900</v>
-      </c>
       <c r="H60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>2200</v>
       </c>
-      <c r="K60" s="3">
-        <v>2200</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>4100</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>5600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>5600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>6300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2813,34 +3098,40 @@
         <v>0</v>
       </c>
       <c r="H61" s="3">
-        <v>900</v>
+        <v>0</v>
       </c>
       <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K61" s="3">
         <v>800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>700</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>600</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
-      <c r="M61" s="3">
-        <v>200</v>
-      </c>
       <c r="N61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="O61" s="3">
         <v>200</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>200</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2883,8 +3174,14 @@
       <c r="P62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="G66" s="3">
         <v>1700</v>
       </c>
-      <c r="F66" s="3">
-        <v>2900</v>
-      </c>
-      <c r="G66" s="3">
-        <v>2900</v>
-      </c>
       <c r="H66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>4100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>5800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>5800</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>6400</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3209,8 +3544,14 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-8300</v>
+        <v>-42800</v>
       </c>
       <c r="E72" s="3">
-        <v>-7700</v>
+        <v>-42400</v>
       </c>
       <c r="F72" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="G72" s="3">
         <v>-8000</v>
       </c>
-      <c r="G72" s="3">
-        <v>-7600</v>
-      </c>
       <c r="H72" s="3">
-        <v>-6700</v>
+        <v>-8400</v>
       </c>
       <c r="I72" s="3">
+        <v>-38100</v>
+      </c>
+      <c r="J72" s="3">
         <v>-7000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="L72" s="3">
         <v>-6200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-5900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-5200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-6500</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-6300</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6400</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>30200</v>
+        <v>-2500</v>
       </c>
       <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>31900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>30700</v>
+      </c>
+      <c r="I76" s="3">
+        <v>500</v>
+      </c>
+      <c r="J76" s="3">
+        <v>31300</v>
+      </c>
+      <c r="K76" s="3">
+        <v>29900</v>
+      </c>
+      <c r="L76" s="3">
+        <v>30400</v>
+      </c>
+      <c r="M76" s="3">
+        <v>31600</v>
+      </c>
+      <c r="N76" s="3">
         <v>30500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="O76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="P76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="Q76" s="3">
         <v>29400</v>
       </c>
-      <c r="G76" s="3">
-        <v>29300</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="R76" s="3">
         <v>29900</v>
       </c>
-      <c r="I76" s="3">
-        <v>29900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>30400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>31600</v>
-      </c>
-      <c r="L76" s="3">
-        <v>30500</v>
-      </c>
-      <c r="M76" s="3">
-        <v>29000</v>
-      </c>
-      <c r="N76" s="3">
-        <v>29000</v>
-      </c>
-      <c r="O76" s="3">
-        <v>29400</v>
-      </c>
-      <c r="P76" s="3">
-        <v>29900</v>
-      </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-3600</v>
+      </c>
+      <c r="F81" s="3">
         <v>-600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K81" s="3">
         <v>-500</v>
       </c>
-      <c r="H81" s="3">
-        <v>-100</v>
-      </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
       </c>
-      <c r="J81" s="3">
-        <v>-500</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-800</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>1300</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-300</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,8 +4023,10 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3637,20 +4034,20 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F83" s="3">
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -3672,8 +4069,14 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,22 +4319,28 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-100</v>
-      </c>
-      <c r="F89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="G89" s="3">
-        <v>-200</v>
       </c>
       <c r="H89" s="3">
         <v>-200</v>
@@ -3916,28 +4349,34 @@
         <v>-200</v>
       </c>
       <c r="J89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="K89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="L89" s="3">
         <v>-400</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-900</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-100</v>
       </c>
       <c r="N89" s="3">
         <v>-100</v>
       </c>
       <c r="O89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,28 +4393,30 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3">
-        <v>0</v>
-      </c>
-      <c r="E91" s="3">
-        <v>0</v>
+      <c r="D91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
+      <c r="G91" s="3">
+        <v>0</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -3987,19 +4428,25 @@
         <v>0</v>
       </c>
       <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
         <v>-100</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
-      </c>
       <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,8 +4539,14 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4095,43 +4554,49 @@
         <v>0</v>
       </c>
       <c r="E94" s="3">
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>400</v>
+      </c>
+      <c r="J94" s="3">
         <v>100</v>
       </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>400</v>
-      </c>
-      <c r="H94" s="3">
-        <v>100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>-100</v>
-      </c>
-      <c r="K94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="L94" s="3">
-        <v>0</v>
       </c>
       <c r="M94" s="3">
         <v>-100</v>
       </c>
       <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P94" s="3">
         <v>200</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4192,8 +4659,14 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,25 +4809,31 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F100" s="3">
         <v>100</v>
       </c>
       <c r="G100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I100" s="3">
         <v>0</v>
@@ -4351,25 +4842,31 @@
         <v>0</v>
       </c>
       <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>1900</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>200</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4412,16 +4909,22 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F102" s="3">
         <v>-100</v>
@@ -4433,27 +4936,33 @@
         <v>-100</v>
       </c>
       <c r="I102" s="3">
+        <v>100</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="K102" s="3">
         <v>-300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-400</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,81 +665,89 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -788,8 +796,14 @@
       <c r="R8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -838,8 +852,14 @@
       <c r="R9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -888,8 +908,14 @@
       <c r="R10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -908,35 +934,37 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E12" s="3">
         <v>0</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3">
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
@@ -958,8 +986,14 @@
       <c r="R12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,35 +1042,41 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="3">
         <v>3600</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>-400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1052,14 +1092,20 @@
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q14" s="3">
-        <v>0</v>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1079,14 +1125,14 @@
         <v>0</v>
       </c>
       <c r="I15" s="3">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="3">
         <v>200</v>
       </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
       <c r="L15" s="3">
         <v>0</v>
       </c>
@@ -1108,8 +1154,14 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,8 +1177,10 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -1134,49 +1188,55 @@
         <v>300</v>
       </c>
       <c r="E17" s="3">
-        <v>3600</v>
+        <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>300</v>
+      </c>
+      <c r="G17" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H17" s="3">
         <v>600</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
-      </c>
-      <c r="H17" s="3">
-        <v>500</v>
-      </c>
-      <c r="I17" s="3">
-        <v>0</v>
       </c>
       <c r="J17" s="3">
         <v>500</v>
       </c>
       <c r="K17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="L17" s="3">
         <v>500</v>
       </c>
       <c r="M17" s="3">
+        <v>500</v>
+      </c>
+      <c r="N17" s="3">
+        <v>500</v>
+      </c>
+      <c r="O17" s="3">
         <v>800</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>300</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1184,49 +1244,55 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-3600</v>
+        <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="H18" s="3">
         <v>-600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="I18" s="3">
-        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>-500</v>
       </c>
       <c r="K18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="L18" s="3">
         <v>-500</v>
       </c>
       <c r="M18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="N18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O18" s="3">
         <v>-800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-300</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,8 +1311,10 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1260,43 +1328,49 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
         <v>1600</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1900</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1304,49 +1378,55 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-3700</v>
+        <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="H21" s="3">
         <v>-600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-500</v>
       </c>
-      <c r="I21" s="3">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
         <v>-100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1395,8 +1475,14 @@
       <c r="R22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1404,49 +1490,55 @@
         <v>-300</v>
       </c>
       <c r="E23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-600</v>
       </c>
-      <c r="G23" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-100</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-100</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-800</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-300</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-300</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1495,8 +1587,14 @@
       <c r="R24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,8 +1643,14 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1554,49 +1658,55 @@
         <v>-300</v>
       </c>
       <c r="E26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-600</v>
       </c>
-      <c r="G26" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-100</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1604,49 +1714,55 @@
         <v>-300</v>
       </c>
       <c r="E27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-600</v>
       </c>
-      <c r="G27" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-100</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1300</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-300</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1811,14 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1867,14 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1923,14 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,8 +1979,14 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1860,43 +2000,49 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
         <v>-1600</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>-400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1900</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1904,49 +2050,55 @@
         <v>-300</v>
       </c>
       <c r="E33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-600</v>
       </c>
-      <c r="G33" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-100</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1300</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-300</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,8 +2147,14 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2004,104 +2162,116 @@
         <v>-300</v>
       </c>
       <c r="E35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-600</v>
       </c>
-      <c r="G35" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-100</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1300</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-300</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2290,10 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,8 +2312,10 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2155,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -2170,28 +2344,34 @@
         <v>200</v>
       </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>200</v>
+      </c>
+      <c r="N41" s="3">
         <v>400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>900</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>300</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2208,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -2220,7 +2400,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2232,16 +2412,22 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
+      <c r="T42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2249,40 +2435,40 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
+        <v>100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>100</v>
+      </c>
+      <c r="G43" s="3">
         <v>200</v>
-      </c>
-      <c r="F43" s="3">
-        <v>300</v>
-      </c>
-      <c r="G43" s="3">
-        <v>300</v>
       </c>
       <c r="H43" s="3">
         <v>300</v>
       </c>
       <c r="I43" s="3">
+        <v>300</v>
+      </c>
+      <c r="J43" s="3">
+        <v>300</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>300</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>300</v>
-      </c>
-      <c r="M43" s="3">
-        <v>200</v>
-      </c>
-      <c r="N43" s="3">
-        <v>200</v>
       </c>
       <c r="O43" s="3">
         <v>200</v>
       </c>
       <c r="P43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2290,8 +2476,14 @@
       <c r="R43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2340,19 +2532,25 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G45" s="3">
         <v>0</v>
@@ -2390,8 +2588,14 @@
       <c r="R45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2399,49 +2603,55 @@
         <v>100</v>
       </c>
       <c r="E46" s="3">
+        <v>100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>100</v>
+      </c>
+      <c r="G46" s="3">
         <v>200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>300</v>
-      </c>
-      <c r="G46" s="3">
-        <v>400</v>
-      </c>
-      <c r="H46" s="3">
-        <v>400</v>
       </c>
       <c r="I46" s="3">
         <v>400</v>
       </c>
       <c r="J46" s="3">
+        <v>400</v>
+      </c>
+      <c r="K46" s="3">
+        <v>400</v>
+      </c>
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>200</v>
-      </c>
-      <c r="O46" s="3">
-        <v>300</v>
-      </c>
-      <c r="P46" s="3">
-        <v>400</v>
       </c>
       <c r="Q46" s="3">
         <v>300</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
+        <v>300</v>
+      </c>
+      <c r="T46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2490,8 +2700,14 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2502,60 +2718,66 @@
         <v>0</v>
       </c>
       <c r="F48" s="3">
+        <v>0</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>30600</v>
+      </c>
+      <c r="I48" s="3">
+        <v>30600</v>
+      </c>
+      <c r="J48" s="3">
+        <v>30600</v>
+      </c>
+      <c r="K48" s="3">
         <v>30200</v>
       </c>
-      <c r="G48" s="3">
-        <v>30200</v>
-      </c>
-      <c r="H48" s="3">
-        <v>30200</v>
-      </c>
-      <c r="I48" s="3">
-        <v>30200</v>
-      </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>30700</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>29300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>29200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>29900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>31200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>31200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>31100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>32100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E49" s="3">
-        <v>0</v>
-      </c>
-      <c r="F49" s="3">
-        <v>3000</v>
+      <c r="E49" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G49" s="3">
-        <v>3100</v>
+        <v>0</v>
       </c>
       <c r="H49" s="3">
         <v>3100</v>
@@ -2564,19 +2786,19 @@
         <v>3100</v>
       </c>
       <c r="J49" s="3">
-        <v>3300</v>
+        <v>3100</v>
       </c>
       <c r="K49" s="3">
         <v>3100</v>
       </c>
       <c r="L49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="M49" s="3">
         <v>3100</v>
       </c>
-      <c r="M49" s="3">
-        <v>3200</v>
-      </c>
       <c r="N49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="O49" s="3">
         <v>3200</v>
@@ -2585,13 +2807,19 @@
         <v>3200</v>
       </c>
       <c r="Q49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="S49" s="3">
         <v>3300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2868,14 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2924,14 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2720,14 +2960,14 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
         <v>100</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3">
-        <v>0</v>
-      </c>
       <c r="O52" s="3">
         <v>0</v>
       </c>
@@ -2735,13 +2975,19 @@
         <v>0</v>
       </c>
       <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="R52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +3036,70 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>100</v>
+      </c>
+      <c r="F54" s="3">
         <v>200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>200</v>
       </c>
-      <c r="F54" s="3">
-        <v>33500</v>
-      </c>
-      <c r="G54" s="3">
-        <v>33700</v>
-      </c>
       <c r="H54" s="3">
-        <v>33800</v>
+        <v>33900</v>
       </c>
       <c r="I54" s="3">
+        <v>34100</v>
+      </c>
+      <c r="J54" s="3">
+        <v>34100</v>
+      </c>
+      <c r="K54" s="3">
         <v>3600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>33100</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>33200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>34300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>34600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>34700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>34800</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>35800</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +3118,10 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,93 +3140,101 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1200</v>
+        <v>1600</v>
       </c>
       <c r="E57" s="3">
-        <v>1000</v>
+        <v>1400</v>
       </c>
       <c r="F57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1100</v>
+      </c>
+      <c r="H57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>800</v>
       </c>
-      <c r="H57" s="3">
-        <v>2100</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K57" s="3">
         <v>2300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>2300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>2400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>5600</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>5600</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>6200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F58" s="3">
         <v>1400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>1300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J58" s="3">
         <v>900</v>
       </c>
-      <c r="H58" s="3">
-        <v>900</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>800</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M58" s="3">
-        <v>0</v>
-      </c>
-      <c r="N58" s="3">
-        <v>0</v>
+      <c r="M58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O58" s="3">
         <v>0</v>
@@ -2975,13 +3243,19 @@
         <v>0</v>
       </c>
       <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
         <v>100</v>
       </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3012,84 +3286,96 @@
       <c r="L59" s="3">
         <v>0</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
+      <c r="M59" s="3">
+        <v>0</v>
       </c>
       <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P59" s="3">
         <v>3200</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1900</v>
       </c>
-      <c r="G60" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J60" s="3">
         <v>3000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>4100</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>5600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>5600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>6300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>0</v>
@@ -3104,34 +3390,40 @@
         <v>0</v>
       </c>
       <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
         <v>1000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>700</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>600</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>200</v>
-      </c>
       <c r="P61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Q61" s="3">
         <v>200</v>
       </c>
       <c r="R61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="S61" s="3">
+        <v>200</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3180,8 +3472,14 @@
       <c r="R62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3528,14 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3584,14 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3640,70 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>2400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>1900</v>
       </c>
-      <c r="G66" s="3">
-        <v>1700</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2800</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>4100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>5800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>5800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>6400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3722,10 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3774,14 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3830,14 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3886,14 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3942,70 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-42800</v>
+        <v>-43900</v>
       </c>
       <c r="E72" s="3">
-        <v>-42400</v>
+        <v>-43600</v>
       </c>
       <c r="F72" s="3">
-        <v>-8600</v>
+        <v>-43300</v>
       </c>
       <c r="G72" s="3">
-        <v>-8000</v>
+        <v>-42900</v>
       </c>
       <c r="H72" s="3">
-        <v>-8400</v>
+        <v>-8700</v>
       </c>
       <c r="I72" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="K72" s="3">
         <v>-38100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-7000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-7000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-6200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-5900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-5200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-6500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-6400</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +4054,14 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +4110,14 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +4166,70 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-2200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
+        <v>31900</v>
+      </c>
+      <c r="I76" s="3">
+        <v>32300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>31100</v>
+      </c>
+      <c r="K76" s="3">
+        <v>500</v>
+      </c>
+      <c r="L76" s="3">
+        <v>31300</v>
+      </c>
+      <c r="M76" s="3">
+        <v>29900</v>
+      </c>
+      <c r="N76" s="3">
+        <v>30400</v>
+      </c>
+      <c r="O76" s="3">
         <v>31600</v>
       </c>
-      <c r="G76" s="3">
-        <v>31900</v>
-      </c>
-      <c r="H76" s="3">
-        <v>30700</v>
-      </c>
-      <c r="I76" s="3">
-        <v>500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>31300</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
+        <v>30500</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="R76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="S76" s="3">
+        <v>29400</v>
+      </c>
+      <c r="T76" s="3">
         <v>29900</v>
       </c>
-      <c r="L76" s="3">
-        <v>30400</v>
-      </c>
-      <c r="M76" s="3">
-        <v>31600</v>
-      </c>
-      <c r="N76" s="3">
-        <v>30500</v>
-      </c>
-      <c r="O76" s="3">
-        <v>29000</v>
-      </c>
-      <c r="P76" s="3">
-        <v>29000</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>29400</v>
-      </c>
-      <c r="R76" s="3">
-        <v>29900</v>
-      </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,63 +4278,75 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -3964,49 +4354,55 @@
         <v>-300</v>
       </c>
       <c r="E81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-600</v>
       </c>
-      <c r="G81" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
+        <v>1200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-100</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1300</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-300</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,8 +4421,10 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4034,26 +4432,26 @@
         <v>0</v>
       </c>
       <c r="E83" s="3">
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
         <v>-100</v>
       </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
       <c r="H83" s="3">
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
@@ -4075,8 +4473,14 @@
       <c r="R83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4529,14 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4585,14 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4641,14 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4697,14 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,8 +4753,14 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4334,19 +4768,19 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-100</v>
-      </c>
-      <c r="H89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="I89" s="3">
-        <v>-200</v>
       </c>
       <c r="J89" s="3">
         <v>-200</v>
@@ -4355,28 +4789,34 @@
         <v>-200</v>
       </c>
       <c r="L89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="M89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="N89" s="3">
         <v>-400</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
-      </c>
-      <c r="N89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-100</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,8 +4835,10 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4406,23 +4848,23 @@
       <c r="E91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
+      <c r="F91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H91" s="3">
         <v>0</v>
       </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4434,19 +4876,25 @@
         <v>0</v>
       </c>
       <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
         <v>-100</v>
       </c>
-      <c r="P91" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q91" s="3">
-        <v>0</v>
-      </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4943,14 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,8 +4999,14 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -4566,37 +5026,43 @@
         <v>0</v>
       </c>
       <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
+      </c>
+      <c r="K94" s="3">
         <v>400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>100</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
-      </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
         <v>-100</v>
-      </c>
-      <c r="M94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="R94" s="3">
         <v>200</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +5081,10 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +5133,14 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +5189,14 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5245,14 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,8 +5301,14 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4824,22 +5316,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H100" s="3">
         <v>100</v>
       </c>
       <c r="I100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4848,25 +5340,31 @@
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
         <v>1900</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>200</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4915,8 +5413,14 @@
       <c r="R101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4927,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="G102" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H102" s="3">
         <v>-100</v>
@@ -4942,27 +5446,33 @@
         <v>-100</v>
       </c>
       <c r="K102" s="3">
+        <v>100</v>
+      </c>
+      <c r="L102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M102" s="3">
         <v>-300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="G14" s="3">
-        <v>3600</v>
+        <v>3700</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1194,10 +1194,10 @@
         <v>300</v>
       </c>
       <c r="G17" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="H17" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1250,10 +1250,10 @@
         <v>-300</v>
       </c>
       <c r="G18" s="3">
-        <v>-3700</v>
+        <v>-3800</v>
       </c>
       <c r="H18" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
@@ -1384,7 +1384,7 @@
         <v>-300</v>
       </c>
       <c r="G21" s="3">
-        <v>-3800</v>
+        <v>-3900</v>
       </c>
       <c r="H21" s="3">
         <v>-600</v>
@@ -1496,10 +1496,10 @@
         <v>-300</v>
       </c>
       <c r="G23" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H23" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>1200</v>
@@ -1664,10 +1664,10 @@
         <v>-300</v>
       </c>
       <c r="G26" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H26" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>1200</v>
@@ -1720,10 +1720,10 @@
         <v>-300</v>
       </c>
       <c r="G27" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H27" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>1200</v>
@@ -2056,10 +2056,10 @@
         <v>-300</v>
       </c>
       <c r="G33" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H33" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>1200</v>
@@ -2168,10 +2168,10 @@
         <v>-300</v>
       </c>
       <c r="G35" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H35" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>1200</v>
@@ -2606,7 +2606,7 @@
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
@@ -2618,7 +2618,7 @@
         <v>400</v>
       </c>
       <c r="J46" s="3">
-        <v>400</v>
+        <v>500</v>
       </c>
       <c r="K46" s="3">
         <v>400</v>
@@ -2724,13 +2724,13 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
-        <v>30600</v>
+        <v>31500</v>
       </c>
       <c r="I48" s="3">
-        <v>30600</v>
+        <v>31500</v>
       </c>
       <c r="J48" s="3">
-        <v>30600</v>
+        <v>31500</v>
       </c>
       <c r="K48" s="3">
         <v>30200</v>
@@ -2783,10 +2783,10 @@
         <v>3100</v>
       </c>
       <c r="I49" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="J49" s="3">
-        <v>3100</v>
+        <v>3200</v>
       </c>
       <c r="K49" s="3">
         <v>3100</v>
@@ -3060,13 +3060,13 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>33900</v>
+        <v>34900</v>
       </c>
       <c r="I54" s="3">
-        <v>34100</v>
+        <v>35100</v>
       </c>
       <c r="J54" s="3">
-        <v>34100</v>
+        <v>35200</v>
       </c>
       <c r="K54" s="3">
         <v>3600</v>
@@ -3148,10 +3148,10 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1600</v>
+        <v>1700</v>
       </c>
       <c r="E57" s="3">
-        <v>1400</v>
+        <v>1500</v>
       </c>
       <c r="F57" s="3">
         <v>1300</v>
@@ -3204,19 +3204,19 @@
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E58" s="3">
         <v>1600</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1500</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1400</v>
       </c>
-      <c r="G58" s="3">
-        <v>1300</v>
-      </c>
       <c r="H58" s="3">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="I58" s="3">
         <v>1000</v>
@@ -3316,25 +3316,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3200</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="F60" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G60" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H60" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I60" s="3">
         <v>1800</v>
       </c>
       <c r="J60" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K60" s="3">
         <v>3000</v>
@@ -3652,25 +3652,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="E66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="F66" s="3">
-        <v>2700</v>
+        <v>2800</v>
       </c>
       <c r="G66" s="3">
-        <v>2400</v>
+        <v>2500</v>
       </c>
       <c r="H66" s="3">
-        <v>1900</v>
+        <v>2000</v>
       </c>
       <c r="I66" s="3">
         <v>1800</v>
       </c>
       <c r="J66" s="3">
-        <v>3000</v>
+        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>3000</v>
@@ -3954,25 +3954,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43900</v>
+        <v>-45300</v>
       </c>
       <c r="E72" s="3">
-        <v>-43600</v>
+        <v>-44900</v>
       </c>
       <c r="F72" s="3">
-        <v>-43300</v>
+        <v>-44600</v>
       </c>
       <c r="G72" s="3">
-        <v>-42900</v>
+        <v>-44200</v>
       </c>
       <c r="H72" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J72" s="3">
         <v>-8700</v>
-      </c>
-      <c r="I72" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-8500</v>
       </c>
       <c r="K72" s="3">
         <v>-38100</v>
@@ -4178,25 +4178,25 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3200</v>
+        <v>-3300</v>
       </c>
       <c r="E76" s="3">
-        <v>-2900</v>
+        <v>-3000</v>
       </c>
       <c r="F76" s="3">
-        <v>-2500</v>
+        <v>-2600</v>
       </c>
       <c r="G76" s="3">
-        <v>-2200</v>
+        <v>-2300</v>
       </c>
       <c r="H76" s="3">
-        <v>31900</v>
+        <v>32900</v>
       </c>
       <c r="I76" s="3">
-        <v>32300</v>
+        <v>33300</v>
       </c>
       <c r="J76" s="3">
-        <v>31100</v>
+        <v>32000</v>
       </c>
       <c r="K76" s="3">
         <v>500</v>
@@ -4360,10 +4360,10 @@
         <v>-300</v>
       </c>
       <c r="G81" s="3">
-        <v>-3600</v>
+        <v>-3700</v>
       </c>
       <c r="H81" s="3">
-        <v>-600</v>
+        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>1200</v>
@@ -4777,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="H89" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="I89" s="3">
         <v>-100</v>
@@ -5443,7 +5443,7 @@
         <v>100</v>
       </c>
       <c r="J102" s="3">
-        <v>-100</v>
+        <v>-200</v>
       </c>
       <c r="K102" s="3">
         <v>100</v>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,89 +665,92 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -802,8 +805,11 @@
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -858,8 +864,11 @@
       <c r="T9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -914,8 +923,11 @@
       <c r="T10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -936,16 +948,17 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
         <v>0</v>
@@ -953,21 +966,21 @@
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3">
+        <v>0</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,13 +1064,16 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1062,11 +1081,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>3700</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>3900</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1074,12 +1093,12 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>-400</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1098,14 +1117,17 @@
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
-        <v>0</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,11 +1153,11 @@
         <v>0</v>
       </c>
       <c r="K15" s="3">
+        <v>0</v>
+      </c>
+      <c r="L15" s="3">
         <v>200</v>
       </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
       <c r="M15" s="3">
         <v>0</v>
       </c>
@@ -1160,8 +1182,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,37 +1204,38 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="E17" s="3">
         <v>300</v>
       </c>
       <c r="F17" s="3">
+        <v>400</v>
+      </c>
+      <c r="G17" s="3">
         <v>300</v>
       </c>
-      <c r="G17" s="3">
-        <v>3800</v>
-      </c>
       <c r="H17" s="3">
+        <v>3900</v>
+      </c>
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>500</v>
       </c>
-      <c r="K17" s="3">
-        <v>0</v>
-      </c>
       <c r="L17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="M17" s="3">
         <v>500</v>
@@ -1218,25 +1244,28 @@
         <v>500</v>
       </c>
       <c r="O17" s="3">
+        <v>500</v>
+      </c>
+      <c r="P17" s="3">
         <v>800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>300</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>400</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1247,25 +1276,25 @@
         <v>-300</v>
       </c>
       <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-300</v>
       </c>
-      <c r="G18" s="3">
-        <v>-3800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-500</v>
       </c>
-      <c r="K18" s="3">
-        <v>0</v>
-      </c>
       <c r="L18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="M18" s="3">
         <v>-500</v>
@@ -1274,25 +1303,28 @@
         <v>-500</v>
       </c>
       <c r="O18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P18" s="3">
         <v>-800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-300</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-400</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,8 +1345,9 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1334,43 +1367,46 @@
         <v>0</v>
       </c>
       <c r="I20" s="3">
-        <v>1600</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1900</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1381,52 +1417,55 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G21" s="3">
         <v>-300</v>
       </c>
-      <c r="G21" s="3">
-        <v>-3900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="I21" s="3">
         <v>-600</v>
       </c>
-      <c r="I21" s="3">
-        <v>1200</v>
-      </c>
       <c r="J21" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-500</v>
       </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
       <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
         <v>-100</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-500</v>
       </c>
       <c r="N21" s="3">
         <v>-500</v>
       </c>
       <c r="O21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P21" s="3">
         <v>-800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-300</v>
       </c>
       <c r="R21" s="3">
         <v>-300</v>
       </c>
       <c r="S21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T21" s="3">
         <v>-600</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1481,8 +1520,11 @@
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1493,52 +1535,55 @@
         <v>-300</v>
       </c>
       <c r="F23" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G23" s="3">
         <v>-300</v>
       </c>
-      <c r="G23" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H23" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>1200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-500</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-100</v>
       </c>
       <c r="L23" s="3">
         <v>-100</v>
       </c>
       <c r="M23" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="N23" s="3">
         <v>-500</v>
       </c>
       <c r="O23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P23" s="3">
         <v>-800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-300</v>
       </c>
       <c r="R23" s="3">
         <v>-300</v>
       </c>
       <c r="S23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T23" s="3">
         <v>-600</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1593,8 +1638,11 @@
       <c r="T24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,8 +1697,11 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1661,52 +1712,55 @@
         <v>-300</v>
       </c>
       <c r="F26" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G26" s="3">
         <v>-300</v>
       </c>
-      <c r="G26" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>1200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-500</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-100</v>
       </c>
       <c r="L26" s="3">
         <v>-100</v>
       </c>
       <c r="M26" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="N26" s="3">
         <v>-500</v>
       </c>
       <c r="O26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P26" s="3">
         <v>-800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>-300</v>
       </c>
       <c r="R26" s="3">
         <v>-300</v>
       </c>
       <c r="S26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T26" s="3">
         <v>-600</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1717,52 +1771,55 @@
         <v>-300</v>
       </c>
       <c r="F27" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G27" s="3">
         <v>-300</v>
       </c>
-      <c r="G27" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H27" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>1200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-500</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-100</v>
       </c>
       <c r="L27" s="3">
         <v>-100</v>
       </c>
       <c r="M27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="N27" s="3">
         <v>-500</v>
       </c>
       <c r="O27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P27" s="3">
         <v>-800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-300</v>
       </c>
       <c r="R27" s="3">
         <v>-300</v>
       </c>
       <c r="S27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-600</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,8 +1874,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1873,8 +1933,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,8 +2051,11 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2006,43 +2075,46 @@
         <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-1600</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
-        <v>0</v>
+        <v>-1700</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -2053,52 +2125,55 @@
         <v>-300</v>
       </c>
       <c r="F33" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G33" s="3">
         <v>-300</v>
       </c>
-      <c r="G33" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H33" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>1200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-500</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-100</v>
       </c>
       <c r="L33" s="3">
         <v>-100</v>
       </c>
       <c r="M33" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="N33" s="3">
         <v>-500</v>
       </c>
       <c r="O33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P33" s="3">
         <v>-800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-300</v>
       </c>
       <c r="R33" s="3">
         <v>-300</v>
       </c>
       <c r="S33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-600</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,8 +2228,11 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -2165,113 +2243,119 @@
         <v>-300</v>
       </c>
       <c r="F35" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G35" s="3">
         <v>-300</v>
       </c>
-      <c r="G35" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H35" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>1200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-500</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-100</v>
       </c>
       <c r="L35" s="3">
         <v>-100</v>
       </c>
       <c r="M35" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="N35" s="3">
         <v>-500</v>
       </c>
       <c r="O35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P35" s="3">
         <v>-800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-300</v>
       </c>
       <c r="R35" s="3">
         <v>-300</v>
       </c>
       <c r="S35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-600</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,8 +2399,9 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -2335,43 +2421,46 @@
         <v>0</v>
       </c>
       <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
         <v>200</v>
       </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>200</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>400</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>900</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>300</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2394,17 +2483,17 @@
         <v>0</v>
       </c>
       <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>100</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>100</v>
       </c>
-      <c r="M42" s="3">
-        <v>0</v>
-      </c>
       <c r="N42" s="3">
         <v>0</v>
       </c>
@@ -2418,21 +2507,24 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <v>100</v>
       </c>
       <c r="T42" s="3">
+        <v>100</v>
+      </c>
+      <c r="U42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E43" s="3">
         <v>100</v>
@@ -2444,7 +2536,7 @@
         <v>200</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3">
         <v>300</v>
@@ -2453,19 +2545,19 @@
         <v>300</v>
       </c>
       <c r="K43" s="3">
+        <v>300</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>400</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
       </c>
       <c r="N43" s="3">
         <v>300</v>
       </c>
       <c r="O43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>200</v>
@@ -2474,16 +2566,19 @@
         <v>200</v>
       </c>
       <c r="R43" s="3">
+        <v>200</v>
+      </c>
+      <c r="S43" s="3">
         <v>100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2538,8 +2633,11 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2552,8 +2650,8 @@
       <c r="F45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G45" s="3">
-        <v>0</v>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2594,64 +2692,70 @@
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
         <v>100</v>
       </c>
       <c r="F46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="G46" s="3">
         <v>200</v>
       </c>
       <c r="H46" s="3">
+        <v>200</v>
+      </c>
+      <c r="I46" s="3">
         <v>300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>400</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>500</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>600</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2706,8 +2810,11 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2724,46 +2831,49 @@
         <v>0</v>
       </c>
       <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3">
+        <v>32900</v>
+      </c>
+      <c r="J48" s="3">
+        <v>32900</v>
+      </c>
+      <c r="K48" s="3">
         <v>31500</v>
       </c>
-      <c r="I48" s="3">
-        <v>31500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>31500</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>30200</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30700</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>29300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29900</v>
-      </c>
-      <c r="P48" s="3">
-        <v>31200</v>
       </c>
       <c r="Q48" s="3">
         <v>31200</v>
       </c>
       <c r="R48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="S48" s="3">
         <v>31100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>32100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2776,32 +2886,32 @@
       <c r="F49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G49" s="3">
-        <v>0</v>
+      <c r="G49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="K49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="L49" s="3">
         <v>3100</v>
       </c>
-      <c r="I49" s="3">
-        <v>3200</v>
-      </c>
-      <c r="J49" s="3">
-        <v>3200</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>3300</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3100</v>
       </c>
       <c r="N49" s="3">
         <v>3100</v>
       </c>
       <c r="O49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="P49" s="3">
         <v>3200</v>
@@ -2813,13 +2923,16 @@
         <v>3200</v>
       </c>
       <c r="S49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="T49" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,8 +3046,11 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2966,11 +3085,11 @@
         <v>0</v>
       </c>
       <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
         <v>100</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
       <c r="P52" s="3">
         <v>0</v>
       </c>
@@ -2981,13 +3100,16 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,13 +3164,16 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E54" s="3">
         <v>100</v>
@@ -3060,46 +3185,49 @@
         <v>200</v>
       </c>
       <c r="H54" s="3">
-        <v>34900</v>
+        <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>35100</v>
+        <v>36500</v>
       </c>
       <c r="J54" s="3">
+        <v>36700</v>
+      </c>
+      <c r="K54" s="3">
         <v>35200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>34500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>33100</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>34300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34800</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>35800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,102 +3271,106 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E57" s="3">
         <v>1700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1500</v>
       </c>
-      <c r="F57" s="3">
-        <v>1300</v>
-      </c>
       <c r="G57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H57" s="3">
         <v>1100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
+        <v>1000</v>
+      </c>
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
-        <v>800</v>
-      </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2200</v>
-      </c>
-      <c r="K57" s="3">
-        <v>2300</v>
       </c>
       <c r="L57" s="3">
         <v>2300</v>
       </c>
       <c r="M57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="N57" s="3">
         <v>2400</v>
-      </c>
-      <c r="N57" s="3">
-        <v>2200</v>
       </c>
       <c r="O57" s="3">
         <v>2200</v>
       </c>
       <c r="P57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q57" s="3">
         <v>900</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>5600</v>
       </c>
       <c r="R57" s="3">
         <v>5600</v>
       </c>
       <c r="S57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T57" s="3">
         <v>6200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E58" s="3">
         <v>1700</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1600</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>1500</v>
       </c>
-      <c r="G58" s="3">
-        <v>1400</v>
-      </c>
       <c r="H58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I58" s="3">
         <v>1100</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>1000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>900</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>800</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O58" s="3">
-        <v>0</v>
+      <c r="O58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P58" s="3">
         <v>0</v>
@@ -3249,13 +3382,16 @@
         <v>0</v>
       </c>
       <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
         <v>100</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -3292,15 +3428,15 @@
       <c r="N59" s="3">
         <v>0</v>
       </c>
-      <c r="O59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P59" s="3">
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q59" s="3">
         <v>3200</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="R59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3310,8 +3446,11 @@
       <c r="T59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3319,55 +3458,58 @@
         <v>3300</v>
       </c>
       <c r="E60" s="3">
+        <v>3500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="F60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="G60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I60" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2200</v>
       </c>
       <c r="O60" s="3">
         <v>2200</v>
       </c>
       <c r="P60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Q60" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>5600</v>
       </c>
       <c r="R60" s="3">
         <v>5600</v>
       </c>
       <c r="S60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="T60" s="3">
         <v>6300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3378,7 +3520,7 @@
         <v>100</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -3396,22 +3538,22 @@
         <v>0</v>
       </c>
       <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
         <v>1000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>800</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>700</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>600</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R61" s="3">
         <v>200</v>
@@ -3420,10 +3562,13 @@
         <v>200</v>
       </c>
       <c r="T61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3478,8 +3623,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,8 +3800,11 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -3655,55 +3812,58 @@
         <v>3400</v>
       </c>
       <c r="E66" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="K66" s="3">
         <v>3100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="L66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O66" s="3">
         <v>2800</v>
       </c>
-      <c r="G66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="I66" s="3">
-        <v>1800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4100</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>5800</v>
       </c>
       <c r="R66" s="3">
         <v>5800</v>
       </c>
       <c r="S66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="T66" s="3">
         <v>6400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,8 +4000,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3892,8 +4059,11 @@
       <c r="T70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-45300</v>
+        <v>-47500</v>
       </c>
       <c r="E72" s="3">
-        <v>-44900</v>
+        <v>-47300</v>
       </c>
       <c r="F72" s="3">
-        <v>-44600</v>
+        <v>-47000</v>
       </c>
       <c r="G72" s="3">
-        <v>-44200</v>
+        <v>-46600</v>
       </c>
       <c r="H72" s="3">
-        <v>-9000</v>
+        <v>-46200</v>
       </c>
       <c r="I72" s="3">
-        <v>-8400</v>
+        <v>-9400</v>
       </c>
       <c r="J72" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-38100</v>
-      </c>
-      <c r="L72" s="3">
-        <v>-7000</v>
       </c>
       <c r="M72" s="3">
         <v>-7000</v>
       </c>
       <c r="N72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-6200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-5900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-6500</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6400</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3300</v>
+        <v>-3400</v>
       </c>
       <c r="E76" s="3">
-        <v>-3000</v>
+        <v>-3400</v>
       </c>
       <c r="F76" s="3">
-        <v>-2600</v>
+        <v>-3100</v>
       </c>
       <c r="G76" s="3">
-        <v>-2300</v>
+        <v>-2700</v>
       </c>
       <c r="H76" s="3">
-        <v>32900</v>
+        <v>-2400</v>
       </c>
       <c r="I76" s="3">
-        <v>33300</v>
+        <v>34400</v>
       </c>
       <c r="J76" s="3">
+        <v>34800</v>
+      </c>
+      <c r="K76" s="3">
         <v>32000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>31300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>29900</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>30400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>31600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>30500</v>
-      </c>
-      <c r="Q76" s="3">
-        <v>29000</v>
       </c>
       <c r="R76" s="3">
         <v>29000</v>
       </c>
       <c r="S76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="T76" s="3">
         <v>29400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,69 +4472,75 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -4357,52 +4551,55 @@
         <v>-300</v>
       </c>
       <c r="F81" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G81" s="3">
         <v>-300</v>
       </c>
-      <c r="G81" s="3">
-        <v>-3700</v>
-      </c>
       <c r="H81" s="3">
+        <v>-3900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>1200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-500</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-100</v>
       </c>
       <c r="L81" s="3">
         <v>-100</v>
       </c>
       <c r="M81" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="N81" s="3">
         <v>-500</v>
       </c>
       <c r="O81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="P81" s="3">
         <v>-800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1300</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-300</v>
       </c>
       <c r="R81" s="3">
         <v>-300</v>
       </c>
       <c r="S81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-600</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,8 +4620,9 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4438,11 +4636,11 @@
         <v>0</v>
       </c>
       <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
         <v>-100</v>
       </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
       <c r="I83" s="3">
         <v>0</v>
       </c>
@@ -4450,11 +4648,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -4479,8 +4677,11 @@
       <c r="T83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,8 +4972,11 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4768,22 +4984,22 @@
         <v>0</v>
       </c>
       <c r="E89" s="3">
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
         <v>-100</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
       <c r="G89" s="3">
         <v>0</v>
       </c>
       <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-100</v>
-      </c>
-      <c r="J89" s="3">
-        <v>-200</v>
       </c>
       <c r="K89" s="3">
         <v>-200</v>
@@ -4795,13 +5011,13 @@
         <v>-200</v>
       </c>
       <c r="N89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O89" s="3">
         <v>-400</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-100</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
@@ -4810,13 +5026,16 @@
         <v>-100</v>
       </c>
       <c r="S89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T89" s="3">
         <v>-200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,8 +5056,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4854,8 +5074,8 @@
       <c r="G91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
+      <c r="H91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I91" s="3">
         <v>0</v>
@@ -4863,11 +5083,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4882,19 +5102,22 @@
         <v>0</v>
       </c>
       <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
         <v>-100</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
-      </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
       <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,8 +5231,11 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5032,37 +5261,40 @@
         <v>0</v>
       </c>
       <c r="K94" s="3">
+        <v>0</v>
+      </c>
+      <c r="L94" s="3">
         <v>400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>100</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
       <c r="N94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="O94" s="3">
         <v>-100</v>
       </c>
       <c r="P94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>200</v>
       </c>
-      <c r="S94" s="3">
-        <v>0</v>
-      </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5139,8 +5372,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,8 +5549,11 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -5316,16 +5561,16 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>100</v>
       </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
       <c r="G100" s="3">
         <v>0</v>
       </c>
       <c r="H100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I100" s="3">
         <v>100</v>
@@ -5334,7 +5579,7 @@
         <v>100</v>
       </c>
       <c r="K100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -5346,25 +5591,28 @@
         <v>0</v>
       </c>
       <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>1900</v>
       </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
         <v>100</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>200</v>
       </c>
-      <c r="S100" s="3">
-        <v>0</v>
-      </c>
       <c r="T100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5419,8 +5667,11 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5437,42 +5688,45 @@
         <v>0</v>
       </c>
       <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
         <v>-100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-200</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-400</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>900</v>
-      </c>
-      <c r="P102" s="3">
-        <v>-100</v>
       </c>
       <c r="Q102" s="3">
         <v>-100</v>
       </c>
       <c r="R102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="S102" s="3">
         <v>200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,92 +665,96 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +812,11 @@
       <c r="U8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -867,8 +874,11 @@
       <c r="U9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -926,8 +936,11 @@
       <c r="U10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -949,19 +962,20 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
         <v>0</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
@@ -969,21 +983,21 @@
       <c r="H12" s="3">
         <v>0</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,16 +1084,19 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
@@ -1084,11 +1104,11 @@
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>3900</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3600</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>4</v>
@@ -1096,12 +1116,12 @@
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3">
         <v>-400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1120,14 +1140,17 @@
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
-        <v>0</v>
-      </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1156,11 +1179,11 @@
         <v>0</v>
       </c>
       <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3">
         <v>200</v>
       </c>
-      <c r="M15" s="3">
-        <v>0</v>
-      </c>
       <c r="N15" s="3">
         <v>0</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,40 +1231,41 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>400</v>
+      </c>
+      <c r="E17" s="3">
         <v>200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>300</v>
-      </c>
-      <c r="F17" s="3">
-        <v>400</v>
       </c>
       <c r="G17" s="3">
         <v>300</v>
       </c>
       <c r="H17" s="3">
-        <v>3900</v>
+        <v>300</v>
       </c>
       <c r="I17" s="3">
-        <v>700</v>
+        <v>3700</v>
       </c>
       <c r="J17" s="3">
+        <v>600</v>
+      </c>
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
       <c r="M17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
@@ -1247,25 +1274,28 @@
         <v>500</v>
       </c>
       <c r="P17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q17" s="3">
         <v>800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>300</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1273,31 +1303,31 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-200</v>
+      </c>
+      <c r="F18" s="3">
         <v>-300</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-400</v>
       </c>
       <c r="G18" s="3">
         <v>-300</v>
       </c>
       <c r="H18" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I18" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J18" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
       <c r="M18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
@@ -1306,25 +1336,28 @@
         <v>-500</v>
       </c>
       <c r="P18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q18" s="3">
         <v>-800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-300</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,8 +1379,9 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1355,7 +1389,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F20" s="3">
         <v>0</v>
@@ -1370,43 +1404,46 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>1700</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>100</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
       <c r="P20" s="3">
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1900</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1417,55 +1454,58 @@
         <v>-300</v>
       </c>
       <c r="F21" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
       </c>
       <c r="H21" s="3">
-        <v>-4000</v>
+        <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="J21" s="3">
         <v>-600</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>1300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-500</v>
       </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
       <c r="M21" s="3">
+        <v>0</v>
+      </c>
+      <c r="N21" s="3">
         <v>-100</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-500</v>
       </c>
       <c r="O21" s="3">
         <v>-500</v>
       </c>
       <c r="P21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
-      </c>
-      <c r="R21" s="3">
-        <v>-300</v>
       </c>
       <c r="S21" s="3">
         <v>-300</v>
       </c>
       <c r="T21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U21" s="3">
         <v>-600</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1523,67 +1563,73 @@
       <c r="U22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E23" s="3">
         <v>-300</v>
       </c>
       <c r="F23" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
       </c>
       <c r="H23" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I23" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J23" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K23" s="3">
         <v>1200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-500</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-100</v>
       </c>
       <c r="M23" s="3">
         <v>-100</v>
       </c>
       <c r="N23" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="O23" s="3">
         <v>-500</v>
       </c>
       <c r="P23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q23" s="3">
         <v>-800</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1300</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-300</v>
       </c>
       <c r="S23" s="3">
         <v>-300</v>
       </c>
       <c r="T23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U23" s="3">
         <v>-600</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1641,8 +1687,11 @@
       <c r="U24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E26" s="3">
         <v>-300</v>
       </c>
       <c r="F26" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
       </c>
       <c r="H26" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I26" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J26" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K26" s="3">
         <v>1200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-100</v>
       </c>
       <c r="M26" s="3">
         <v>-100</v>
       </c>
       <c r="N26" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="O26" s="3">
         <v>-500</v>
       </c>
       <c r="P26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q26" s="3">
         <v>-800</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1300</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-300</v>
       </c>
       <c r="S26" s="3">
         <v>-300</v>
       </c>
       <c r="T26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U26" s="3">
         <v>-600</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E27" s="3">
         <v>-300</v>
       </c>
       <c r="F27" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
       </c>
       <c r="H27" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I27" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J27" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K27" s="3">
         <v>1200</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-500</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-100</v>
       </c>
       <c r="M27" s="3">
         <v>-100</v>
       </c>
       <c r="N27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="O27" s="3">
         <v>-500</v>
       </c>
       <c r="P27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q27" s="3">
         <v>-800</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1300</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-300</v>
       </c>
       <c r="S27" s="3">
         <v>-300</v>
       </c>
       <c r="T27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U27" s="3">
         <v>-600</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,8 +2121,11 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2063,7 +2133,7 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F32" s="3">
         <v>0</v>
@@ -2078,102 +2148,108 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>-1700</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-100</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
       <c r="P32" s="3">
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1900</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E33" s="3">
         <v>-300</v>
       </c>
       <c r="F33" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
       </c>
       <c r="H33" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I33" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J33" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K33" s="3">
         <v>1200</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-500</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-100</v>
       </c>
       <c r="M33" s="3">
         <v>-100</v>
       </c>
       <c r="N33" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="O33" s="3">
         <v>-500</v>
       </c>
       <c r="P33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q33" s="3">
         <v>-800</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1300</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-300</v>
       </c>
       <c r="S33" s="3">
         <v>-300</v>
       </c>
       <c r="T33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U33" s="3">
         <v>-600</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E35" s="3">
         <v>-300</v>
       </c>
       <c r="F35" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
       </c>
       <c r="H35" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I35" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J35" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K35" s="3">
         <v>1200</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-500</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-100</v>
       </c>
       <c r="M35" s="3">
         <v>-100</v>
       </c>
       <c r="N35" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="O35" s="3">
         <v>-500</v>
       </c>
       <c r="P35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q35" s="3">
         <v>-800</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1300</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-300</v>
       </c>
       <c r="S35" s="3">
         <v>-300</v>
       </c>
       <c r="T35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U35" s="3">
         <v>-600</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,13 +2486,14 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E41" s="3">
         <v>0</v>
@@ -2424,43 +2511,46 @@
         <v>0</v>
       </c>
       <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
       <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>200</v>
       </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
         <v>200</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>300</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2486,17 +2576,17 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>100</v>
       </c>
-      <c r="L42" s="3">
-        <v>0</v>
-      </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>100</v>
       </c>
-      <c r="N42" s="3">
-        <v>0</v>
-      </c>
       <c r="O42" s="3">
         <v>0</v>
       </c>
@@ -2510,16 +2600,19 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>100</v>
       </c>
       <c r="U42" s="3">
+        <v>100</v>
+      </c>
+      <c r="V42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2527,19 +2620,19 @@
         <v>0</v>
       </c>
       <c r="E43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F43" s="3">
         <v>100</v>
       </c>
       <c r="G43" s="3">
+        <v>100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>100</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
-      </c>
-      <c r="H43" s="3">
-        <v>200</v>
-      </c>
-      <c r="I43" s="3">
-        <v>300</v>
       </c>
       <c r="J43" s="3">
         <v>300</v>
@@ -2548,19 +2641,19 @@
         <v>300</v>
       </c>
       <c r="L43" s="3">
+        <v>300</v>
+      </c>
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>400</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>200</v>
@@ -2569,16 +2662,19 @@
         <v>200</v>
       </c>
       <c r="S43" s="3">
+        <v>200</v>
+      </c>
+      <c r="T43" s="3">
         <v>100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2636,22 +2732,25 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
+      <c r="D45" s="3">
+        <v>0</v>
+      </c>
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+      <c r="F45" s="3">
+        <v>0</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
       </c>
       <c r="H45" s="3">
         <v>0</v>
@@ -2695,67 +2794,73 @@
       <c r="U45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
         <v>200</v>
       </c>
       <c r="I46" s="3">
+        <v>200</v>
+      </c>
+      <c r="J46" s="3">
         <v>300</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>500</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>400</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2813,8 +2918,11 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -2834,46 +2942,49 @@
         <v>0</v>
       </c>
       <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>31000</v>
+      </c>
+      <c r="K48" s="3">
         <v>32900</v>
       </c>
-      <c r="J48" s="3">
-        <v>32900</v>
-      </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>31500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>30200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>30700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>29300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>29200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>29900</v>
-      </c>
-      <c r="Q48" s="3">
-        <v>31200</v>
       </c>
       <c r="R48" s="3">
         <v>31200</v>
       </c>
       <c r="S48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="T48" s="3">
         <v>31100</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>32100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2889,32 +3000,32 @@
       <c r="G49" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H49" s="3">
-        <v>0</v>
+      <c r="H49" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="K49" s="3">
         <v>3300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M49" s="3">
+        <v>3100</v>
+      </c>
+      <c r="N49" s="3">
         <v>3300</v>
-      </c>
-      <c r="K49" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3300</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3100</v>
       </c>
       <c r="O49" s="3">
         <v>3100</v>
       </c>
       <c r="P49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="Q49" s="3">
         <v>3200</v>
@@ -2926,13 +3037,16 @@
         <v>3200</v>
       </c>
       <c r="T49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="U49" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,8 +3166,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3088,11 +3208,11 @@
         <v>0</v>
       </c>
       <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
         <v>100</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
       <c r="Q52" s="3">
         <v>0</v>
       </c>
@@ -3103,13 +3223,16 @@
         <v>0</v>
       </c>
       <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="U52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E54" s="3">
+        <v>0</v>
+      </c>
+      <c r="F54" s="3">
         <v>100</v>
       </c>
-      <c r="F54" s="3">
-        <v>200</v>
-      </c>
       <c r="G54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
         <v>200</v>
       </c>
       <c r="I54" s="3">
-        <v>36500</v>
+        <v>200</v>
       </c>
       <c r="J54" s="3">
+        <v>34300</v>
+      </c>
+      <c r="K54" s="3">
         <v>36700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>35200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3600</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>34500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>33100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>33200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>34600</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>34700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34800</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>35800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,75 +3402,79 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>2100</v>
+        <v>400</v>
       </c>
       <c r="E57" s="3">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="F57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="3">
         <v>1400</v>
       </c>
       <c r="H57" s="3">
+        <v>1300</v>
+      </c>
+      <c r="I57" s="3">
         <v>1100</v>
-      </c>
-      <c r="I57" s="3">
-        <v>1000</v>
       </c>
       <c r="J57" s="3">
         <v>900</v>
       </c>
       <c r="K57" s="3">
+        <v>900</v>
+      </c>
+      <c r="L57" s="3">
         <v>2200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>2300</v>
       </c>
       <c r="M57" s="3">
         <v>2300</v>
       </c>
       <c r="N57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="O57" s="3">
         <v>2400</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2200</v>
       </c>
       <c r="P57" s="3">
         <v>2200</v>
       </c>
       <c r="Q57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R57" s="3">
         <v>900</v>
-      </c>
-      <c r="R57" s="3">
-        <v>5600</v>
       </c>
       <c r="S57" s="3">
         <v>5600</v>
       </c>
       <c r="T57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U57" s="3">
         <v>6200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>1300</v>
+        <v>600</v>
       </c>
       <c r="E58" s="3">
-        <v>1700</v>
+        <v>1200</v>
       </c>
       <c r="F58" s="3">
         <v>1600</v>
@@ -3352,28 +3486,28 @@
         <v>1500</v>
       </c>
       <c r="I58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="J58" s="3">
         <v>1100</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>900</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>800</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="O58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
+      <c r="P58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q58" s="3">
         <v>0</v>
@@ -3385,36 +3519,39 @@
         <v>0</v>
       </c>
       <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
         <v>100</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>0</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0</v>
-      </c>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="3">
-        <v>0</v>
-      </c>
-      <c r="I59" s="3">
-        <v>0</v>
-      </c>
-      <c r="J59" s="3">
-        <v>0</v>
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K59" s="3">
         <v>0</v>
@@ -3431,15 +3568,15 @@
       <c r="O59" s="3">
         <v>0</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q59" s="3">
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R59" s="3">
         <v>3200</v>
       </c>
-      <c r="R59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3449,67 +3586,73 @@
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
-        <v>3500</v>
-      </c>
-      <c r="F60" s="3">
-        <v>3200</v>
-      </c>
       <c r="G60" s="3">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="H60" s="3">
-        <v>2600</v>
+        <v>2700</v>
       </c>
       <c r="I60" s="3">
-        <v>2100</v>
+        <v>2400</v>
       </c>
       <c r="J60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K60" s="3">
         <v>1900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3100</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2200</v>
       </c>
       <c r="P60" s="3">
         <v>2200</v>
       </c>
       <c r="Q60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="R60" s="3">
         <v>4100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>5600</v>
       </c>
       <c r="S60" s="3">
         <v>5600</v>
       </c>
       <c r="T60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="U60" s="3">
         <v>6300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -3523,7 +3666,7 @@
         <v>100</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -3541,22 +3684,22 @@
         <v>0</v>
       </c>
       <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
         <v>1000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>800</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>600</v>
       </c>
-      <c r="Q61" s="3">
-        <v>0</v>
-      </c>
       <c r="R61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="S61" s="3">
         <v>200</v>
@@ -3565,10 +3708,13 @@
         <v>200</v>
       </c>
       <c r="U61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3626,8 +3772,11 @@
       <c r="U62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>2700</v>
       </c>
       <c r="E66" s="3">
-        <v>3600</v>
+        <v>3200</v>
       </c>
       <c r="F66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="K66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="M66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="N66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="I66" s="3">
-        <v>2100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="K66" s="3">
+      <c r="O66" s="3">
         <v>3100</v>
       </c>
-      <c r="L66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>4100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>5800</v>
       </c>
       <c r="S66" s="3">
         <v>5800</v>
       </c>
       <c r="T66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="U66" s="3">
         <v>6400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-47500</v>
+        <v>-43900</v>
       </c>
       <c r="E72" s="3">
-        <v>-47300</v>
+        <v>-44600</v>
       </c>
       <c r="F72" s="3">
-        <v>-47000</v>
+        <v>-44500</v>
       </c>
       <c r="G72" s="3">
-        <v>-46600</v>
+        <v>-44200</v>
       </c>
       <c r="H72" s="3">
-        <v>-46200</v>
+        <v>-43800</v>
       </c>
       <c r="I72" s="3">
-        <v>-9400</v>
+        <v>-43500</v>
       </c>
       <c r="J72" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="K72" s="3">
         <v>-8800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-8700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-38100</v>
-      </c>
-      <c r="M72" s="3">
-        <v>-7000</v>
       </c>
       <c r="N72" s="3">
         <v>-7000</v>
       </c>
       <c r="O72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="P72" s="3">
         <v>-6200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-5200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-6500</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-6300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-6400</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3400</v>
+        <v>-2600</v>
       </c>
       <c r="E76" s="3">
-        <v>-3400</v>
+        <v>-3200</v>
       </c>
       <c r="F76" s="3">
-        <v>-3100</v>
+        <v>-3200</v>
       </c>
       <c r="G76" s="3">
-        <v>-2700</v>
+        <v>-2900</v>
       </c>
       <c r="H76" s="3">
-        <v>-2400</v>
+        <v>-2600</v>
       </c>
       <c r="I76" s="3">
-        <v>34400</v>
+        <v>-2300</v>
       </c>
       <c r="J76" s="3">
+        <v>32400</v>
+      </c>
+      <c r="K76" s="3">
         <v>34800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>32000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>31300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>29900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>30400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31600</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>30500</v>
-      </c>
-      <c r="R76" s="3">
-        <v>29000</v>
       </c>
       <c r="S76" s="3">
         <v>29000</v>
       </c>
       <c r="T76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="U76" s="3">
         <v>29400</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="E81" s="3">
         <v>-300</v>
       </c>
       <c r="F81" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
       </c>
       <c r="H81" s="3">
-        <v>-3900</v>
+        <v>-300</v>
       </c>
       <c r="I81" s="3">
-        <v>-700</v>
+        <v>-3700</v>
       </c>
       <c r="J81" s="3">
+        <v>-600</v>
+      </c>
+      <c r="K81" s="3">
         <v>1200</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-500</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-100</v>
       </c>
       <c r="M81" s="3">
         <v>-100</v>
       </c>
       <c r="N81" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="O81" s="3">
         <v>-500</v>
       </c>
       <c r="P81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Q81" s="3">
         <v>-800</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1300</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-300</v>
       </c>
       <c r="S81" s="3">
         <v>-300</v>
       </c>
       <c r="T81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="U81" s="3">
         <v>-600</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4639,11 +4838,11 @@
         <v>0</v>
       </c>
       <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
         <v>-100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
       <c r="J83" s="3">
         <v>0</v>
       </c>
@@ -4651,11 +4850,11 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
       <c r="N83" s="3">
         <v>0</v>
       </c>
@@ -4680,8 +4879,11 @@
       <c r="U83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,8 +5189,11 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -4987,22 +5204,22 @@
         <v>0</v>
       </c>
       <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
         <v>-100</v>
       </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
       <c r="I89" s="3">
-        <v>-200</v>
+        <v>0</v>
       </c>
       <c r="J89" s="3">
         <v>-100</v>
       </c>
       <c r="K89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="L89" s="3">
         <v>-200</v>
@@ -5014,13 +5231,13 @@
         <v>-200</v>
       </c>
       <c r="O89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="P89" s="3">
         <v>-400</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-900</v>
-      </c>
-      <c r="Q89" s="3">
-        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-100</v>
@@ -5029,13 +5246,16 @@
         <v>-100</v>
       </c>
       <c r="T89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="U89" s="3">
         <v>-200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,8 +5277,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5077,8 +5298,8 @@
       <c r="H91" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I91" s="3">
-        <v>0</v>
+      <c r="I91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
@@ -5086,11 +5307,11 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -5105,19 +5326,22 @@
         <v>0</v>
       </c>
       <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
         <v>-100</v>
       </c>
-      <c r="S91" s="3">
-        <v>0</v>
-      </c>
       <c r="T91" s="3">
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,8 +5461,11 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5264,37 +5494,40 @@
         <v>0</v>
       </c>
       <c r="L94" s="3">
+        <v>0</v>
+      </c>
+      <c r="M94" s="3">
         <v>400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>100</v>
       </c>
-      <c r="N94" s="3">
-        <v>0</v>
-      </c>
       <c r="O94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P94" s="3">
         <v>-100</v>
       </c>
       <c r="Q94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>-100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>200</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,28 +5795,31 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>0</v>
+      <c r="D100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E100" s="3">
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>100</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J100" s="3">
         <v>100</v>
@@ -5582,7 +5828,7 @@
         <v>100</v>
       </c>
       <c r="L100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -5594,25 +5840,28 @@
         <v>0</v>
       </c>
       <c r="P100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q100" s="3">
         <v>1900</v>
       </c>
-      <c r="Q100" s="3">
-        <v>0</v>
-      </c>
       <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>100</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>200</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5670,8 +5919,11 @@
       <c r="U101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -5691,42 +5943,45 @@
         <v>0</v>
       </c>
       <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
         <v>-100</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-400</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>900</v>
-      </c>
-      <c r="Q102" s="3">
-        <v>-100</v>
       </c>
       <c r="R102" s="3">
         <v>-100</v>
       </c>
       <c r="S102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="T102" s="3">
         <v>200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:X102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,96 +665,104 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -815,8 +823,14 @@
       <c r="V8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -877,8 +891,14 @@
       <c r="V9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -939,8 +959,14 @@
       <c r="V10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -963,47 +989,49 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
+        <v>100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3">
-        <v>0</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
         <v>100</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1025,8 +1053,14 @@
       <c r="V12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,47 +1121,53 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="3">
-        <v>0</v>
+      <c r="E14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="3">
+      <c r="I14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
         <v>3600</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M14" s="3">
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>-400</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1143,14 +1183,20 @@
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="U14" s="3">
-        <v>0</v>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1182,14 +1228,14 @@
         <v>0</v>
       </c>
       <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
         <v>200</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
-      </c>
-      <c r="O15" s="3">
-        <v>0</v>
-      </c>
       <c r="P15" s="3">
         <v>0</v>
       </c>
@@ -1211,8 +1257,14 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,70 +1284,78 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>900</v>
+      </c>
+      <c r="E17" s="3">
+        <v>800</v>
+      </c>
+      <c r="F17" s="3">
         <v>400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>200</v>
-      </c>
-      <c r="F17" s="3">
-        <v>300</v>
-      </c>
-      <c r="G17" s="3">
-        <v>300</v>
       </c>
       <c r="H17" s="3">
         <v>300</v>
       </c>
       <c r="I17" s="3">
+        <v>300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>300</v>
+      </c>
+      <c r="K17" s="3">
         <v>3700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
-      </c>
-      <c r="L17" s="3">
-        <v>500</v>
-      </c>
-      <c r="M17" s="3">
-        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>500</v>
       </c>
       <c r="O17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="P17" s="3">
         <v>500</v>
       </c>
       <c r="Q17" s="3">
+        <v>500</v>
+      </c>
+      <c r="R17" s="3">
+        <v>500</v>
+      </c>
+      <c r="S17" s="3">
         <v>800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>600</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>300</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>400</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1303,61 +1363,67 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-400</v>
+      </c>
+      <c r="G18" s="3">
         <v>-200</v>
-      </c>
-      <c r="F18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-300</v>
       </c>
       <c r="H18" s="3">
         <v>-300</v>
       </c>
       <c r="I18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K18" s="3">
         <v>-3700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="M18" s="3">
-        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>-500</v>
       </c>
       <c r="O18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="P18" s="3">
         <v>-500</v>
       </c>
       <c r="Q18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="R18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="S18" s="3">
         <v>-800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-600</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>-300</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>-400</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,8 +1446,10 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1389,14 +1457,14 @@
         <v>4</v>
       </c>
       <c r="E20" s="3">
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="F20" s="3">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1407,43 +1475,49 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
         <v>1700</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
         <v>-100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>400</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>100</v>
       </c>
-      <c r="P20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>1900</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1451,10 +1525,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="F21" s="3">
-        <v>-300</v>
+        <v>-400</v>
       </c>
       <c r="G21" s="3">
         <v>-300</v>
@@ -1463,49 +1537,55 @@
         <v>-300</v>
       </c>
       <c r="I21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K21" s="3">
         <v>-3800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>1300</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-500</v>
       </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
         <v>-100</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>-600</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1566,19 +1646,25 @@
       <c r="V22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F23" s="3">
         <v>-400</v>
-      </c>
-      <c r="E23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F23" s="3">
-        <v>-300</v>
       </c>
       <c r="G23" s="3">
         <v>-300</v>
@@ -1587,49 +1673,55 @@
         <v>-300</v>
       </c>
       <c r="I23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K23" s="3">
         <v>-3700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>1200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-100</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-100</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-800</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1300</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-300</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-300</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-600</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1690,8 +1782,14 @@
       <c r="V24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,19 +1850,25 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F26" s="3">
         <v>-400</v>
-      </c>
-      <c r="E26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F26" s="3">
-        <v>-300</v>
       </c>
       <c r="G26" s="3">
         <v>-300</v>
@@ -1773,60 +1877,66 @@
         <v>-300</v>
       </c>
       <c r="I26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K26" s="3">
         <v>-3700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>1200</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-100</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-100</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-800</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-300</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-300</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-600</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F27" s="3">
         <v>-400</v>
-      </c>
-      <c r="E27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F27" s="3">
-        <v>-300</v>
       </c>
       <c r="G27" s="3">
         <v>-300</v>
@@ -1835,49 +1945,55 @@
         <v>-300</v>
       </c>
       <c r="I27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K27" s="3">
         <v>-3700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>1200</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-800</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1300</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-600</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +2054,14 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2122,14 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2190,14 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,8 +2258,14 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2133,14 +2273,14 @@
         <v>4</v>
       </c>
       <c r="E32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="F32" s="3">
-        <v>0</v>
-      </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2151,54 +2291,60 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
         <v>-1700</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
         <v>100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-400</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-100</v>
       </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1900</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F33" s="3">
         <v>-400</v>
-      </c>
-      <c r="E33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F33" s="3">
-        <v>-300</v>
       </c>
       <c r="G33" s="3">
         <v>-300</v>
@@ -2207,49 +2353,55 @@
         <v>-300</v>
       </c>
       <c r="I33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K33" s="3">
         <v>-3700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>1200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-800</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1300</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-600</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,19 +2462,25 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F35" s="3">
         <v>-400</v>
-      </c>
-      <c r="E35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F35" s="3">
-        <v>-300</v>
       </c>
       <c r="G35" s="3">
         <v>-300</v>
@@ -2331,116 +2489,128 @@
         <v>-300</v>
       </c>
       <c r="I35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K35" s="3">
         <v>-3700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>1200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-800</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1300</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-600</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2633,10 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,19 +2659,21 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+      <c r="X40" s="3"/>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
-        <v>0</v>
-      </c>
       <c r="F41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G41" s="3">
         <v>0</v>
@@ -2514,13 +2688,13 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
         <v>100</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>200</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -2529,28 +2703,34 @@
         <v>200</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>200</v>
+      </c>
+      <c r="R41" s="3">
         <v>400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>900</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>300</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2579,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -2591,7 +2771,7 @@
         <v>0</v>
       </c>
       <c r="P42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q42" s="3">
         <v>0</v>
@@ -2603,16 +2783,22 @@
         <v>0</v>
       </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
         <v>100</v>
       </c>
-      <c r="U42" s="3">
+      <c r="W42" s="3">
         <v>100</v>
       </c>
-      <c r="V42" s="3">
+      <c r="X42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2623,49 +2809,49 @@
         <v>0</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="H43" s="3">
         <v>100</v>
       </c>
       <c r="I43" s="3">
+        <v>100</v>
+      </c>
+      <c r="J43" s="3">
+        <v>100</v>
+      </c>
+      <c r="K43" s="3">
         <v>200</v>
-      </c>
-      <c r="J43" s="3">
-        <v>300</v>
-      </c>
-      <c r="K43" s="3">
-        <v>300</v>
       </c>
       <c r="L43" s="3">
         <v>300</v>
       </c>
       <c r="M43" s="3">
+        <v>300</v>
+      </c>
+      <c r="N43" s="3">
+        <v>300</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>300</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>300</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>200</v>
-      </c>
-      <c r="R43" s="3">
-        <v>200</v>
       </c>
       <c r="S43" s="3">
         <v>200</v>
       </c>
       <c r="T43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="U43" s="3">
         <v>200</v>
@@ -2673,8 +2859,14 @@
       <c r="V43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W43" s="3">
+        <v>200</v>
+      </c>
+      <c r="X43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2735,8 +2927,14 @@
       <c r="V44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2797,37 +2995,43 @@
       <c r="V45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E46" s="3">
         <v>100</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
         <v>100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
+        <v>100</v>
+      </c>
+      <c r="J46" s="3">
         <v>200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>300</v>
-      </c>
-      <c r="K46" s="3">
-        <v>400</v>
-      </c>
-      <c r="L46" s="3">
-        <v>500</v>
       </c>
       <c r="M46" s="3">
         <v>400</v>
@@ -2836,31 +3040,37 @@
         <v>500</v>
       </c>
       <c r="O46" s="3">
+        <v>400</v>
+      </c>
+      <c r="P46" s="3">
+        <v>500</v>
+      </c>
+      <c r="Q46" s="3">
         <v>600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>800</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>200</v>
-      </c>
-      <c r="S46" s="3">
-        <v>300</v>
-      </c>
-      <c r="T46" s="3">
-        <v>400</v>
       </c>
       <c r="U46" s="3">
         <v>300</v>
       </c>
       <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
+        <v>300</v>
+      </c>
+      <c r="X46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2921,13 +3131,19 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
-        <v>0</v>
+      <c r="D48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="E48" s="3">
         <v>0</v>
@@ -2945,93 +3161,99 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
         <v>31000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>32900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>31500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>30200</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>30700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>29300</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>29200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>29900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>31200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>31200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>31100</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>32100</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>4</v>
+      <c r="D49" s="3">
+        <v>0</v>
+      </c>
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+      <c r="F49" s="3">
+        <v>0</v>
+      </c>
+      <c r="G49" s="3">
+        <v>0</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
         <v>3100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>3300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>3200</v>
-      </c>
-      <c r="M49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="N49" s="3">
-        <v>3300</v>
       </c>
       <c r="O49" s="3">
         <v>3100</v>
       </c>
       <c r="P49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3100</v>
       </c>
-      <c r="Q49" s="3">
-        <v>3200</v>
-      </c>
       <c r="R49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="S49" s="3">
         <v>3200</v>
@@ -3040,13 +3262,19 @@
         <v>3200</v>
       </c>
       <c r="U49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="W49" s="3">
         <v>3300</v>
       </c>
-      <c r="V49" s="3">
+      <c r="X49" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3335,14 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,8 +3403,14 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3211,14 +3451,14 @@
         <v>0</v>
       </c>
       <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
         <v>100</v>
       </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-      <c r="R52" s="3">
-        <v>0</v>
-      </c>
       <c r="S52" s="3">
         <v>0</v>
       </c>
@@ -3226,13 +3466,19 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3539,82 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E54" s="3">
         <v>100</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
+        <v>0</v>
+      </c>
+      <c r="H54" s="3">
         <v>100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
+        <v>100</v>
+      </c>
+      <c r="J54" s="3">
         <v>200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>34300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>36700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>35200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>3600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>34500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>33100</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>33200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>34300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>34600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>34700</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>34800</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>35800</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3637,10 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+      <c r="X55" s="3"/>
+    </row>
+    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,70 +3663,78 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+      <c r="X56" s="3"/>
+    </row>
+    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>300</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>400</v>
+      </c>
+      <c r="G57" s="3">
         <v>1900</v>
       </c>
-      <c r="F57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G57" s="3">
-        <v>1400</v>
-      </c>
       <c r="H57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1500</v>
+      </c>
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>2200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>2300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>2300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2400</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>5600</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>5600</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>6200</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3474,46 +3742,46 @@
         <v>600</v>
       </c>
       <c r="E58" s="3">
+        <v>600</v>
+      </c>
+      <c r="F58" s="3">
+        <v>600</v>
+      </c>
+      <c r="G58" s="3">
         <v>1200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>1600</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
+        <v>1600</v>
+      </c>
+      <c r="J58" s="3">
         <v>1500</v>
       </c>
-      <c r="H58" s="3">
-        <v>1500</v>
-      </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1100</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>900</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>800</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-      <c r="R58" s="3">
-        <v>0</v>
+      <c r="Q58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -3522,25 +3790,31 @@
         <v>0</v>
       </c>
       <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
         <v>100</v>
       </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3553,11 +3827,11 @@
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K59" s="3">
-        <v>0</v>
-      </c>
-      <c r="L59" s="3">
-        <v>0</v>
+      <c r="K59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M59" s="3">
         <v>0</v>
@@ -3571,93 +3845,105 @@
       <c r="P59" s="3">
         <v>0</v>
       </c>
-      <c r="Q59" s="3" t="s">
-        <v>4</v>
+      <c r="Q59" s="3">
+        <v>0</v>
       </c>
       <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T59" s="3">
         <v>3200</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F60" s="3">
         <v>2600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N60" s="3">
         <v>3100</v>
       </c>
-      <c r="F60" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="O60" s="3">
         <v>3000</v>
       </c>
-      <c r="H60" s="3">
-        <v>2700</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="P60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="Q60" s="3">
         <v>2400</v>
       </c>
-      <c r="J60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>4100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>5600</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>5600</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>6300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>100</v>
+        <v>500</v>
       </c>
       <c r="E61" s="3">
         <v>100</v>
@@ -3669,10 +3955,10 @@
         <v>100</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -3687,34 +3973,40 @@
         <v>0</v>
       </c>
       <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
         <v>1000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>800</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>600</v>
       </c>
-      <c r="R61" s="3">
-        <v>0</v>
-      </c>
-      <c r="S61" s="3">
-        <v>200</v>
-      </c>
       <c r="T61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="U61" s="3">
         <v>200</v>
       </c>
       <c r="V61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="W61" s="3">
+        <v>200</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3775,8 +4067,14 @@
       <c r="V62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +4135,14 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4203,14 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4271,82 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="F66" s="3">
         <v>2700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3200</v>
       </c>
-      <c r="F66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="O66" s="3">
         <v>3000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="P66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="R66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="S66" s="3">
         <v>2700</v>
       </c>
-      <c r="I66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="K66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>4100</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>5800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>5800</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>6400</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4369,10 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+      <c r="X67" s="3"/>
+    </row>
+    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4433,14 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4501,14 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4569,14 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4637,82 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-43900</v>
+        <v>-46400</v>
       </c>
       <c r="E72" s="3">
-        <v>-44600</v>
+        <v>-45500</v>
       </c>
       <c r="F72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-45000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-44800</v>
+      </c>
+      <c r="I72" s="3">
         <v>-44500</v>
       </c>
-      <c r="G72" s="3">
-        <v>-44200</v>
-      </c>
-      <c r="H72" s="3">
-        <v>-43800</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
+        <v>-44100</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-8900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-8800</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-8700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-38100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-7000</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-7000</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-6200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-5900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-5200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6500</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-6300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-6400</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4773,14 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4841,14 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4909,82 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="F76" s="3">
         <v>-2600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-3200</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3200</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-2600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-2300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>32400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>34800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>32000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>31300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>29900</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>30400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31600</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>30500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>29000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>29000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>29400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,86 +5045,98 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-800</v>
+      </c>
+      <c r="F81" s="3">
         <v>-400</v>
-      </c>
-      <c r="E81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F81" s="3">
-        <v>-300</v>
       </c>
       <c r="G81" s="3">
         <v>-300</v>
@@ -4755,49 +5145,55 @@
         <v>-300</v>
       </c>
       <c r="I81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K81" s="3">
         <v>-3700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>1200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-800</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1300</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-600</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,8 +5216,10 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+      <c r="X82" s="3"/>
+    </row>
+    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4841,26 +5239,26 @@
         <v>0</v>
       </c>
       <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
+      </c>
+      <c r="K83" s="3">
         <v>-100</v>
       </c>
-      <c r="J83" s="3">
-        <v>0</v>
-      </c>
-      <c r="K83" s="3">
-        <v>0</v>
-      </c>
       <c r="L83" s="3">
         <v>0</v>
       </c>
       <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -4882,8 +5280,14 @@
       <c r="V83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W83" s="3">
+        <v>0</v>
+      </c>
+      <c r="X83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5348,14 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5416,14 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5484,14 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5552,14 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,13 +5620,19 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="E89" s="3">
         <v>0</v>
@@ -5207,25 +5641,25 @@
         <v>0</v>
       </c>
       <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
         <v>-100</v>
       </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-100</v>
-      </c>
-      <c r="L89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="M89" s="3">
-        <v>-200</v>
       </c>
       <c r="N89" s="3">
         <v>-200</v>
@@ -5234,28 +5668,34 @@
         <v>-200</v>
       </c>
       <c r="P89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Q89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R89" s="3">
         <v>-400</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-900</v>
-      </c>
-      <c r="R89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-100</v>
       </c>
       <c r="T89" s="3">
         <v>-100</v>
       </c>
       <c r="U89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="V89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,46 +5718,48 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+      <c r="X90" s="3"/>
+    </row>
+    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>4</v>
+      <c r="D91" s="3">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
       </c>
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>4</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5329,19 +5771,25 @@
         <v>0</v>
       </c>
       <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3">
+        <v>0</v>
+      </c>
+      <c r="U91" s="3">
         <v>-100</v>
       </c>
-      <c r="T91" s="3">
-        <v>0</v>
-      </c>
-      <c r="U91" s="3">
-        <v>0</v>
-      </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5850,14 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,8 +5918,14 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5497,37 +5957,43 @@
         <v>0</v>
       </c>
       <c r="M94" s="3">
+        <v>0</v>
+      </c>
+      <c r="N94" s="3">
+        <v>0</v>
+      </c>
+      <c r="O94" s="3">
         <v>400</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>100</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="R94" s="3">
-        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="V94" s="3">
         <v>200</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +6016,10 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+      <c r="X95" s="3"/>
+    </row>
+    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +6080,14 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +6148,14 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +6216,14 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,43 +6284,49 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
+      <c r="D100" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>100</v>
       </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
       <c r="J100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L100" s="3">
         <v>100</v>
       </c>
       <c r="M100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5843,25 +6335,31 @@
         <v>0</v>
       </c>
       <c r="Q100" s="3">
+        <v>0</v>
+      </c>
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
         <v>1900</v>
       </c>
-      <c r="R100" s="3">
-        <v>0</v>
-      </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
         <v>100</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>200</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5922,13 +6420,19 @@
       <c r="V101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W101" s="3">
+        <v>0</v>
+      </c>
+      <c r="X101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="E102" s="3">
         <v>0</v>
@@ -5946,42 +6450,48 @@
         <v>0</v>
       </c>
       <c r="J102" s="3">
+        <v>0</v>
+      </c>
+      <c r="K102" s="3">
+        <v>0</v>
+      </c>
+      <c r="L102" s="3">
         <v>-100</v>
-      </c>
-      <c r="K102" s="3">
-        <v>100</v>
-      </c>
-      <c r="L102" s="3">
-        <v>-200</v>
       </c>
       <c r="M102" s="3">
         <v>100</v>
       </c>
       <c r="N102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O102" s="3">
+        <v>100</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-400</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>900</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>200</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-200</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -3875,7 +3875,7 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E60" s="3">
         <v>2900</v>
@@ -4655,10 +4655,10 @@
         <v>-45500</v>
       </c>
       <c r="F72" s="3">
-        <v>-44300</v>
+        <v>-44200</v>
       </c>
       <c r="G72" s="3">
-        <v>-45000</v>
+        <v>-44900</v>
       </c>
       <c r="H72" s="3">
         <v>-44800</v>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:X102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,104 +665,107 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -829,8 +832,11 @@
       <c r="X8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -897,8 +903,11 @@
       <c r="X9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -965,8 +974,11 @@
       <c r="X10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -991,28 +1003,29 @@
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>5400</v>
+      </c>
+      <c r="E12" s="3">
         <v>100</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
         <v>0</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="H12" s="3">
+        <v>0</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
@@ -1020,21 +1033,21 @@
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3">
+        <v>0</v>
       </c>
       <c r="M12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N12" s="3">
-        <v>0</v>
+      <c r="N12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
         <v>100</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1059,8 +1072,11 @@
       <c r="X12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1127,13 +1143,16 @@
       <c r="X13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>4</v>
+      <c r="D14" s="3">
+        <v>0</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>4</v>
@@ -1141,11 +1160,11 @@
       <c r="F14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1153,24 +1172,24 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
         <v>3600</v>
       </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>-400</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1189,14 +1208,17 @@
       <c r="V14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W14" s="3">
-        <v>0</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="W14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1234,11 +1256,11 @@
         <v>0</v>
       </c>
       <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
         <v>200</v>
       </c>
-      <c r="P15" s="3">
-        <v>0</v>
-      </c>
       <c r="Q15" s="3">
         <v>0</v>
       </c>
@@ -1263,8 +1285,11 @@
       <c r="X15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1286,25 +1311,26 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>900</v>
+        <v>9300</v>
       </c>
       <c r="E17" s="3">
         <v>800</v>
       </c>
       <c r="F17" s="3">
+        <v>700</v>
+      </c>
+      <c r="G17" s="3">
         <v>400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>200</v>
-      </c>
-      <c r="H17" s="3">
-        <v>300</v>
       </c>
       <c r="I17" s="3">
         <v>300</v>
@@ -1313,22 +1339,22 @@
         <v>300</v>
       </c>
       <c r="K17" s="3">
+        <v>300</v>
+      </c>
+      <c r="L17" s="3">
         <v>3700</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>500</v>
       </c>
-      <c r="O17" s="3">
-        <v>0</v>
-      </c>
       <c r="P17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
@@ -1337,25 +1363,28 @@
         <v>500</v>
       </c>
       <c r="S17" s="3">
+        <v>500</v>
+      </c>
+      <c r="T17" s="3">
         <v>800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>600</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>300</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>400</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1366,13 +1395,13 @@
         <v>-800</v>
       </c>
       <c r="F18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G18" s="3">
         <v>-400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-200</v>
-      </c>
-      <c r="H18" s="3">
-        <v>-300</v>
       </c>
       <c r="I18" s="3">
         <v>-300</v>
@@ -1381,22 +1410,22 @@
         <v>-300</v>
       </c>
       <c r="K18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L18" s="3">
         <v>-3700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-400</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-500</v>
       </c>
-      <c r="O18" s="3">
-        <v>0</v>
-      </c>
       <c r="P18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
@@ -1405,25 +1434,28 @@
         <v>-500</v>
       </c>
       <c r="S18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T18" s="3">
         <v>-800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-600</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-300</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>-400</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1448,8 +1480,9 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1463,11 +1496,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1481,43 +1514,46 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>1700</v>
       </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>-100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>400</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>100</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
         <v>0</v>
       </c>
       <c r="T20" s="3">
+        <v>0</v>
+      </c>
+      <c r="U20" s="3">
         <v>1900</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
       <c r="X20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1528,10 +1564,10 @@
         <v>-800</v>
       </c>
       <c r="F21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G21" s="3">
         <v>-400</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-300</v>
       </c>
       <c r="H21" s="3">
         <v>-300</v>
@@ -1543,49 +1579,52 @@
         <v>-300</v>
       </c>
       <c r="K21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L21" s="3">
         <v>-3800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>1300</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-500</v>
       </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
       <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-100</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>-500</v>
       </c>
       <c r="R21" s="3">
         <v>-500</v>
       </c>
       <c r="S21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T21" s="3">
         <v>-800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>1300</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-300</v>
       </c>
       <c r="V21" s="3">
         <v>-300</v>
       </c>
       <c r="W21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X21" s="3">
         <v>-600</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,22 +1691,25 @@
       <c r="X22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-900</v>
+        <v>-9400</v>
       </c>
       <c r="E23" s="3">
         <v>-800</v>
       </c>
       <c r="F23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G23" s="3">
         <v>-400</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-300</v>
       </c>
       <c r="H23" s="3">
         <v>-300</v>
@@ -1679,49 +1721,52 @@
         <v>-300</v>
       </c>
       <c r="K23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L23" s="3">
         <v>-3700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>1200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-500</v>
-      </c>
-      <c r="O23" s="3">
-        <v>-100</v>
       </c>
       <c r="P23" s="3">
         <v>-100</v>
       </c>
       <c r="Q23" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R23" s="3">
         <v>-500</v>
       </c>
       <c r="S23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T23" s="3">
         <v>-800</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>1300</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-300</v>
       </c>
       <c r="V23" s="3">
         <v>-300</v>
       </c>
       <c r="W23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X23" s="3">
         <v>-600</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1788,8 +1833,11 @@
       <c r="X24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1856,22 +1904,25 @@
       <c r="X25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-900</v>
+        <v>-9400</v>
       </c>
       <c r="E26" s="3">
         <v>-800</v>
       </c>
       <c r="F26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G26" s="3">
         <v>-400</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-300</v>
       </c>
       <c r="H26" s="3">
         <v>-300</v>
@@ -1883,63 +1934,66 @@
         <v>-300</v>
       </c>
       <c r="K26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L26" s="3">
         <v>-3700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>1200</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-500</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-100</v>
       </c>
       <c r="P26" s="3">
         <v>-100</v>
       </c>
       <c r="Q26" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R26" s="3">
         <v>-500</v>
       </c>
       <c r="S26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T26" s="3">
         <v>-800</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>1300</v>
-      </c>
-      <c r="U26" s="3">
-        <v>-300</v>
       </c>
       <c r="V26" s="3">
         <v>-300</v>
       </c>
       <c r="W26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X26" s="3">
         <v>-600</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-900</v>
+        <v>-9400</v>
       </c>
       <c r="E27" s="3">
         <v>-800</v>
       </c>
       <c r="F27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G27" s="3">
         <v>-400</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-300</v>
       </c>
       <c r="H27" s="3">
         <v>-300</v>
@@ -1951,49 +2005,52 @@
         <v>-300</v>
       </c>
       <c r="K27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L27" s="3">
         <v>-3700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-600</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>1200</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-500</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-100</v>
       </c>
       <c r="P27" s="3">
         <v>-100</v>
       </c>
       <c r="Q27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R27" s="3">
         <v>-500</v>
       </c>
       <c r="S27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T27" s="3">
         <v>-800</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>1300</v>
-      </c>
-      <c r="U27" s="3">
-        <v>-300</v>
       </c>
       <c r="V27" s="3">
         <v>-300</v>
       </c>
       <c r="W27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X27" s="3">
         <v>-600</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2060,8 +2117,11 @@
       <c r="X28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2128,8 +2188,11 @@
       <c r="X29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2196,8 +2259,11 @@
       <c r="X30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2264,8 +2330,11 @@
       <c r="X31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2279,11 +2348,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2297,57 +2366,60 @@
         <v>0</v>
       </c>
       <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>-1700</v>
       </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-400</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-100</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
         <v>0</v>
       </c>
       <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
         <v>-1900</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
       <c r="X32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-900</v>
+        <v>-9400</v>
       </c>
       <c r="E33" s="3">
         <v>-800</v>
       </c>
       <c r="F33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G33" s="3">
         <v>-400</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-300</v>
       </c>
       <c r="H33" s="3">
         <v>-300</v>
@@ -2359,49 +2431,52 @@
         <v>-300</v>
       </c>
       <c r="K33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L33" s="3">
         <v>-3700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>1200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-500</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-100</v>
       </c>
       <c r="P33" s="3">
         <v>-100</v>
       </c>
       <c r="Q33" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R33" s="3">
         <v>-500</v>
       </c>
       <c r="S33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T33" s="3">
         <v>-800</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>1300</v>
-      </c>
-      <c r="U33" s="3">
-        <v>-300</v>
       </c>
       <c r="V33" s="3">
         <v>-300</v>
       </c>
       <c r="W33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X33" s="3">
         <v>-600</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2468,22 +2543,25 @@
       <c r="X34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-900</v>
+        <v>-9400</v>
       </c>
       <c r="E35" s="3">
         <v>-800</v>
       </c>
       <c r="F35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G35" s="3">
         <v>-400</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-300</v>
       </c>
       <c r="H35" s="3">
         <v>-300</v>
@@ -2495,122 +2573,128 @@
         <v>-300</v>
       </c>
       <c r="K35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L35" s="3">
         <v>-3700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>1200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-500</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-100</v>
       </c>
       <c r="P35" s="3">
         <v>-100</v>
       </c>
       <c r="Q35" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R35" s="3">
         <v>-500</v>
       </c>
       <c r="S35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T35" s="3">
         <v>-800</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>1300</v>
-      </c>
-      <c r="U35" s="3">
-        <v>-300</v>
       </c>
       <c r="V35" s="3">
         <v>-300</v>
       </c>
       <c r="W35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X35" s="3">
         <v>-600</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2635,8 +2719,9 @@
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
-    </row>
-    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2661,22 +2746,23 @@
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
-    </row>
-    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>2200</v>
+        <v>1400</v>
       </c>
       <c r="E41" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="F41" s="3">
         <v>100</v>
       </c>
       <c r="G41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H41" s="3">
         <v>0</v>
@@ -2694,43 +2780,46 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
         <v>100</v>
       </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
       <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>200</v>
       </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>200</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>100</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>300</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2765,17 +2854,17 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>100</v>
       </c>
-      <c r="O42" s="3">
-        <v>0</v>
-      </c>
       <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
         <v>100</v>
       </c>
-      <c r="Q42" s="3">
-        <v>0</v>
-      </c>
       <c r="R42" s="3">
         <v>0</v>
       </c>
@@ -2789,21 +2878,24 @@
         <v>0</v>
       </c>
       <c r="V42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="W42" s="3">
         <v>100</v>
       </c>
       <c r="X42" s="3">
+        <v>100</v>
+      </c>
+      <c r="Y42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E43" s="3">
         <v>0</v>
@@ -2815,7 +2907,7 @@
         <v>0</v>
       </c>
       <c r="H43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>100</v>
@@ -2824,10 +2916,10 @@
         <v>100</v>
       </c>
       <c r="K43" s="3">
+        <v>100</v>
+      </c>
+      <c r="L43" s="3">
         <v>200</v>
-      </c>
-      <c r="L43" s="3">
-        <v>300</v>
       </c>
       <c r="M43" s="3">
         <v>300</v>
@@ -2836,19 +2928,19 @@
         <v>300</v>
       </c>
       <c r="O43" s="3">
+        <v>300</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>400</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
       </c>
       <c r="R43" s="3">
         <v>300</v>
       </c>
       <c r="S43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="T43" s="3">
         <v>200</v>
@@ -2857,16 +2949,19 @@
         <v>200</v>
       </c>
       <c r="V43" s="3">
+        <v>200</v>
+      </c>
+      <c r="W43" s="3">
         <v>100</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>200</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2933,8 +3028,11 @@
       <c r="X44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3001,76 +3099,82 @@
       <c r="X45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E46" s="3">
         <v>2200</v>
-      </c>
-      <c r="E46" s="3">
-        <v>100</v>
       </c>
       <c r="F46" s="3">
         <v>100</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
         <v>200</v>
       </c>
       <c r="L46" s="3">
+        <v>200</v>
+      </c>
+      <c r="M46" s="3">
         <v>300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>400</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>500</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>400</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>800</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>300</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>400</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>300</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3137,16 +3241,19 @@
       <c r="X47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0</v>
+      <c r="D48" s="3">
+        <v>0</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
@@ -3167,46 +3274,49 @@
         <v>0</v>
       </c>
       <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
         <v>31000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>32900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>31500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>30200</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>30700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>29300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>29200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>29900</v>
-      </c>
-      <c r="T48" s="3">
-        <v>31200</v>
       </c>
       <c r="U48" s="3">
         <v>31200</v>
       </c>
       <c r="V48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="W48" s="3">
         <v>31100</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>32100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3235,28 +3345,28 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
         <v>3100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>3300</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>3200</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>3100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3300</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>3100</v>
       </c>
       <c r="R49" s="3">
         <v>3100</v>
       </c>
       <c r="S49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="T49" s="3">
         <v>3200</v>
@@ -3268,13 +3378,16 @@
         <v>3200</v>
       </c>
       <c r="W49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="X49" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="50" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y49" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3341,8 +3454,11 @@
       <c r="X50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3409,8 +3525,11 @@
       <c r="X51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3457,11 +3576,11 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
         <v>100</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
-      </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
@@ -3472,13 +3591,16 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3545,76 +3667,82 @@
       <c r="X53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E54" s="3">
         <v>2200</v>
-      </c>
-      <c r="E54" s="3">
-        <v>100</v>
       </c>
       <c r="F54" s="3">
         <v>100</v>
       </c>
       <c r="G54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>200</v>
       </c>
       <c r="L54" s="3">
+        <v>200</v>
+      </c>
+      <c r="M54" s="3">
         <v>34300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>36700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>35200</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3600</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>34500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>33100</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>33200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>34700</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34800</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>35800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3639,8 +3767,9 @@
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
-    </row>
-    <row r="56" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3665,76 +3794,80 @@
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
-    </row>
-    <row r="57" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>300</v>
-      </c>
-      <c r="E57" s="3">
-        <v>400</v>
       </c>
       <c r="F57" s="3">
         <v>400</v>
       </c>
       <c r="G57" s="3">
+        <v>400</v>
+      </c>
+      <c r="H57" s="3">
         <v>1900</v>
       </c>
-      <c r="H57" s="3">
-        <v>1700</v>
-      </c>
       <c r="I57" s="3">
-        <v>1500</v>
+        <v>1600</v>
       </c>
       <c r="J57" s="3">
+        <v>1400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1100</v>
-      </c>
-      <c r="L57" s="3">
-        <v>900</v>
       </c>
       <c r="M57" s="3">
         <v>900</v>
       </c>
       <c r="N57" s="3">
+        <v>900</v>
+      </c>
+      <c r="O57" s="3">
         <v>2200</v>
-      </c>
-      <c r="O57" s="3">
-        <v>2300</v>
       </c>
       <c r="P57" s="3">
         <v>2300</v>
       </c>
       <c r="Q57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R57" s="3">
         <v>2400</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2200</v>
       </c>
       <c r="S57" s="3">
         <v>2200</v>
       </c>
       <c r="T57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U57" s="3">
         <v>900</v>
-      </c>
-      <c r="U57" s="3">
-        <v>5600</v>
       </c>
       <c r="V57" s="3">
         <v>5600</v>
       </c>
       <c r="W57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="X57" s="3">
         <v>6200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3748,10 +3881,10 @@
         <v>600</v>
       </c>
       <c r="G58" s="3">
+        <v>600</v>
+      </c>
+      <c r="H58" s="3">
         <v>1200</v>
-      </c>
-      <c r="H58" s="3">
-        <v>1600</v>
       </c>
       <c r="I58" s="3">
         <v>1600</v>
@@ -3760,31 +3893,31 @@
         <v>1500</v>
       </c>
       <c r="K58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="L58" s="3">
         <v>1400</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1100</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>1000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>900</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>800</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
@@ -3796,28 +3929,31 @@
         <v>0</v>
       </c>
       <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
         <v>100</v>
       </c>
-      <c r="X58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E59" s="3">
         <v>1900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>1800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3833,8 +3969,8 @@
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M59" s="3">
-        <v>0</v>
+      <c r="M59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -3851,15 +3987,15 @@
       <c r="R59" s="3">
         <v>0</v>
       </c>
-      <c r="S59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T59" s="3">
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U59" s="3">
         <v>3200</v>
       </c>
-      <c r="U59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="V59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3869,84 +4005,90 @@
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E60" s="3">
         <v>2800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="J60" s="3">
         <v>2900</v>
       </c>
-      <c r="F60" s="3">
-        <v>2600</v>
-      </c>
-      <c r="G60" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>3300</v>
-      </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P60" s="3">
         <v>3000</v>
       </c>
-      <c r="J60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K60" s="3">
+      <c r="Q60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="R60" s="3">
         <v>2400</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="R60" s="3">
-        <v>2200</v>
       </c>
       <c r="S60" s="3">
         <v>2200</v>
       </c>
       <c r="T60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="U60" s="3">
         <v>4100</v>
-      </c>
-      <c r="U60" s="3">
-        <v>5600</v>
       </c>
       <c r="V60" s="3">
         <v>5600</v>
       </c>
       <c r="W60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="X60" s="3">
         <v>6300</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>800</v>
+      </c>
+      <c r="E61" s="3">
         <v>500</v>
-      </c>
-      <c r="E61" s="3">
-        <v>100</v>
       </c>
       <c r="F61" s="3">
         <v>100</v>
@@ -3961,7 +4103,7 @@
         <v>100</v>
       </c>
       <c r="J61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K61" s="3">
         <v>0</v>
@@ -3979,22 +4121,22 @@
         <v>0</v>
       </c>
       <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
         <v>1000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>800</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>600</v>
       </c>
-      <c r="T61" s="3">
-        <v>0</v>
-      </c>
       <c r="U61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="V61" s="3">
         <v>200</v>
@@ -4003,10 +4145,13 @@
         <v>200</v>
       </c>
       <c r="X61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:24" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4073,8 +4218,11 @@
       <c r="X62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4141,8 +4289,11 @@
       <c r="X63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4209,8 +4360,11 @@
       <c r="X64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4277,76 +4431,82 @@
       <c r="X65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3400</v>
+        <v>3100</v>
       </c>
       <c r="E66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="F66" s="3">
         <v>2900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
+        <v>2600</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="J66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="L66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="N66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="O66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="P66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="R66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="T66" s="3">
         <v>2700</v>
       </c>
-      <c r="G66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="H66" s="3">
-        <v>3400</v>
-      </c>
-      <c r="I66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="J66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="K66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="L66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="N66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>5800</v>
       </c>
       <c r="V66" s="3">
         <v>5800</v>
       </c>
       <c r="W66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="X66" s="3">
         <v>6400</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4371,8 +4531,9 @@
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
-    </row>
-    <row r="68" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4439,8 +4600,11 @@
       <c r="X68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4507,8 +4671,11 @@
       <c r="X69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4575,8 +4742,11 @@
       <c r="X70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4643,76 +4813,82 @@
       <c r="X71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-46400</v>
+        <v>-54800</v>
       </c>
       <c r="E72" s="3">
-        <v>-45500</v>
+        <v>-45300</v>
       </c>
       <c r="F72" s="3">
-        <v>-44200</v>
+        <v>-44500</v>
       </c>
       <c r="G72" s="3">
-        <v>-44900</v>
+        <v>-43200</v>
       </c>
       <c r="H72" s="3">
-        <v>-44800</v>
+        <v>-43900</v>
       </c>
       <c r="I72" s="3">
-        <v>-44500</v>
+        <v>-43700</v>
       </c>
       <c r="J72" s="3">
+        <v>-43400</v>
+      </c>
+      <c r="K72" s="3">
         <v>-44100</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-8900</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-8800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-38100</v>
-      </c>
-      <c r="P72" s="3">
-        <v>-7000</v>
       </c>
       <c r="Q72" s="3">
         <v>-7000</v>
       </c>
       <c r="R72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="S72" s="3">
         <v>-6200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-5900</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-5200</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-6500</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-6300</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-6400</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4779,8 +4955,11 @@
       <c r="X73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4847,8 +5026,11 @@
       <c r="X74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4915,76 +5097,82 @@
       <c r="X75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E76" s="3">
         <v>-1100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
+        <v>-2800</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="J76" s="3">
         <v>-2900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>-2600</v>
       </c>
-      <c r="G76" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-2300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>32400</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>34800</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>32000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>31300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>29900</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>30400</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31600</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>30500</v>
-      </c>
-      <c r="U76" s="3">
-        <v>29000</v>
       </c>
       <c r="V76" s="3">
         <v>29000</v>
       </c>
       <c r="W76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="X76" s="3">
         <v>29400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5051,95 +5239,101 @@
       <c r="X77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:24" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-900</v>
+        <v>-9400</v>
       </c>
       <c r="E81" s="3">
         <v>-800</v>
       </c>
       <c r="F81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="G81" s="3">
         <v>-400</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-300</v>
       </c>
       <c r="H81" s="3">
         <v>-300</v>
@@ -5151,49 +5345,52 @@
         <v>-300</v>
       </c>
       <c r="K81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L81" s="3">
         <v>-3700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>1200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-500</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-100</v>
       </c>
       <c r="P81" s="3">
         <v>-100</v>
       </c>
       <c r="Q81" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="R81" s="3">
         <v>-500</v>
       </c>
       <c r="S81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="T81" s="3">
         <v>-800</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>1300</v>
-      </c>
-      <c r="U81" s="3">
-        <v>-300</v>
       </c>
       <c r="V81" s="3">
         <v>-300</v>
       </c>
       <c r="W81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="X81" s="3">
         <v>-600</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5218,8 +5415,9 @@
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
-    </row>
-    <row r="83" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5245,11 +5443,11 @@
         <v>0</v>
       </c>
       <c r="K83" s="3">
+        <v>0</v>
+      </c>
+      <c r="L83" s="3">
         <v>-100</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
-      </c>
       <c r="M83" s="3">
         <v>0</v>
       </c>
@@ -5257,11 +5455,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -5286,8 +5484,11 @@
       <c r="X83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5354,8 +5555,11 @@
       <c r="X84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5422,8 +5626,11 @@
       <c r="X85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5490,8 +5697,11 @@
       <c r="X86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5558,8 +5768,11 @@
       <c r="X87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5626,17 +5839,20 @@
       <c r="X88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-500</v>
       </c>
-      <c r="E89" s="3">
-        <v>0</v>
-      </c>
       <c r="F89" s="3">
         <v>0</v>
       </c>
@@ -5647,22 +5863,22 @@
         <v>0</v>
       </c>
       <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
         <v>-100</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
       <c r="K89" s="3">
         <v>0</v>
       </c>
       <c r="L89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="M89" s="3">
         <v>-100</v>
       </c>
       <c r="N89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="O89" s="3">
         <v>-200</v>
@@ -5674,13 +5890,13 @@
         <v>-200</v>
       </c>
       <c r="R89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="S89" s="3">
         <v>-400</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-900</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-100</v>
       </c>
       <c r="U89" s="3">
         <v>-100</v>
@@ -5689,13 +5905,16 @@
         <v>-100</v>
       </c>
       <c r="W89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="X89" s="3">
         <v>-200</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5720,8 +5939,9 @@
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
-    </row>
-    <row r="91" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5746,11 +5966,11 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -5758,11 +5978,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -5777,19 +5997,22 @@
         <v>0</v>
       </c>
       <c r="U91" s="3">
+        <v>0</v>
+      </c>
+      <c r="V91" s="3">
         <v>-100</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
-      </c>
       <c r="W91" s="3">
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5856,8 +6079,11 @@
       <c r="X92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5924,8 +6150,11 @@
       <c r="X93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -5963,37 +6192,40 @@
         <v>0</v>
       </c>
       <c r="O94" s="3">
+        <v>0</v>
+      </c>
+      <c r="P94" s="3">
         <v>400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>100</v>
       </c>
-      <c r="Q94" s="3">
-        <v>0</v>
-      </c>
       <c r="R94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="S94" s="3">
         <v>-100</v>
       </c>
       <c r="T94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>-100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>200</v>
       </c>
-      <c r="W94" s="3">
-        <v>0</v>
-      </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:24" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6018,8 +6250,9 @@
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
-    </row>
-    <row r="96" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6086,8 +6319,11 @@
       <c r="X96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6154,8 +6390,11 @@
       <c r="X97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6222,8 +6461,11 @@
       <c r="X98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6290,37 +6532,40 @@
       <c r="X99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>200</v>
+      </c>
+      <c r="E100" s="3">
         <v>2600</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
-        <v>0</v>
+      <c r="G100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H100" s="3">
         <v>0</v>
       </c>
       <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
         <v>100</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
-      </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M100" s="3">
         <v>100</v>
@@ -6329,7 +6574,7 @@
         <v>100</v>
       </c>
       <c r="O100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -6341,25 +6586,28 @@
         <v>0</v>
       </c>
       <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3">
         <v>1900</v>
       </c>
-      <c r="T100" s="3">
-        <v>0</v>
-      </c>
       <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>100</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>200</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6426,17 +6674,20 @@
       <c r="X101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:24" x14ac:dyDescent="0.2">
+      <c r="Y101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-700</v>
+      </c>
+      <c r="E102" s="3">
         <v>2100</v>
       </c>
-      <c r="E102" s="3">
-        <v>0</v>
-      </c>
       <c r="F102" s="3">
         <v>0</v>
       </c>
@@ -6456,42 +6707,45 @@
         <v>0</v>
       </c>
       <c r="L102" s="3">
+        <v>0</v>
+      </c>
+      <c r="M102" s="3">
         <v>-100</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-300</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-400</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>900</v>
-      </c>
-      <c r="T102" s="3">
-        <v>-100</v>
       </c>
       <c r="U102" s="3">
         <v>-100</v>
       </c>
       <c r="V102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="W102" s="3">
         <v>200</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,107 +665,115 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -835,8 +843,14 @@
       <c r="Y8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -906,8 +920,14 @@
       <c r="Y9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +997,14 @@
       <c r="Y10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1004,56 +1030,58 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
         <v>5400</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
+      <c r="K12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L12" s="3">
         <v>0</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O12" s="3">
-        <v>0</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1075,8 +1103,14 @@
       <c r="Y12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,56 +1180,62 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
         <v>0</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>4</v>
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
+      <c r="H14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
+      <c r="L14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N14" s="3">
         <v>3600</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>-400</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1211,14 +1251,20 @@
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="3">
-        <v>0</v>
+      <c r="X14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1259,14 +1305,14 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+      <c r="R15" s="3">
         <v>200</v>
       </c>
-      <c r="Q15" s="3">
-        <v>0</v>
-      </c>
-      <c r="R15" s="3">
-        <v>0</v>
-      </c>
       <c r="S15" s="3">
         <v>0</v>
       </c>
@@ -1288,8 +1334,14 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,79 +1364,87 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9300</v>
+        <v>1200</v>
       </c>
       <c r="E17" s="3">
+        <v>700</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9400</v>
+      </c>
+      <c r="G17" s="3">
+        <v>900</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="F17" s="3">
-        <v>700</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>200</v>
-      </c>
-      <c r="I17" s="3">
-        <v>300</v>
-      </c>
-      <c r="J17" s="3">
-        <v>300</v>
       </c>
       <c r="K17" s="3">
         <v>300</v>
       </c>
       <c r="L17" s="3">
+        <v>300</v>
+      </c>
+      <c r="M17" s="3">
+        <v>300</v>
+      </c>
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>400</v>
-      </c>
-      <c r="O17" s="3">
-        <v>500</v>
-      </c>
-      <c r="P17" s="3">
-        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>500</v>
       </c>
       <c r="R17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>500</v>
       </c>
       <c r="T17" s="3">
+        <v>500</v>
+      </c>
+      <c r="U17" s="3">
+        <v>500</v>
+      </c>
+      <c r="V17" s="3">
         <v>800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>600</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>300</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>400</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1392,70 +1452,76 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="F18" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-200</v>
-      </c>
-      <c r="I18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J18" s="3">
-        <v>-300</v>
       </c>
       <c r="K18" s="3">
         <v>-300</v>
       </c>
       <c r="L18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N18" s="3">
         <v>-3700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>-400</v>
-      </c>
-      <c r="O18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="P18" s="3">
-        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>-500</v>
       </c>
       <c r="R18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="S18" s="3">
         <v>-500</v>
       </c>
       <c r="T18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="U18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="V18" s="3">
         <v>-800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>-600</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>-300</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>-400</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,8 +1547,10 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1493,20 +1561,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="G20" s="3">
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -1517,43 +1585,49 @@
         <v>0</v>
       </c>
       <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3">
+        <v>0</v>
+      </c>
+      <c r="P20" s="3">
         <v>1700</v>
       </c>
-      <c r="O20" s="3">
-        <v>0</v>
-      </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>-100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>400</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>100</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
-        <v>0</v>
-      </c>
       <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
+        <v>0</v>
+      </c>
+      <c r="W20" s="3">
         <v>1900</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>100</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1561,19 +1635,19 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="F21" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-400</v>
-      </c>
-      <c r="H21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I21" s="3">
-        <v>-300</v>
       </c>
       <c r="J21" s="3">
         <v>-300</v>
@@ -1582,49 +1656,55 @@
         <v>-300</v>
       </c>
       <c r="L21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N21" s="3">
         <v>-3800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>1300</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>-500</v>
       </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
         <v>-100</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>-800</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>1300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-300</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-300</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-600</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1694,28 +1774,34 @@
       <c r="Y22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-9400</v>
+        <v>-1200</v>
       </c>
       <c r="E23" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="F23" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-400</v>
-      </c>
-      <c r="H23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I23" s="3">
-        <v>-300</v>
       </c>
       <c r="J23" s="3">
         <v>-300</v>
@@ -1724,49 +1810,55 @@
         <v>-300</v>
       </c>
       <c r="L23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N23" s="3">
         <v>-3700</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>1200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-100</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-100</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>-500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-800</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>1300</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-300</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-300</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-600</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1836,8 +1928,14 @@
       <c r="Y24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,28 +2005,34 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-9400</v>
+        <v>-1200</v>
       </c>
       <c r="E26" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="F26" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-400</v>
-      </c>
-      <c r="H26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I26" s="3">
-        <v>-300</v>
       </c>
       <c r="J26" s="3">
         <v>-300</v>
@@ -1937,69 +2041,75 @@
         <v>-300</v>
       </c>
       <c r="L26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N26" s="3">
         <v>-3700</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>1200</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-100</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-100</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>-500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-800</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>1300</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-300</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-300</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-600</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-9400</v>
+        <v>-1200</v>
       </c>
       <c r="E27" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="F27" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-400</v>
-      </c>
-      <c r="H27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I27" s="3">
-        <v>-300</v>
       </c>
       <c r="J27" s="3">
         <v>-300</v>
@@ -2008,49 +2118,55 @@
         <v>-300</v>
       </c>
       <c r="L27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N27" s="3">
         <v>-3700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>1200</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-500</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-100</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>-500</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-800</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>1300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-300</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-300</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-600</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2236,14 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2313,14 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2390,14 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,8 +2467,14 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2345,20 +2485,20 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G32" s="3">
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
@@ -2369,63 +2509,69 @@
         <v>0</v>
       </c>
       <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
         <v>-1700</v>
       </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>-400</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>-100</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
       <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
         <v>-1900</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-100</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-9400</v>
+        <v>-1200</v>
       </c>
       <c r="E33" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="F33" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-400</v>
-      </c>
-      <c r="H33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-300</v>
       </c>
       <c r="J33" s="3">
         <v>-300</v>
@@ -2434,49 +2580,55 @@
         <v>-300</v>
       </c>
       <c r="L33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N33" s="3">
         <v>-3700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>1200</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-500</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-100</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>-500</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-800</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>1300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-300</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-300</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-600</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,28 +2698,34 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-9400</v>
+        <v>-1200</v>
       </c>
       <c r="E35" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="F35" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-400</v>
-      </c>
-      <c r="H35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-300</v>
       </c>
       <c r="J35" s="3">
         <v>-300</v>
@@ -2576,125 +2734,137 @@
         <v>-300</v>
       </c>
       <c r="L35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N35" s="3">
         <v>-3700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>1200</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-500</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-100</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>-500</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-800</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>1300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-300</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-300</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-600</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2890,10 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,29 +2919,31 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>900</v>
+      </c>
+      <c r="F41" s="3">
         <v>1400</v>
       </c>
-      <c r="E41" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H41" s="3">
         <v>100</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
@@ -2783,13 +2957,13 @@
         <v>0</v>
       </c>
       <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
         <v>100</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>200</v>
       </c>
       <c r="Q41" s="3">
         <v>0</v>
@@ -2798,36 +2972,42 @@
         <v>200</v>
       </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>200</v>
+      </c>
+      <c r="U41" s="3">
         <v>400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>900</v>
       </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
         <v>100</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>300</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F42" s="3">
         <v>0</v>
@@ -2857,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -2869,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -2881,16 +3061,22 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
         <v>100</v>
       </c>
-      <c r="X42" s="3">
+      <c r="Z42" s="3">
         <v>100</v>
       </c>
-      <c r="Y42" s="3">
+      <c r="AA42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -2898,10 +3084,10 @@
         <v>100</v>
       </c>
       <c r="E43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="F43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G43" s="3">
         <v>0</v>
@@ -2910,49 +3096,49 @@
         <v>0</v>
       </c>
       <c r="I43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K43" s="3">
         <v>100</v>
       </c>
       <c r="L43" s="3">
+        <v>100</v>
+      </c>
+      <c r="M43" s="3">
+        <v>100</v>
+      </c>
+      <c r="N43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>300</v>
-      </c>
-      <c r="N43" s="3">
-        <v>300</v>
       </c>
       <c r="O43" s="3">
         <v>300</v>
       </c>
       <c r="P43" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>300</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>300</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>300</v>
-      </c>
-      <c r="T43" s="3">
-        <v>200</v>
-      </c>
-      <c r="U43" s="3">
-        <v>200</v>
       </c>
       <c r="V43" s="3">
         <v>200</v>
       </c>
       <c r="W43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="X43" s="3">
         <v>200</v>
@@ -2960,8 +3146,14 @@
       <c r="Y43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3031,31 +3223,37 @@
       <c r="Y44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3">
-        <v>0</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0</v>
-      </c>
-      <c r="G45" s="3">
-        <v>0</v>
-      </c>
-      <c r="H45" s="3">
-        <v>0</v>
-      </c>
-      <c r="I45" s="3">
-        <v>0</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
+      <c r="E45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -3102,46 +3300,52 @@
       <c r="Y45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>1500</v>
+        <v>800</v>
       </c>
       <c r="E46" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>1600</v>
+      </c>
+      <c r="G46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>100</v>
-      </c>
-      <c r="G46" s="3">
-        <v>100</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
+        <v>100</v>
+      </c>
+      <c r="M46" s="3">
         <v>200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>300</v>
-      </c>
-      <c r="N46" s="3">
-        <v>400</v>
-      </c>
-      <c r="O46" s="3">
-        <v>500</v>
       </c>
       <c r="P46" s="3">
         <v>400</v>
@@ -3150,31 +3354,37 @@
         <v>500</v>
       </c>
       <c r="R46" s="3">
+        <v>400</v>
+      </c>
+      <c r="S46" s="3">
+        <v>500</v>
+      </c>
+      <c r="T46" s="3">
         <v>600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>800</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>200</v>
-      </c>
-      <c r="V46" s="3">
-        <v>300</v>
-      </c>
-      <c r="W46" s="3">
-        <v>400</v>
       </c>
       <c r="X46" s="3">
         <v>300</v>
       </c>
       <c r="Y46" s="3">
+        <v>400</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AA46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3244,22 +3454,28 @@
       <c r="Y47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
         <v>0</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>4</v>
+      <c r="E48" s="3">
+        <v>0</v>
       </c>
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3">
-        <v>0</v>
+      <c r="G48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H48" s="3">
         <v>0</v>
@@ -3277,46 +3493,52 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
         <v>31000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>32900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>31500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>30200</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>30700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>29300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>29200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>29900</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>31200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>31200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>31100</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>32100</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3348,31 +3570,31 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
         <v>3100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>3300</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>3200</v>
-      </c>
-      <c r="P49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="Q49" s="3">
-        <v>3300</v>
       </c>
       <c r="R49" s="3">
         <v>3100</v>
       </c>
       <c r="S49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="T49" s="3">
         <v>3100</v>
       </c>
-      <c r="T49" s="3">
-        <v>3200</v>
-      </c>
       <c r="U49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="V49" s="3">
         <v>3200</v>
@@ -3381,13 +3603,19 @@
         <v>3200</v>
       </c>
       <c r="X49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="Z49" s="3">
         <v>3300</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="AA49" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3685,14 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,8 +3762,14 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3579,14 +3819,14 @@
         <v>0</v>
       </c>
       <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
         <v>100</v>
       </c>
-      <c r="T52" s="3">
-        <v>0</v>
-      </c>
-      <c r="U52" s="3">
-        <v>0</v>
-      </c>
       <c r="V52" s="3">
         <v>0</v>
       </c>
@@ -3594,13 +3834,19 @@
         <v>0</v>
       </c>
       <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
         <v>100</v>
       </c>
-      <c r="Y52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3916,91 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>800</v>
+      </c>
+      <c r="E54" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F54" s="3">
         <v>1600</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>2200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>100</v>
-      </c>
-      <c r="G54" s="3">
-        <v>100</v>
-      </c>
-      <c r="H54" s="3">
-        <v>0</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
         <v>100</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
+        <v>100</v>
+      </c>
+      <c r="M54" s="3">
         <v>200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>200</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>34300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>36700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>35200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>3600</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>34500</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>33100</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>33200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>34300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>34600</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>34700</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>34800</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>35800</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +4026,10 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,135 +4055,143 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>400</v>
+      </c>
+      <c r="E57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
+        <v>100</v>
+      </c>
+      <c r="G57" s="3">
         <v>300</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>1900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1100</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>2200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>2300</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>2300</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>2400</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2200</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>900</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>5600</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>5600</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>6200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
       </c>
       <c r="H58" s="3">
+        <v>600</v>
+      </c>
+      <c r="I58" s="3">
+        <v>600</v>
+      </c>
+      <c r="J58" s="3">
         <v>1200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>1600</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>1500</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>1500</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>1400</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1100</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>900</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>800</v>
       </c>
-      <c r="Q58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T58" s="3">
-        <v>0</v>
-      </c>
-      <c r="U58" s="3">
-        <v>0</v>
+      <c r="T58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="V58" s="3">
         <v>0</v>
@@ -3932,34 +4200,40 @@
         <v>0</v>
       </c>
       <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
         <v>100</v>
       </c>
-      <c r="Y58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="AA58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E59" s="3">
+        <v>1800</v>
+      </c>
+      <c r="F59" s="3">
         <v>1600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>1900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>1800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="J59" s="3" t="s">
         <v>4</v>
       </c>
@@ -3972,11 +4246,11 @@
       <c r="M59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N59" s="3">
-        <v>0</v>
-      </c>
-      <c r="O59" s="3">
-        <v>0</v>
+      <c r="N59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P59" s="3">
         <v>0</v>
@@ -3990,97 +4264,109 @@
       <c r="S59" s="3">
         <v>0</v>
       </c>
-      <c r="T59" s="3" t="s">
-        <v>4</v>
+      <c r="T59" s="3">
+        <v>0</v>
       </c>
       <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="W59" s="3">
         <v>3200</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="X59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>2500</v>
+      </c>
+      <c r="F60" s="3">
         <v>2300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>2800</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>2800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>3100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>3200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2800</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>3100</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>3000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>2400</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>2200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>2200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>4100</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>5600</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>5600</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>6300</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -4088,13 +4374,13 @@
         <v>800</v>
       </c>
       <c r="E61" s="3">
+        <v>900</v>
+      </c>
+      <c r="F61" s="3">
+        <v>800</v>
+      </c>
+      <c r="G61" s="3">
         <v>500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>100</v>
-      </c>
-      <c r="G61" s="3">
-        <v>100</v>
       </c>
       <c r="H61" s="3">
         <v>100</v>
@@ -4106,10 +4392,10 @@
         <v>100</v>
       </c>
       <c r="K61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M61" s="3">
         <v>0</v>
@@ -4124,34 +4410,40 @@
         <v>0</v>
       </c>
       <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
         <v>1000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>800</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>600</v>
       </c>
-      <c r="U61" s="3">
-        <v>0</v>
-      </c>
-      <c r="V61" s="3">
-        <v>200</v>
-      </c>
       <c r="W61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="X61" s="3">
         <v>200</v>
       </c>
       <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4221,8 +4513,14 @@
       <c r="Y62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4590,14 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4667,14 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4744,91 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F66" s="3">
         <v>3100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>2900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>2600</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="L66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="M66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="N66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="P66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="Q66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="J66" s="3">
+      <c r="R66" s="3">
         <v>3000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="S66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="U66" s="3">
         <v>2800</v>
       </c>
-      <c r="L66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="O66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="P66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>2700</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>4100</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>5800</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>5800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>6400</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4854,10 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4927,14 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +5004,14 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +5081,14 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,79 +5158,91 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-54800</v>
+        <v>-56900</v>
       </c>
       <c r="E72" s="3">
-        <v>-45300</v>
+        <v>-56000</v>
       </c>
       <c r="F72" s="3">
-        <v>-44500</v>
+        <v>-55300</v>
       </c>
       <c r="G72" s="3">
-        <v>-43200</v>
+        <v>-45700</v>
       </c>
       <c r="H72" s="3">
-        <v>-43900</v>
+        <v>-44900</v>
       </c>
       <c r="I72" s="3">
+        <v>-43600</v>
+      </c>
+      <c r="J72" s="3">
+        <v>-44300</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-43400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-44100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-43500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-8900</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-8800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-8700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-38100</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-7000</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-7000</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-6200</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-5900</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-5200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-6500</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6300</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-6400</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5312,14 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5389,14 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5466,91 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="F76" s="3">
         <v>-1500</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-1100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-2800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2600</v>
       </c>
-      <c r="H76" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-3200</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="L76" s="3">
         <v>-2900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-2300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>32400</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>34800</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>32000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>31300</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>29900</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>30400</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>31600</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>30500</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>29000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>29000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>29400</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,104 +5620,116 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-9400</v>
+        <v>-1200</v>
       </c>
       <c r="E81" s="3">
+        <v>-700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-9500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="F81" s="3">
-        <v>-700</v>
-      </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-400</v>
-      </c>
-      <c r="H81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-300</v>
       </c>
       <c r="J81" s="3">
         <v>-300</v>
@@ -5348,49 +5738,55 @@
         <v>-300</v>
       </c>
       <c r="L81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="M81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="N81" s="3">
         <v>-3700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>1200</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-500</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-100</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>-500</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-800</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>1300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-300</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-300</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-600</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,8 +5812,10 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5446,26 +5844,26 @@
         <v>0</v>
       </c>
       <c r="L83" s="3">
+        <v>0</v>
+      </c>
+      <c r="M83" s="3">
+        <v>0</v>
+      </c>
+      <c r="N83" s="3">
         <v>-100</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
       <c r="O83" s="3">
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>200</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
@@ -5487,8 +5885,14 @@
       <c r="Y83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5962,14 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +6039,14 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +6116,14 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +6193,14 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,23 +6270,29 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
         <v>-900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-500</v>
       </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
       <c r="H89" s="3">
         <v>0</v>
       </c>
@@ -5866,25 +6300,25 @@
         <v>0</v>
       </c>
       <c r="J89" s="3">
+        <v>0</v>
+      </c>
+      <c r="K89" s="3">
+        <v>0</v>
+      </c>
+      <c r="L89" s="3">
         <v>-100</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
-        <v>0</v>
-      </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-100</v>
-      </c>
-      <c r="O89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="P89" s="3">
-        <v>-200</v>
       </c>
       <c r="Q89" s="3">
         <v>-200</v>
@@ -5893,28 +6327,34 @@
         <v>-200</v>
       </c>
       <c r="S89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="T89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="U89" s="3">
         <v>-400</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>-900</v>
-      </c>
-      <c r="U89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="V89" s="3">
-        <v>-100</v>
       </c>
       <c r="W89" s="3">
         <v>-100</v>
       </c>
       <c r="X89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,8 +6380,10 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5969,26 +6411,26 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>4</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
@@ -6000,19 +6442,25 @@
         <v>0</v>
       </c>
       <c r="V91" s="3">
+        <v>0</v>
+      </c>
+      <c r="W91" s="3">
+        <v>0</v>
+      </c>
+      <c r="X91" s="3">
         <v>-100</v>
       </c>
-      <c r="W91" s="3">
-        <v>0</v>
-      </c>
-      <c r="X91" s="3">
-        <v>0</v>
-      </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6530,14 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,8 +6607,14 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6195,37 +6655,43 @@
         <v>0</v>
       </c>
       <c r="P94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q94" s="3">
+        <v>0</v>
+      </c>
+      <c r="R94" s="3">
         <v>400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>100</v>
       </c>
-      <c r="R94" s="3">
-        <v>0</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
         <v>-100</v>
-      </c>
-      <c r="T94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="U94" s="3">
-        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
+        <v>0</v>
+      </c>
+      <c r="X94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Y94" s="3">
         <v>200</v>
       </c>
-      <c r="X94" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6717,10 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6790,14 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6867,14 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6944,14 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,52 +7021,58 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
+      <c r="D100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" s="3">
         <v>200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>2600</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J100" s="3">
+        <v>0</v>
+      </c>
+      <c r="K100" s="3">
+        <v>0</v>
+      </c>
+      <c r="L100" s="3">
         <v>100</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
       <c r="M100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O100" s="3">
         <v>100</v>
       </c>
       <c r="P100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="R100" s="3">
         <v>0</v>
@@ -6589,25 +7081,31 @@
         <v>0</v>
       </c>
       <c r="T100" s="3">
+        <v>0</v>
+      </c>
+      <c r="U100" s="3">
+        <v>0</v>
+      </c>
+      <c r="V100" s="3">
         <v>1900</v>
       </c>
-      <c r="U100" s="3">
-        <v>0</v>
-      </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>100</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>200</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -6677,23 +7175,29 @@
       <c r="Y101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-700</v>
+        <v>-300</v>
       </c>
       <c r="E102" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-800</v>
+      </c>
+      <c r="G102" s="3">
         <v>2100</v>
       </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
       <c r="H102" s="3">
         <v>0</v>
       </c>
@@ -6710,42 +7214,48 @@
         <v>0</v>
       </c>
       <c r="M102" s="3">
+        <v>0</v>
+      </c>
+      <c r="N102" s="3">
+        <v>0</v>
+      </c>
+      <c r="O102" s="3">
         <v>-100</v>
-      </c>
-      <c r="N102" s="3">
-        <v>100</v>
-      </c>
-      <c r="O102" s="3">
-        <v>-200</v>
       </c>
       <c r="P102" s="3">
         <v>100</v>
       </c>
       <c r="Q102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="R102" s="3">
+        <v>100</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-300</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>-400</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>900</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-100</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>200</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-200</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="G12" s="3">
         <v>100</v>
@@ -1378,13 +1378,13 @@
         <v>700</v>
       </c>
       <c r="F17" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="G17" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H17" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="I17" s="3">
         <v>400</v>
@@ -1455,13 +1455,13 @@
         <v>-700</v>
       </c>
       <c r="F18" s="3">
-        <v>-9400</v>
+        <v>-9100</v>
       </c>
       <c r="G18" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H18" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I18" s="3">
         <v>-400</v>
@@ -1638,13 +1638,13 @@
         <v>-700</v>
       </c>
       <c r="F21" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G21" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H21" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I21" s="3">
         <v>-400</v>
@@ -1792,13 +1792,13 @@
         <v>-700</v>
       </c>
       <c r="F23" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G23" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H23" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I23" s="3">
         <v>-400</v>
@@ -2023,13 +2023,13 @@
         <v>-700</v>
       </c>
       <c r="F26" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G26" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H26" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I26" s="3">
         <v>-400</v>
@@ -2100,13 +2100,13 @@
         <v>-700</v>
       </c>
       <c r="F27" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G27" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H27" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I27" s="3">
         <v>-400</v>
@@ -2562,13 +2562,13 @@
         <v>-700</v>
       </c>
       <c r="F33" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G33" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H33" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I33" s="3">
         <v>-400</v>
@@ -2716,13 +2716,13 @@
         <v>-700</v>
       </c>
       <c r="F35" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G35" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H35" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I35" s="3">
         <v>-400</v>
@@ -2936,7 +2936,7 @@
         <v>1400</v>
       </c>
       <c r="G41" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H41" s="3">
         <v>100</v>
@@ -3312,16 +3312,16 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>800</v>
+        <v>700</v>
       </c>
       <c r="E46" s="3">
         <v>1100</v>
       </c>
       <c r="F46" s="3">
-        <v>1600</v>
+        <v>1500</v>
       </c>
       <c r="G46" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H46" s="3">
         <v>100</v>
@@ -3937,7 +3937,7 @@
         <v>1600</v>
       </c>
       <c r="G54" s="3">
-        <v>2200</v>
+        <v>2100</v>
       </c>
       <c r="H54" s="3">
         <v>100</v>
@@ -4146,7 +4146,7 @@
         <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -4217,16 +4217,16 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>1700</v>
       </c>
       <c r="F59" s="3">
         <v>1600</v>
       </c>
       <c r="G59" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="H59" s="3">
         <v>1800</v>
@@ -4294,25 +4294,25 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="E60" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="F60" s="3">
         <v>2300</v>
       </c>
       <c r="G60" s="3">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="H60" s="3">
         <v>2800</v>
       </c>
       <c r="I60" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="J60" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="K60" s="3">
         <v>3200</v>
@@ -4756,25 +4756,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>4000</v>
+        <v>3900</v>
       </c>
       <c r="E66" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="F66" s="3">
-        <v>3100</v>
+        <v>3000</v>
       </c>
       <c r="G66" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="H66" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="I66" s="3">
         <v>2600</v>
       </c>
       <c r="J66" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="K66" s="3">
         <v>3300</v>
@@ -5170,25 +5170,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-56900</v>
+        <v>-55200</v>
       </c>
       <c r="E72" s="3">
-        <v>-56000</v>
+        <v>-54400</v>
       </c>
       <c r="F72" s="3">
-        <v>-55300</v>
+        <v>-53600</v>
       </c>
       <c r="G72" s="3">
-        <v>-45700</v>
+        <v>-44400</v>
       </c>
       <c r="H72" s="3">
-        <v>-44900</v>
+        <v>-43600</v>
       </c>
       <c r="I72" s="3">
-        <v>-43600</v>
+        <v>-42300</v>
       </c>
       <c r="J72" s="3">
-        <v>-44300</v>
+        <v>-43000</v>
       </c>
       <c r="K72" s="3">
         <v>-43700</v>
@@ -5478,7 +5478,7 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="E76" s="3">
         <v>-2200</v>
@@ -5493,10 +5493,10 @@
         <v>-2800</v>
       </c>
       <c r="I76" s="3">
-        <v>-2600</v>
+        <v>-2500</v>
       </c>
       <c r="J76" s="3">
-        <v>-3200</v>
+        <v>-3100</v>
       </c>
       <c r="K76" s="3">
         <v>-3200</v>
@@ -5720,13 +5720,13 @@
         <v>-700</v>
       </c>
       <c r="F81" s="3">
-        <v>-9500</v>
+        <v>-9200</v>
       </c>
       <c r="G81" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="H81" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="I81" s="3">
         <v>-400</v>
@@ -7042,7 +7042,7 @@
         <v>200</v>
       </c>
       <c r="G100" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="H100" s="3" t="s">
         <v>4</v>
@@ -7190,13 +7190,13 @@
         <v>-300</v>
       </c>
       <c r="E102" s="3">
-        <v>-500</v>
+        <v>-400</v>
       </c>
       <c r="F102" s="3">
-        <v>-800</v>
+        <v>-700</v>
       </c>
       <c r="G102" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="H102" s="3">
         <v>0</v>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AB102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,115 +665,119 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -849,8 +853,11 @@
       <c r="AA8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -926,8 +933,11 @@
       <c r="AA9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1003,8 +1013,11 @@
       <c r="AA10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1032,37 +1045,38 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
+      <c r="D12" s="3">
+        <v>31100</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="F12" s="3">
-        <v>5200</v>
+        <v>0</v>
       </c>
       <c r="G12" s="3">
+        <v>5100</v>
+      </c>
+      <c r="H12" s="3">
         <v>100</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>0</v>
+      <c r="I12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J12" s="3">
         <v>0</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
+      <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M12" s="3">
         <v>0</v>
@@ -1070,21 +1084,21 @@
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>4</v>
+      <c r="O12" s="3">
+        <v>0</v>
       </c>
       <c r="P12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q12" s="3">
-        <v>0</v>
+      <c r="Q12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
         <v>100</v>
       </c>
-      <c r="S12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1109,8 +1123,11 @@
       <c r="AA12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,8 +1203,11 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1200,8 +1220,8 @@
       <c r="F14" s="3">
         <v>0</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
+      <c r="G14" s="3">
+        <v>0</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>4</v>
@@ -1209,11 +1229,11 @@
       <c r="I14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>4</v>
+      <c r="J14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>4</v>
@@ -1221,24 +1241,24 @@
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3">
+      <c r="N14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="3">
         <v>3600</v>
       </c>
-      <c r="O14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="P14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R14" s="3">
+      <c r="R14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S14" s="3">
         <v>-400</v>
       </c>
-      <c r="S14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1257,14 +1277,17 @@
       <c r="Y14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Z14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="Z14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1311,11 +1334,11 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
         <v>200</v>
       </c>
-      <c r="S15" s="3">
-        <v>0</v>
-      </c>
       <c r="T15" s="3">
         <v>0</v>
       </c>
@@ -1340,8 +1363,11 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,34 +1392,35 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+    </row>
+    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1200</v>
+        <v>32300</v>
       </c>
       <c r="E17" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F17" s="3">
         <v>700</v>
       </c>
-      <c r="F17" s="3">
-        <v>9100</v>
-      </c>
       <c r="G17" s="3">
+        <v>8800</v>
+      </c>
+      <c r="H17" s="3">
         <v>800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>200</v>
-      </c>
-      <c r="K17" s="3">
-        <v>300</v>
       </c>
       <c r="L17" s="3">
         <v>300</v>
@@ -1402,22 +1429,22 @@
         <v>300</v>
       </c>
       <c r="N17" s="3">
+        <v>300</v>
+      </c>
+      <c r="O17" s="3">
         <v>3700</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>500</v>
       </c>
-      <c r="R17" s="3">
-        <v>0</v>
-      </c>
       <c r="S17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="T17" s="3">
         <v>500</v>
@@ -1426,25 +1453,28 @@
         <v>500</v>
       </c>
       <c r="V17" s="3">
+        <v>500</v>
+      </c>
+      <c r="W17" s="3">
         <v>800</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>600</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>300</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>400</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1452,25 +1482,25 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F18" s="3">
         <v>-700</v>
       </c>
-      <c r="F18" s="3">
-        <v>-9100</v>
-      </c>
       <c r="G18" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="H18" s="3">
         <v>-800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-200</v>
-      </c>
-      <c r="K18" s="3">
-        <v>-300</v>
       </c>
       <c r="L18" s="3">
         <v>-300</v>
@@ -1479,22 +1509,22 @@
         <v>-300</v>
       </c>
       <c r="N18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O18" s="3">
         <v>-3700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-400</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-500</v>
       </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
       <c r="S18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="T18" s="3">
         <v>-500</v>
@@ -1503,25 +1533,28 @@
         <v>-500</v>
       </c>
       <c r="V18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W18" s="3">
         <v>-800</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>-600</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-300</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-400</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,8 +1582,9 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+    </row>
+    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1561,11 +1595,11 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
+        <v>0</v>
+      </c>
+      <c r="G20" s="3">
         <v>-100</v>
       </c>
-      <c r="G20" s="3">
-        <v>0</v>
-      </c>
       <c r="H20" s="3">
         <v>0</v>
       </c>
@@ -1573,11 +1607,11 @@
         <v>0</v>
       </c>
       <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="3">
         <v>-100</v>
       </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
       <c r="L20" s="3">
         <v>0</v>
       </c>
@@ -1591,43 +1625,46 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
         <v>1700</v>
       </c>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
         <v>-100</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>400</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>100</v>
       </c>
-      <c r="U20" s="3">
-        <v>0</v>
-      </c>
       <c r="V20" s="3">
         <v>0</v>
       </c>
       <c r="W20" s="3">
+        <v>0</v>
+      </c>
+      <c r="X20" s="3">
         <v>1900</v>
       </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
         <v>100</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
       <c r="AA20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1635,22 +1672,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F21" s="3">
         <v>-700</v>
       </c>
-      <c r="F21" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G21" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H21" s="3">
         <v>-800</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-400</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-300</v>
       </c>
       <c r="K21" s="3">
         <v>-300</v>
@@ -1662,49 +1699,52 @@
         <v>-300</v>
       </c>
       <c r="N21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O21" s="3">
         <v>-3800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>1300</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-500</v>
       </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
       <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
         <v>-100</v>
-      </c>
-      <c r="T21" s="3">
-        <v>-500</v>
       </c>
       <c r="U21" s="3">
         <v>-500</v>
       </c>
       <c r="V21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W21" s="3">
         <v>-800</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>1300</v>
-      </c>
-      <c r="X21" s="3">
-        <v>-300</v>
       </c>
       <c r="Y21" s="3">
         <v>-300</v>
       </c>
       <c r="Z21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA21" s="3">
         <v>-600</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1780,31 +1820,34 @@
       <c r="AA22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-1200</v>
+        <v>-32300</v>
       </c>
       <c r="E23" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F23" s="3">
         <v>-700</v>
       </c>
-      <c r="F23" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G23" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H23" s="3">
         <v>-800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-400</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-300</v>
       </c>
       <c r="K23" s="3">
         <v>-300</v>
@@ -1816,49 +1859,52 @@
         <v>-300</v>
       </c>
       <c r="N23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O23" s="3">
         <v>-3700</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-600</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>1200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-500</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-100</v>
       </c>
       <c r="S23" s="3">
         <v>-100</v>
       </c>
       <c r="T23" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U23" s="3">
         <v>-500</v>
       </c>
       <c r="V23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W23" s="3">
         <v>-800</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>1300</v>
-      </c>
-      <c r="X23" s="3">
-        <v>-300</v>
       </c>
       <c r="Y23" s="3">
         <v>-300</v>
       </c>
       <c r="Z23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA23" s="3">
         <v>-600</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1934,8 +1980,11 @@
       <c r="AA24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,31 +2060,34 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-1200</v>
+        <v>-32300</v>
       </c>
       <c r="E26" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F26" s="3">
         <v>-700</v>
       </c>
-      <c r="F26" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H26" s="3">
         <v>-800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-400</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-300</v>
       </c>
       <c r="K26" s="3">
         <v>-300</v>
@@ -2047,72 +2099,75 @@
         <v>-300</v>
       </c>
       <c r="N26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O26" s="3">
         <v>-3700</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-600</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>1200</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-500</v>
-      </c>
-      <c r="R26" s="3">
-        <v>-100</v>
       </c>
       <c r="S26" s="3">
         <v>-100</v>
       </c>
       <c r="T26" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U26" s="3">
         <v>-500</v>
       </c>
       <c r="V26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W26" s="3">
         <v>-800</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>1300</v>
-      </c>
-      <c r="X26" s="3">
-        <v>-300</v>
       </c>
       <c r="Y26" s="3">
         <v>-300</v>
       </c>
       <c r="Z26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA26" s="3">
         <v>-600</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-1200</v>
+        <v>-32300</v>
       </c>
       <c r="E27" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F27" s="3">
         <v>-700</v>
       </c>
-      <c r="F27" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G27" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H27" s="3">
         <v>-800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-400</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-300</v>
       </c>
       <c r="K27" s="3">
         <v>-300</v>
@@ -2124,49 +2179,52 @@
         <v>-300</v>
       </c>
       <c r="N27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O27" s="3">
         <v>-3700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-600</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>1200</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-500</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-100</v>
       </c>
       <c r="S27" s="3">
         <v>-100</v>
       </c>
       <c r="T27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U27" s="3">
         <v>-500</v>
       </c>
       <c r="V27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W27" s="3">
         <v>-800</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>1300</v>
-      </c>
-      <c r="X27" s="3">
-        <v>-300</v>
       </c>
       <c r="Y27" s="3">
         <v>-300</v>
       </c>
       <c r="Z27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA27" s="3">
         <v>-600</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2380,11 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2460,11 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,8 +2540,11 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2485,11 +2555,11 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
+        <v>0</v>
+      </c>
+      <c r="G32" s="3">
         <v>100</v>
       </c>
-      <c r="G32" s="3">
-        <v>0</v>
-      </c>
       <c r="H32" s="3">
         <v>0</v>
       </c>
@@ -2497,11 +2567,11 @@
         <v>0</v>
       </c>
       <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
         <v>100</v>
       </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
       <c r="L32" s="3">
         <v>0</v>
       </c>
@@ -2515,66 +2585,69 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
         <v>100</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-400</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-100</v>
       </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
       <c r="V32" s="3">
         <v>0</v>
       </c>
       <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
         <v>-1900</v>
       </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
         <v>-100</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
       <c r="AA32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-1200</v>
+        <v>-32300</v>
       </c>
       <c r="E33" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F33" s="3">
         <v>-700</v>
       </c>
-      <c r="F33" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G33" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H33" s="3">
         <v>-800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-400</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-300</v>
       </c>
       <c r="K33" s="3">
         <v>-300</v>
@@ -2586,49 +2659,52 @@
         <v>-300</v>
       </c>
       <c r="N33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O33" s="3">
         <v>-3700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-600</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>1200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-500</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-100</v>
       </c>
       <c r="S33" s="3">
         <v>-100</v>
       </c>
       <c r="T33" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U33" s="3">
         <v>-500</v>
       </c>
       <c r="V33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W33" s="3">
         <v>-800</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>1300</v>
-      </c>
-      <c r="X33" s="3">
-        <v>-300</v>
       </c>
       <c r="Y33" s="3">
         <v>-300</v>
       </c>
       <c r="Z33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA33" s="3">
         <v>-600</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,31 +2780,34 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-1200</v>
+        <v>-32300</v>
       </c>
       <c r="E35" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F35" s="3">
         <v>-700</v>
       </c>
-      <c r="F35" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G35" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H35" s="3">
         <v>-800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-400</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-300</v>
       </c>
       <c r="K35" s="3">
         <v>-300</v>
@@ -2740,131 +2819,137 @@
         <v>-300</v>
       </c>
       <c r="N35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O35" s="3">
         <v>-3700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-600</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>1200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-500</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-100</v>
       </c>
       <c r="S35" s="3">
         <v>-100</v>
       </c>
       <c r="T35" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U35" s="3">
         <v>-500</v>
       </c>
       <c r="V35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W35" s="3">
         <v>-800</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>1300</v>
-      </c>
-      <c r="X35" s="3">
-        <v>-300</v>
       </c>
       <c r="Y35" s="3">
         <v>-300</v>
       </c>
       <c r="Z35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA35" s="3">
         <v>-600</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +2977,9 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+    </row>
+    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,25 +3007,26 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+    </row>
+    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E41" s="3">
         <v>600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>900</v>
       </c>
-      <c r="F41" s="3">
-        <v>1400</v>
-      </c>
       <c r="G41" s="3">
-        <v>2100</v>
+        <v>1300</v>
       </c>
       <c r="H41" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I41" s="3">
         <v>100</v>
@@ -2963,43 +3050,46 @@
         <v>0</v>
       </c>
       <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
         <v>100</v>
       </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
         <v>200</v>
       </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
       <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
         <v>200</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>900</v>
       </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
       <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
         <v>100</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>300</v>
       </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
       <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3009,8 +3099,8 @@
       <c r="E42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F42" s="3">
-        <v>0</v>
+      <c r="F42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G42" s="3">
         <v>0</v>
@@ -3043,17 +3133,17 @@
         <v>0</v>
       </c>
       <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
         <v>100</v>
       </c>
-      <c r="R42" s="3">
-        <v>0</v>
-      </c>
       <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
         <v>100</v>
       </c>
-      <c r="T42" s="3">
-        <v>0</v>
-      </c>
       <c r="U42" s="3">
         <v>0</v>
       </c>
@@ -3067,31 +3157,34 @@
         <v>0</v>
       </c>
       <c r="Y42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Z42" s="3">
         <v>100</v>
       </c>
       <c r="AA42" s="3">
+        <v>100</v>
+      </c>
+      <c r="AB42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>200</v>
+      </c>
+      <c r="E43" s="3">
         <v>100</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
       <c r="H43" s="3">
         <v>0</v>
       </c>
@@ -3102,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="K43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L43" s="3">
         <v>100</v>
@@ -3111,10 +3204,10 @@
         <v>100</v>
       </c>
       <c r="N43" s="3">
+        <v>100</v>
+      </c>
+      <c r="O43" s="3">
         <v>200</v>
-      </c>
-      <c r="O43" s="3">
-        <v>300</v>
       </c>
       <c r="P43" s="3">
         <v>300</v>
@@ -3123,19 +3216,19 @@
         <v>300</v>
       </c>
       <c r="R43" s="3">
+        <v>300</v>
+      </c>
+      <c r="S43" s="3">
         <v>200</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>400</v>
-      </c>
-      <c r="T43" s="3">
-        <v>300</v>
       </c>
       <c r="U43" s="3">
         <v>300</v>
       </c>
       <c r="V43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="W43" s="3">
         <v>200</v>
@@ -3144,16 +3237,19 @@
         <v>200</v>
       </c>
       <c r="Y43" s="3">
+        <v>200</v>
+      </c>
+      <c r="Z43" s="3">
         <v>100</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>200</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3229,16 +3325,19 @@
       <c r="AA44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>4</v>
+      <c r="E45" s="3">
+        <v>0</v>
       </c>
       <c r="F45" s="3" t="s">
         <v>4</v>
@@ -3255,8 +3354,8 @@
       <c r="J45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
+      <c r="K45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L45" s="3">
         <v>0</v>
@@ -3306,85 +3405,91 @@
       <c r="AA45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E46" s="3">
         <v>700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1500</v>
       </c>
-      <c r="G46" s="3">
-        <v>2100</v>
-      </c>
       <c r="H46" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I46" s="3">
         <v>100</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>100</v>
       </c>
       <c r="M46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N46" s="3">
         <v>200</v>
       </c>
       <c r="O46" s="3">
+        <v>200</v>
+      </c>
+      <c r="P46" s="3">
         <v>300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>400</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>500</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>400</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>500</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>600</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>800</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1200</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>300</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>400</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>300</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3460,8 +3565,11 @@
       <c r="AA47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3474,11 +3582,11 @@
       <c r="F48" s="3">
         <v>0</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H48" s="3">
-        <v>0</v>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -3499,46 +3607,49 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
         <v>31000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>32900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>31500</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>30200</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>29300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29200</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29900</v>
-      </c>
-      <c r="W48" s="3">
-        <v>31200</v>
       </c>
       <c r="X48" s="3">
         <v>31200</v>
       </c>
       <c r="Y48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="Z48" s="3">
         <v>31100</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>32100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3576,28 +3687,28 @@
         <v>0</v>
       </c>
       <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
         <v>3100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>3300</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3200</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3100</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3300</v>
-      </c>
-      <c r="T49" s="3">
-        <v>3100</v>
       </c>
       <c r="U49" s="3">
         <v>3100</v>
       </c>
       <c r="V49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="W49" s="3">
         <v>3200</v>
@@ -3609,13 +3720,16 @@
         <v>3200</v>
       </c>
       <c r="Z49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="AA49" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB49" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3805,11 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,8 +3885,11 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3825,11 +3945,11 @@
         <v>0</v>
       </c>
       <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
         <v>100</v>
       </c>
-      <c r="V52" s="3">
-        <v>0</v>
-      </c>
       <c r="W52" s="3">
         <v>0</v>
       </c>
@@ -3840,13 +3960,16 @@
         <v>0</v>
       </c>
       <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
         <v>100</v>
       </c>
-      <c r="AA52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4045,91 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E54" s="3">
         <v>800</v>
       </c>
-      <c r="E54" s="3">
-        <v>1200</v>
-      </c>
       <c r="F54" s="3">
-        <v>1600</v>
+        <v>1100</v>
       </c>
       <c r="G54" s="3">
-        <v>2100</v>
+        <v>1500</v>
       </c>
       <c r="H54" s="3">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I54" s="3">
         <v>100</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="L54" s="3">
         <v>100</v>
       </c>
       <c r="M54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="N54" s="3">
         <v>200</v>
       </c>
       <c r="O54" s="3">
+        <v>200</v>
+      </c>
+      <c r="P54" s="3">
         <v>34300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>36700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>35200</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>3600</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>34500</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>33100</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33200</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>34300</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34600</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34700</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34800</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>35800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4157,9 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+    </row>
+    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,85 +4187,89 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+    </row>
+    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>700</v>
+      </c>
+      <c r="E57" s="3">
         <v>400</v>
-      </c>
-      <c r="E57" s="3">
-        <v>100</v>
       </c>
       <c r="F57" s="3">
         <v>100</v>
       </c>
       <c r="G57" s="3">
+        <v>100</v>
+      </c>
+      <c r="H57" s="3">
         <v>300</v>
-      </c>
-      <c r="H57" s="3">
-        <v>400</v>
       </c>
       <c r="I57" s="3">
         <v>400</v>
       </c>
       <c r="J57" s="3">
+        <v>400</v>
+      </c>
+      <c r="K57" s="3">
         <v>1900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1100</v>
-      </c>
-      <c r="O57" s="3">
-        <v>900</v>
       </c>
       <c r="P57" s="3">
         <v>900</v>
       </c>
       <c r="Q57" s="3">
+        <v>900</v>
+      </c>
+      <c r="R57" s="3">
         <v>2200</v>
-      </c>
-      <c r="R57" s="3">
-        <v>2300</v>
       </c>
       <c r="S57" s="3">
         <v>2300</v>
       </c>
       <c r="T57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U57" s="3">
         <v>2400</v>
-      </c>
-      <c r="U57" s="3">
-        <v>2200</v>
       </c>
       <c r="V57" s="3">
         <v>2200</v>
       </c>
       <c r="W57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X57" s="3">
         <v>900</v>
-      </c>
-      <c r="X57" s="3">
-        <v>5600</v>
       </c>
       <c r="Y57" s="3">
         <v>5600</v>
       </c>
       <c r="Z57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AA57" s="3">
         <v>6200</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AB57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4143,7 +4277,7 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="F58" s="3">
         <v>600</v>
@@ -4158,43 +4292,43 @@
         <v>600</v>
       </c>
       <c r="J58" s="3">
+        <v>600</v>
+      </c>
+      <c r="K58" s="3">
         <v>1200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1600</v>
-      </c>
-      <c r="L58" s="3">
-        <v>1500</v>
       </c>
       <c r="M58" s="3">
         <v>1500</v>
       </c>
       <c r="N58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="O58" s="3">
         <v>1400</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>1100</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>900</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>800</v>
       </c>
-      <c r="S58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="T58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="V58" s="3">
-        <v>0</v>
+      <c r="V58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W58" s="3">
         <v>0</v>
@@ -4206,13 +4340,16 @@
         <v>0</v>
       </c>
       <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
         <v>100</v>
       </c>
-      <c r="AA58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -4220,22 +4357,22 @@
         <v>2000</v>
       </c>
       <c r="E59" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F59" s="3">
         <v>1700</v>
       </c>
-      <c r="F59" s="3">
-        <v>1600</v>
-      </c>
       <c r="G59" s="3">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="H59" s="3">
         <v>1800</v>
       </c>
       <c r="I59" s="3">
-        <v>1600</v>
-      </c>
-      <c r="J59" s="3" t="s">
-        <v>4</v>
+        <v>1700</v>
+      </c>
+      <c r="J59" s="3">
+        <v>1500</v>
       </c>
       <c r="K59" s="3" t="s">
         <v>4</v>
@@ -4252,8 +4389,8 @@
       <c r="O59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P59" s="3">
-        <v>0</v>
+      <c r="P59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q59" s="3">
         <v>0</v>
@@ -4270,15 +4407,15 @@
       <c r="U59" s="3">
         <v>0</v>
       </c>
-      <c r="V59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="W59" s="3">
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="X59" s="3">
         <v>3200</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Y59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4288,102 +4425,108 @@
       <c r="AA59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>2400</v>
+        <v>2900</v>
       </c>
       <c r="F60" s="3">
         <v>2300</v>
       </c>
       <c r="G60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2600</v>
+      </c>
+      <c r="I60" s="3">
         <v>2700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K60" s="3">
+        <v>3000</v>
+      </c>
+      <c r="L60" s="3">
+        <v>3200</v>
+      </c>
+      <c r="M60" s="3">
+        <v>2900</v>
+      </c>
+      <c r="N60" s="3">
         <v>2800</v>
       </c>
-      <c r="I60" s="3">
-        <v>2500</v>
-      </c>
-      <c r="J60" s="3">
+      <c r="O60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P60" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R60" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S60" s="3">
         <v>3000</v>
       </c>
-      <c r="K60" s="3">
-        <v>3200</v>
-      </c>
-      <c r="L60" s="3">
-        <v>2900</v>
-      </c>
-      <c r="M60" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N60" s="3">
+      <c r="T60" s="3">
+        <v>2300</v>
+      </c>
+      <c r="U60" s="3">
         <v>2400</v>
-      </c>
-      <c r="O60" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P60" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q60" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R60" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S60" s="3">
-        <v>2300</v>
-      </c>
-      <c r="T60" s="3">
-        <v>2400</v>
-      </c>
-      <c r="U60" s="3">
-        <v>2200</v>
       </c>
       <c r="V60" s="3">
         <v>2200</v>
       </c>
       <c r="W60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="X60" s="3">
         <v>4100</v>
-      </c>
-      <c r="X60" s="3">
-        <v>5600</v>
       </c>
       <c r="Y60" s="3">
         <v>5600</v>
       </c>
       <c r="Z60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AA60" s="3">
         <v>6300</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>17100</v>
+      </c>
+      <c r="E61" s="3">
         <v>800</v>
-      </c>
-      <c r="E61" s="3">
-        <v>900</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
       </c>
       <c r="G61" s="3">
+        <v>800</v>
+      </c>
+      <c r="H61" s="3">
         <v>500</v>
-      </c>
-      <c r="H61" s="3">
-        <v>100</v>
       </c>
       <c r="I61" s="3">
         <v>100</v>
@@ -4398,7 +4541,7 @@
         <v>100</v>
       </c>
       <c r="M61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="N61" s="3">
         <v>0</v>
@@ -4416,22 +4559,22 @@
         <v>0</v>
       </c>
       <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
         <v>1000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>800</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>700</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>600</v>
       </c>
-      <c r="W61" s="3">
-        <v>0</v>
-      </c>
       <c r="X61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Y61" s="3">
         <v>200</v>
@@ -4440,10 +4583,13 @@
         <v>200</v>
       </c>
       <c r="AA61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4519,8 +4665,11 @@
       <c r="AA62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4745,11 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4825,11 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +4905,91 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>3900</v>
+        <v>20400</v>
       </c>
       <c r="E66" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="I66" s="3">
+        <v>2700</v>
+      </c>
+      <c r="J66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="K66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="L66" s="3">
         <v>3300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="M66" s="3">
         <v>3000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="N66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="R66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="S66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="T66" s="3">
         <v>3200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="U66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="V66" s="3">
         <v>2800</v>
       </c>
-      <c r="I66" s="3">
-        <v>2600</v>
-      </c>
-      <c r="J66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="M66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="P66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2700</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>4100</v>
-      </c>
-      <c r="X66" s="3">
-        <v>5800</v>
       </c>
       <c r="Y66" s="3">
         <v>5800</v>
       </c>
       <c r="Z66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AA66" s="3">
         <v>6400</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5017,9 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+    </row>
+    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5095,11 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5175,11 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5255,11 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,85 +5335,91 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-55200</v>
+        <v>-78600</v>
       </c>
       <c r="E72" s="3">
-        <v>-54400</v>
+        <v>-53200</v>
       </c>
       <c r="F72" s="3">
-        <v>-53600</v>
+        <v>-52400</v>
       </c>
       <c r="G72" s="3">
-        <v>-44400</v>
+        <v>-51600</v>
       </c>
       <c r="H72" s="3">
-        <v>-43600</v>
+        <v>-42700</v>
       </c>
       <c r="I72" s="3">
-        <v>-42300</v>
+        <v>-42000</v>
       </c>
       <c r="J72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="K72" s="3">
         <v>-43000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-44100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-8900</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-38100</v>
-      </c>
-      <c r="S72" s="3">
-        <v>-7000</v>
       </c>
       <c r="T72" s="3">
         <v>-7000</v>
       </c>
       <c r="U72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="V72" s="3">
         <v>-6200</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-5900</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6300</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-6400</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5495,11 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5575,11 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5655,91 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-2600</v>
+      </c>
+      <c r="J76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="K76" s="3">
         <v>-3100</v>
       </c>
-      <c r="E76" s="3">
-        <v>-2200</v>
-      </c>
-      <c r="F76" s="3">
-        <v>-1500</v>
-      </c>
-      <c r="G76" s="3">
-        <v>-1100</v>
-      </c>
-      <c r="H76" s="3">
-        <v>-2800</v>
-      </c>
-      <c r="I76" s="3">
-        <v>-2500</v>
-      </c>
-      <c r="J76" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-3200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-2900</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>-2600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>-2300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>32400</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>34800</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>32000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>31300</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>29900</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>30400</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>31600</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>30500</v>
-      </c>
-      <c r="X76" s="3">
-        <v>29000</v>
       </c>
       <c r="Y76" s="3">
         <v>29000</v>
       </c>
       <c r="Z76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AA76" s="3">
         <v>29400</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,113 +5815,119 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-1200</v>
+        <v>-32300</v>
       </c>
       <c r="E81" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F81" s="3">
         <v>-700</v>
       </c>
-      <c r="F81" s="3">
-        <v>-9200</v>
-      </c>
       <c r="G81" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="H81" s="3">
         <v>-800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-400</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-300</v>
       </c>
       <c r="K81" s="3">
         <v>-300</v>
@@ -5744,49 +5939,52 @@
         <v>-300</v>
       </c>
       <c r="N81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O81" s="3">
         <v>-3700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-600</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>1200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-500</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-100</v>
       </c>
       <c r="S81" s="3">
         <v>-100</v>
       </c>
       <c r="T81" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="U81" s="3">
         <v>-500</v>
       </c>
       <c r="V81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="W81" s="3">
         <v>-800</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>1300</v>
-      </c>
-      <c r="X81" s="3">
-        <v>-300</v>
       </c>
       <c r="Y81" s="3">
         <v>-300</v>
       </c>
       <c r="Z81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AA81" s="3">
         <v>-600</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,8 +6012,9 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+    </row>
+    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -5850,11 +6049,11 @@
         <v>0</v>
       </c>
       <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3">
         <v>-100</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
-      </c>
       <c r="P83" s="3">
         <v>0</v>
       </c>
@@ -5862,11 +6061,11 @@
         <v>0</v>
       </c>
       <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
         <v>200</v>
       </c>
-      <c r="S83" s="3">
-        <v>0</v>
-      </c>
       <c r="T83" s="3">
         <v>0</v>
       </c>
@@ -5891,8 +6090,11 @@
       <c r="AA83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6170,11 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6250,11 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6330,11 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6410,11 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,25 +6490,28 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E89" s="3">
         <v>-300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-400</v>
       </c>
-      <c r="F89" s="3">
-        <v>-900</v>
-      </c>
       <c r="G89" s="3">
-        <v>-500</v>
+        <v>-800</v>
       </c>
       <c r="H89" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="I89" s="3">
         <v>0</v>
@@ -6306,22 +6523,22 @@
         <v>0</v>
       </c>
       <c r="L89" s="3">
+        <v>0</v>
+      </c>
+      <c r="M89" s="3">
         <v>-100</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
       <c r="N89" s="3">
         <v>0</v>
       </c>
       <c r="O89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="P89" s="3">
         <v>-100</v>
       </c>
       <c r="Q89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="R89" s="3">
         <v>-200</v>
@@ -6333,13 +6550,13 @@
         <v>-200</v>
       </c>
       <c r="U89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V89" s="3">
         <v>-400</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>-900</v>
-      </c>
-      <c r="W89" s="3">
-        <v>-100</v>
       </c>
       <c r="X89" s="3">
         <v>-100</v>
@@ -6348,13 +6565,16 @@
         <v>-100</v>
       </c>
       <c r="Z89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA89" s="3">
         <v>-200</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,8 +6602,9 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+    </row>
+    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6417,11 +6638,11 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -6429,11 +6650,11 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S91" s="3">
-        <v>0</v>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T91" s="3">
         <v>0</v>
@@ -6448,19 +6669,22 @@
         <v>0</v>
       </c>
       <c r="X91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y91" s="3">
         <v>-100</v>
       </c>
-      <c r="Y91" s="3">
-        <v>0</v>
-      </c>
       <c r="Z91" s="3">
         <v>0</v>
       </c>
       <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6760,11 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,8 +6840,11 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6661,37 +6891,40 @@
         <v>0</v>
       </c>
       <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
         <v>400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>100</v>
       </c>
-      <c r="T94" s="3">
-        <v>0</v>
-      </c>
       <c r="U94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="V94" s="3">
         <v>-100</v>
       </c>
       <c r="W94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>200</v>
       </c>
-      <c r="Z94" s="3">
-        <v>0</v>
-      </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +6952,9 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+    </row>
+    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7030,11 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7110,11 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7190,11 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,46 +7270,49 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3" t="s">
-        <v>4</v>
+      <c r="D100" s="3">
+        <v>1200</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F100" s="3">
+      <c r="F100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G100" s="3">
         <v>200</v>
       </c>
-      <c r="G100" s="3">
-        <v>2500</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>4</v>
+      <c r="H100" s="3">
+        <v>2400</v>
       </c>
       <c r="I100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="J100" s="3">
-        <v>0</v>
+      <c r="J100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
       </c>
       <c r="L100" s="3">
+        <v>0</v>
+      </c>
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
       <c r="N100" s="3">
         <v>0</v>
       </c>
       <c r="O100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P100" s="3">
         <v>100</v>
@@ -7075,7 +7321,7 @@
         <v>100</v>
       </c>
       <c r="R100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="S100" s="3">
         <v>0</v>
@@ -7087,25 +7333,28 @@
         <v>0</v>
       </c>
       <c r="V100" s="3">
+        <v>0</v>
+      </c>
+      <c r="W100" s="3">
         <v>1900</v>
       </c>
-      <c r="W100" s="3">
-        <v>0</v>
-      </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
         <v>100</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>200</v>
       </c>
-      <c r="Z100" s="3">
-        <v>0</v>
-      </c>
       <c r="AA100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7181,26 +7430,29 @@
       <c r="AA101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-400</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-700</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2000</v>
       </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
       <c r="I102" s="3">
         <v>0</v>
       </c>
@@ -7220,42 +7472,45 @@
         <v>0</v>
       </c>
       <c r="O102" s="3">
+        <v>0</v>
+      </c>
+      <c r="P102" s="3">
         <v>-100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-300</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-400</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>900</v>
-      </c>
-      <c r="W102" s="3">
-        <v>-100</v>
       </c>
       <c r="X102" s="3">
         <v>-100</v>
       </c>
       <c r="Y102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="Z102" s="3">
         <v>200</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AB102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,119 +665,122 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="24" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -856,8 +859,11 @@
       <c r="AB8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -936,8 +942,11 @@
       <c r="AB9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1016,8 +1025,11 @@
       <c r="AB10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1046,40 +1058,41 @@
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>31100</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+        <v>-7200</v>
+      </c>
+      <c r="E12" s="3">
+        <v>31900</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="G12" s="3">
-        <v>5100</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
+      <c r="J12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K12" s="3">
         <v>0</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -1087,21 +1100,21 @@
       <c r="O12" s="3">
         <v>0</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>4</v>
+      <c r="P12" s="3">
+        <v>0</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R12" s="3">
-        <v>0</v>
+      <c r="R12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S12" s="3">
+        <v>0</v>
+      </c>
+      <c r="T12" s="3">
         <v>100</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1126,8 +1139,11 @@
       <c r="AB12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1206,8 +1222,11 @@
       <c r="AB13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1223,8 +1242,8 @@
       <c r="G14" s="3">
         <v>0</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>4</v>
+      <c r="H14" s="3">
+        <v>0</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>4</v>
@@ -1232,11 +1251,11 @@
       <c r="J14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>4</v>
+      <c r="K14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
@@ -1244,24 +1263,24 @@
       <c r="N14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="O14" s="3">
+      <c r="O14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" s="3">
         <v>3600</v>
       </c>
-      <c r="P14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Q14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="R14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="S14" s="3">
+      <c r="S14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T14" s="3">
         <v>-400</v>
       </c>
-      <c r="T14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1280,14 +1299,17 @@
       <c r="Z14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AA14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1337,11 +1359,11 @@
         <v>0</v>
       </c>
       <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
         <v>200</v>
       </c>
-      <c r="T15" s="3">
-        <v>0</v>
-      </c>
       <c r="U15" s="3">
         <v>0</v>
       </c>
@@ -1366,8 +1388,11 @@
       <c r="AB15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.2">
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1393,37 +1418,38 @@
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>32300</v>
+        <v>-6500</v>
       </c>
       <c r="E17" s="3">
-        <v>1100</v>
+        <v>33100</v>
       </c>
       <c r="F17" s="3">
+        <v>1200</v>
+      </c>
+      <c r="G17" s="3">
         <v>700</v>
       </c>
-      <c r="G17" s="3">
-        <v>8800</v>
-      </c>
       <c r="H17" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I17" s="3">
         <v>800</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>200</v>
-      </c>
-      <c r="L17" s="3">
-        <v>300</v>
       </c>
       <c r="M17" s="3">
         <v>300</v>
@@ -1432,22 +1458,22 @@
         <v>300</v>
       </c>
       <c r="O17" s="3">
+        <v>300</v>
+      </c>
+      <c r="P17" s="3">
         <v>3700</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>400</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>500</v>
       </c>
-      <c r="S17" s="3">
-        <v>0</v>
-      </c>
       <c r="T17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
@@ -1456,25 +1482,28 @@
         <v>500</v>
       </c>
       <c r="W17" s="3">
+        <v>500</v>
+      </c>
+      <c r="X17" s="3">
         <v>800</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>600</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>300</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>400</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>600</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1482,28 +1511,28 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F18" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G18" s="3">
         <v>-700</v>
       </c>
-      <c r="G18" s="3">
-        <v>-8800</v>
-      </c>
       <c r="H18" s="3">
+        <v>-9000</v>
+      </c>
+      <c r="I18" s="3">
         <v>-800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-200</v>
-      </c>
-      <c r="L18" s="3">
-        <v>-300</v>
       </c>
       <c r="M18" s="3">
         <v>-300</v>
@@ -1512,22 +1541,22 @@
         <v>-300</v>
       </c>
       <c r="O18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P18" s="3">
         <v>-3700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-400</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-500</v>
       </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
       <c r="T18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
@@ -1536,25 +1565,28 @@
         <v>-500</v>
       </c>
       <c r="W18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X18" s="3">
         <v>-800</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>-600</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>-300</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>-400</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>-600</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1583,8 +1615,9 @@
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1598,11 +1631,11 @@
         <v>0</v>
       </c>
       <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>-100</v>
       </c>
-      <c r="H20" s="3">
-        <v>0</v>
-      </c>
       <c r="I20" s="3">
         <v>0</v>
       </c>
@@ -1610,11 +1643,11 @@
         <v>0</v>
       </c>
       <c r="K20" s="3">
+        <v>0</v>
+      </c>
+      <c r="L20" s="3">
         <v>-100</v>
       </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
@@ -1628,43 +1661,46 @@
         <v>0</v>
       </c>
       <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
         <v>1700</v>
       </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
       <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>-100</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>400</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>100</v>
       </c>
-      <c r="V20" s="3">
-        <v>0</v>
-      </c>
       <c r="W20" s="3">
         <v>0</v>
       </c>
       <c r="X20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="3">
         <v>1900</v>
       </c>
-      <c r="Y20" s="3">
-        <v>0</v>
-      </c>
       <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>100</v>
       </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
       <c r="AB20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1672,25 +1708,25 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F21" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G21" s="3">
         <v>-700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H21" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I21" s="3">
         <v>-800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-400</v>
-      </c>
-      <c r="K21" s="3">
-        <v>-300</v>
       </c>
       <c r="L21" s="3">
         <v>-300</v>
@@ -1702,49 +1738,52 @@
         <v>-300</v>
       </c>
       <c r="O21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P21" s="3">
         <v>-3800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>1300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-500</v>
       </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
       <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
         <v>-100</v>
-      </c>
-      <c r="U21" s="3">
-        <v>-500</v>
       </c>
       <c r="V21" s="3">
         <v>-500</v>
       </c>
       <c r="W21" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X21" s="3">
         <v>-800</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y21" s="3">
-        <v>-300</v>
       </c>
       <c r="Z21" s="3">
         <v>-300</v>
       </c>
       <c r="AA21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB21" s="3">
         <v>-600</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1823,34 +1862,37 @@
       <c r="AB22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-32300</v>
+        <v>6500</v>
       </c>
       <c r="E23" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F23" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G23" s="3">
         <v>-700</v>
       </c>
-      <c r="G23" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I23" s="3">
         <v>-800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-400</v>
-      </c>
-      <c r="K23" s="3">
-        <v>-300</v>
       </c>
       <c r="L23" s="3">
         <v>-300</v>
@@ -1862,72 +1904,75 @@
         <v>-300</v>
       </c>
       <c r="O23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P23" s="3">
         <v>-3700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>1200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-500</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-100</v>
       </c>
       <c r="T23" s="3">
         <v>-100</v>
       </c>
       <c r="U23" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="V23" s="3">
         <v>-500</v>
       </c>
       <c r="W23" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X23" s="3">
         <v>-800</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>-300</v>
       </c>
       <c r="Z23" s="3">
         <v>-300</v>
       </c>
       <c r="AA23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB23" s="3">
         <v>-600</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AC23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
+        <v>-2400</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="K24" s="3">
         <v>0</v>
@@ -1983,8 +2028,11 @@
       <c r="AB24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2063,34 +2111,37 @@
       <c r="AB25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-32300</v>
+        <v>8900</v>
       </c>
       <c r="E26" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F26" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G26" s="3">
         <v>-700</v>
       </c>
-      <c r="G26" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H26" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I26" s="3">
         <v>-800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-400</v>
-      </c>
-      <c r="K26" s="3">
-        <v>-300</v>
       </c>
       <c r="L26" s="3">
         <v>-300</v>
@@ -2102,75 +2153,78 @@
         <v>-300</v>
       </c>
       <c r="O26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-3700</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>1200</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-500</v>
-      </c>
-      <c r="S26" s="3">
-        <v>-100</v>
       </c>
       <c r="T26" s="3">
         <v>-100</v>
       </c>
       <c r="U26" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="V26" s="3">
         <v>-500</v>
       </c>
       <c r="W26" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X26" s="3">
         <v>-800</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>-300</v>
       </c>
       <c r="Z26" s="3">
         <v>-300</v>
       </c>
       <c r="AA26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB26" s="3">
         <v>-600</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-32300</v>
+        <v>8900</v>
       </c>
       <c r="E27" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F27" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G27" s="3">
         <v>-700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H27" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I27" s="3">
         <v>-800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-400</v>
-      </c>
-      <c r="K27" s="3">
-        <v>-300</v>
       </c>
       <c r="L27" s="3">
         <v>-300</v>
@@ -2182,49 +2236,52 @@
         <v>-300</v>
       </c>
       <c r="O27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P27" s="3">
         <v>-3700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>1200</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-500</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-100</v>
       </c>
       <c r="T27" s="3">
         <v>-100</v>
       </c>
       <c r="U27" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="V27" s="3">
         <v>-500</v>
       </c>
       <c r="W27" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X27" s="3">
         <v>-800</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>-300</v>
       </c>
       <c r="Z27" s="3">
         <v>-300</v>
       </c>
       <c r="AA27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB27" s="3">
         <v>-600</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2303,8 +2360,11 @@
       <c r="AB28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2383,8 +2443,11 @@
       <c r="AB29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2463,8 +2526,11 @@
       <c r="AB30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2543,8 +2609,11 @@
       <c r="AB31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2558,11 +2627,11 @@
         <v>0</v>
       </c>
       <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
         <v>100</v>
       </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
       <c r="I32" s="3">
         <v>0</v>
       </c>
@@ -2570,11 +2639,11 @@
         <v>0</v>
       </c>
       <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
         <v>100</v>
       </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
@@ -2588,69 +2657,72 @@
         <v>0</v>
       </c>
       <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
         <v>-1700</v>
       </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
       <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>100</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-400</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-100</v>
       </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
       <c r="W32" s="3">
         <v>0</v>
       </c>
       <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
       <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-100</v>
       </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
       <c r="AB32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-32300</v>
+        <v>8900</v>
       </c>
       <c r="E33" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F33" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G33" s="3">
         <v>-700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H33" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I33" s="3">
         <v>-800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-400</v>
-      </c>
-      <c r="K33" s="3">
-        <v>-300</v>
       </c>
       <c r="L33" s="3">
         <v>-300</v>
@@ -2662,49 +2734,52 @@
         <v>-300</v>
       </c>
       <c r="O33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P33" s="3">
         <v>-3700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>1200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-500</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-100</v>
       </c>
       <c r="T33" s="3">
         <v>-100</v>
       </c>
       <c r="U33" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="V33" s="3">
         <v>-500</v>
       </c>
       <c r="W33" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X33" s="3">
         <v>-800</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y33" s="3">
-        <v>-300</v>
       </c>
       <c r="Z33" s="3">
         <v>-300</v>
       </c>
       <c r="AA33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB33" s="3">
         <v>-600</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2783,34 +2858,37 @@
       <c r="AB34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-32300</v>
+        <v>8900</v>
       </c>
       <c r="E35" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F35" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G35" s="3">
         <v>-700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H35" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I35" s="3">
         <v>-800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-400</v>
-      </c>
-      <c r="K35" s="3">
-        <v>-300</v>
       </c>
       <c r="L35" s="3">
         <v>-300</v>
@@ -2822,134 +2900,140 @@
         <v>-300</v>
       </c>
       <c r="O35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P35" s="3">
         <v>-3700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>1200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-500</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-100</v>
       </c>
       <c r="T35" s="3">
         <v>-100</v>
       </c>
       <c r="U35" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="V35" s="3">
         <v>-500</v>
       </c>
       <c r="W35" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X35" s="3">
         <v>-800</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y35" s="3">
-        <v>-300</v>
       </c>
       <c r="Z35" s="3">
         <v>-300</v>
       </c>
       <c r="AA35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB35" s="3">
         <v>-600</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2978,8 +3062,9 @@
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
-    </row>
-    <row r="40" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3008,32 +3093,33 @@
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
-    </row>
-    <row r="41" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>700</v>
+      </c>
+      <c r="E41" s="3">
         <v>1100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>900</v>
       </c>
-      <c r="G41" s="3">
-        <v>1300</v>
-      </c>
       <c r="H41" s="3">
-        <v>2000</v>
+        <v>1400</v>
       </c>
       <c r="I41" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
       <c r="K41" s="3">
         <v>0</v>
       </c>
@@ -3053,43 +3139,46 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
         <v>100</v>
       </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
       <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>200</v>
       </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
       <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
         <v>200</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>400</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>900</v>
       </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
       <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
         <v>100</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>300</v>
       </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
       <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3102,8 +3191,8 @@
       <c r="F42" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G42" s="3">
-        <v>0</v>
+      <c r="G42" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3136,17 +3225,17 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
+        <v>0</v>
+      </c>
+      <c r="S42" s="3">
         <v>100</v>
       </c>
-      <c r="S42" s="3">
-        <v>0</v>
-      </c>
       <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
         <v>100</v>
       </c>
-      <c r="U42" s="3">
-        <v>0</v>
-      </c>
       <c r="V42" s="3">
         <v>0</v>
       </c>
@@ -3160,34 +3249,37 @@
         <v>0</v>
       </c>
       <c r="Z42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AA42" s="3">
         <v>100</v>
       </c>
       <c r="AB42" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>300</v>
+      </c>
+      <c r="E43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>100</v>
       </c>
-      <c r="H43" s="3">
-        <v>0</v>
-      </c>
       <c r="I43" s="3">
         <v>0</v>
       </c>
@@ -3198,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="L43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M43" s="3">
         <v>100</v>
@@ -3207,10 +3299,10 @@
         <v>100</v>
       </c>
       <c r="O43" s="3">
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
         <v>200</v>
-      </c>
-      <c r="P43" s="3">
-        <v>300</v>
       </c>
       <c r="Q43" s="3">
         <v>300</v>
@@ -3219,19 +3311,19 @@
         <v>300</v>
       </c>
       <c r="S43" s="3">
+        <v>300</v>
+      </c>
+      <c r="T43" s="3">
         <v>200</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>400</v>
-      </c>
-      <c r="U43" s="3">
-        <v>300</v>
       </c>
       <c r="V43" s="3">
         <v>300</v>
       </c>
       <c r="W43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="X43" s="3">
         <v>200</v>
@@ -3240,16 +3332,19 @@
         <v>200</v>
       </c>
       <c r="Z43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AA43" s="3">
         <v>100</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>200</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="44" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3328,8 +3423,11 @@
       <c r="AB44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3339,8 +3437,8 @@
       <c r="E45" s="3">
         <v>0</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>4</v>
+      <c r="F45" s="3">
+        <v>0</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>4</v>
@@ -3357,8 +3455,8 @@
       <c r="K45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L45" s="3">
-        <v>0</v>
+      <c r="L45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -3408,88 +3506,94 @@
       <c r="AB45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1300</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1500</v>
       </c>
-      <c r="H46" s="3">
-        <v>2000</v>
-      </c>
       <c r="I46" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J46" s="3">
         <v>100</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O46" s="3">
         <v>200</v>
       </c>
       <c r="P46" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q46" s="3">
         <v>300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>400</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>500</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>400</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>500</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>600</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>800</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1200</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>300</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>400</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>300</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3568,8 +3672,11 @@
       <c r="AB47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3585,11 +3692,11 @@
       <c r="G48" s="3">
         <v>0</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I48" s="3">
-        <v>0</v>
+      <c r="H48" s="3">
+        <v>0</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
@@ -3610,46 +3717,49 @@
         <v>0</v>
       </c>
       <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
         <v>31000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>32900</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>31500</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>30200</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>30700</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>29300</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>29200</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>29900</v>
-      </c>
-      <c r="X48" s="3">
-        <v>31200</v>
       </c>
       <c r="Y48" s="3">
         <v>31200</v>
       </c>
       <c r="Z48" s="3">
+        <v>31200</v>
+      </c>
+      <c r="AA48" s="3">
         <v>31100</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>32100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3690,28 +3800,28 @@
         <v>0</v>
       </c>
       <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
         <v>3100</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>3300</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>3200</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>3100</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>3300</v>
-      </c>
-      <c r="U49" s="3">
-        <v>3100</v>
       </c>
       <c r="V49" s="3">
         <v>3100</v>
       </c>
       <c r="W49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="X49" s="3">
         <v>3200</v>
@@ -3723,13 +3833,16 @@
         <v>3200</v>
       </c>
       <c r="AA49" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="AB49" s="3">
         <v>3300</v>
       </c>
-    </row>
-    <row r="50" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC49" s="3">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3808,8 +3921,11 @@
       <c r="AB50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3888,13 +4004,16 @@
       <c r="AB51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E52" s="3">
         <v>0</v>
@@ -3948,11 +4067,11 @@
         <v>0</v>
       </c>
       <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
         <v>100</v>
       </c>
-      <c r="W52" s="3">
-        <v>0</v>
-      </c>
       <c r="X52" s="3">
         <v>0</v>
       </c>
@@ -3963,13 +4082,16 @@
         <v>0</v>
       </c>
       <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
         <v>100</v>
       </c>
-      <c r="AB52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4048,88 +4170,94 @@
       <c r="AB53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E54" s="3">
         <v>1400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1500</v>
       </c>
-      <c r="H54" s="3">
-        <v>2000</v>
-      </c>
       <c r="I54" s="3">
-        <v>100</v>
+        <v>2100</v>
       </c>
       <c r="J54" s="3">
         <v>100</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="O54" s="3">
         <v>200</v>
       </c>
       <c r="P54" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q54" s="3">
         <v>34300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>36700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>35200</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>3600</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>34500</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>33100</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>33200</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>34300</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>34600</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>34700</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>34800</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>35800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4158,8 +4286,9 @@
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
-    </row>
-    <row r="56" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4188,88 +4317,92 @@
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
-    </row>
-    <row r="57" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>100</v>
+      </c>
+      <c r="E57" s="3">
         <v>700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>400</v>
-      </c>
-      <c r="F57" s="3">
-        <v>100</v>
       </c>
       <c r="G57" s="3">
         <v>100</v>
       </c>
       <c r="H57" s="3">
+        <v>100</v>
+      </c>
+      <c r="I57" s="3">
         <v>300</v>
-      </c>
-      <c r="I57" s="3">
-        <v>400</v>
       </c>
       <c r="J57" s="3">
         <v>400</v>
       </c>
       <c r="K57" s="3">
+        <v>400</v>
+      </c>
+      <c r="L57" s="3">
         <v>1900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1400</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1100</v>
-      </c>
-      <c r="P57" s="3">
-        <v>900</v>
       </c>
       <c r="Q57" s="3">
         <v>900</v>
       </c>
       <c r="R57" s="3">
+        <v>900</v>
+      </c>
+      <c r="S57" s="3">
         <v>2200</v>
-      </c>
-      <c r="S57" s="3">
-        <v>2300</v>
       </c>
       <c r="T57" s="3">
         <v>2300</v>
       </c>
       <c r="U57" s="3">
+        <v>2300</v>
+      </c>
+      <c r="V57" s="3">
         <v>2400</v>
-      </c>
-      <c r="V57" s="3">
-        <v>2200</v>
       </c>
       <c r="W57" s="3">
         <v>2200</v>
       </c>
       <c r="X57" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y57" s="3">
         <v>900</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>5600</v>
       </c>
       <c r="Z57" s="3">
         <v>5600</v>
       </c>
       <c r="AA57" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AB57" s="3">
         <v>6200</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AC57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4277,10 +4410,10 @@
         <v>700</v>
       </c>
       <c r="E58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="F58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="G58" s="3">
         <v>600</v>
@@ -4295,43 +4428,43 @@
         <v>600</v>
       </c>
       <c r="K58" s="3">
+        <v>600</v>
+      </c>
+      <c r="L58" s="3">
         <v>1200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>1600</v>
-      </c>
-      <c r="M58" s="3">
-        <v>1500</v>
       </c>
       <c r="N58" s="3">
         <v>1500</v>
       </c>
       <c r="O58" s="3">
+        <v>1500</v>
+      </c>
+      <c r="P58" s="3">
         <v>1400</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>1100</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>1000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>900</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>800</v>
       </c>
-      <c r="T58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="U58" s="3" t="s">
         <v>4</v>
       </c>
       <c r="V58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="W58" s="3">
-        <v>0</v>
+      <c r="W58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="X58" s="3">
         <v>0</v>
@@ -4343,40 +4476,43 @@
         <v>0</v>
       </c>
       <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
         <v>100</v>
       </c>
-      <c r="AB58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E59" s="3">
         <v>2000</v>
       </c>
-      <c r="E59" s="3">
-        <v>1900</v>
-      </c>
       <c r="F59" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G59" s="3">
         <v>1700</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>1500</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4392,8 +4528,8 @@
       <c r="P59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="Q59" s="3">
-        <v>0</v>
+      <c r="Q59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="R59" s="3">
         <v>0</v>
@@ -4410,15 +4546,15 @@
       <c r="V59" s="3">
         <v>0</v>
       </c>
-      <c r="W59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="X59" s="3">
+      <c r="W59" s="3">
+        <v>0</v>
+      </c>
+      <c r="X59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y59" s="3">
         <v>3200</v>
       </c>
-      <c r="Y59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="Z59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4428,8 +4564,11 @@
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -4437,99 +4576,102 @@
         <v>3300</v>
       </c>
       <c r="E60" s="3">
-        <v>2900</v>
+        <v>3400</v>
       </c>
       <c r="F60" s="3">
-        <v>2300</v>
+        <v>3000</v>
       </c>
       <c r="G60" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H60" s="3">
         <v>2200</v>
-      </c>
-      <c r="H60" s="3">
-        <v>2600</v>
       </c>
       <c r="I60" s="3">
         <v>2700</v>
       </c>
       <c r="J60" s="3">
+        <v>2700</v>
+      </c>
+      <c r="K60" s="3">
         <v>2400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>3000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2900</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2800</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>3100</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>3000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2300</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2400</v>
-      </c>
-      <c r="V60" s="3">
-        <v>2200</v>
       </c>
       <c r="W60" s="3">
         <v>2200</v>
       </c>
       <c r="X60" s="3">
+        <v>2200</v>
+      </c>
+      <c r="Y60" s="3">
         <v>4100</v>
-      </c>
-      <c r="Y60" s="3">
-        <v>5600</v>
       </c>
       <c r="Z60" s="3">
         <v>5600</v>
       </c>
       <c r="AA60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="AB60" s="3">
         <v>6300</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>17100</v>
+        <v>17200</v>
       </c>
       <c r="E61" s="3">
-        <v>800</v>
+        <v>17500</v>
       </c>
       <c r="F61" s="3">
         <v>800</v>
       </c>
       <c r="G61" s="3">
+        <v>900</v>
+      </c>
+      <c r="H61" s="3">
         <v>800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>500</v>
-      </c>
-      <c r="I61" s="3">
-        <v>100</v>
       </c>
       <c r="J61" s="3">
         <v>100</v>
@@ -4544,7 +4686,7 @@
         <v>100</v>
       </c>
       <c r="N61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O61" s="3">
         <v>0</v>
@@ -4562,22 +4704,22 @@
         <v>0</v>
       </c>
       <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
         <v>1000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>800</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>700</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>600</v>
       </c>
-      <c r="X61" s="3">
-        <v>0</v>
-      </c>
       <c r="Y61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="Z61" s="3">
         <v>200</v>
@@ -4586,10 +4728,13 @@
         <v>200</v>
       </c>
       <c r="AB61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:28" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4668,8 +4813,11 @@
       <c r="AB62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4748,8 +4896,11 @@
       <c r="AB63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4828,8 +4979,11 @@
       <c r="AB64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4908,88 +5062,94 @@
       <c r="AB65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>20400</v>
+        <v>20500</v>
       </c>
       <c r="E66" s="3">
-        <v>3700</v>
+        <v>20900</v>
       </c>
       <c r="F66" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="I66" s="3">
         <v>3200</v>
       </c>
-      <c r="G66" s="3">
-        <v>2900</v>
-      </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K66" s="3">
+        <v>2500</v>
+      </c>
+      <c r="L66" s="3">
         <v>3100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="M66" s="3">
+        <v>3300</v>
+      </c>
+      <c r="N66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="O66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="P66" s="3">
+        <v>2400</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>2000</v>
+      </c>
+      <c r="R66" s="3">
+        <v>1900</v>
+      </c>
+      <c r="S66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="T66" s="3">
+        <v>3000</v>
+      </c>
+      <c r="U66" s="3">
+        <v>3200</v>
+      </c>
+      <c r="V66" s="3">
+        <v>3100</v>
+      </c>
+      <c r="W66" s="3">
+        <v>2800</v>
+      </c>
+      <c r="X66" s="3">
         <v>2700</v>
       </c>
-      <c r="J66" s="3">
-        <v>2500</v>
-      </c>
-      <c r="K66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="L66" s="3">
-        <v>3300</v>
-      </c>
-      <c r="M66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="N66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="O66" s="3">
-        <v>2400</v>
-      </c>
-      <c r="P66" s="3">
-        <v>2000</v>
-      </c>
-      <c r="Q66" s="3">
-        <v>1900</v>
-      </c>
-      <c r="R66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="S66" s="3">
-        <v>3000</v>
-      </c>
-      <c r="T66" s="3">
-        <v>3200</v>
-      </c>
-      <c r="U66" s="3">
-        <v>3100</v>
-      </c>
-      <c r="V66" s="3">
-        <v>2800</v>
-      </c>
-      <c r="W66" s="3">
-        <v>2700</v>
-      </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>4100</v>
-      </c>
-      <c r="Y66" s="3">
-        <v>5800</v>
       </c>
       <c r="Z66" s="3">
         <v>5800</v>
       </c>
       <c r="AA66" s="3">
+        <v>5800</v>
+      </c>
+      <c r="AB66" s="3">
         <v>6400</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5018,8 +5178,9 @@
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
-    </row>
-    <row r="68" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5098,8 +5259,11 @@
       <c r="AB68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5178,8 +5342,11 @@
       <c r="AB69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5258,8 +5425,11 @@
       <c r="AB70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5338,88 +5508,94 @@
       <c r="AB71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-78600</v>
+        <v>-76800</v>
       </c>
       <c r="E72" s="3">
-        <v>-53200</v>
+        <v>-80500</v>
       </c>
       <c r="F72" s="3">
-        <v>-52400</v>
+        <v>-54500</v>
       </c>
       <c r="G72" s="3">
-        <v>-51600</v>
+        <v>-53600</v>
       </c>
       <c r="H72" s="3">
-        <v>-42700</v>
+        <v>-52900</v>
       </c>
       <c r="I72" s="3">
-        <v>-42000</v>
+        <v>-43800</v>
       </c>
       <c r="J72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="K72" s="3">
         <v>-40800</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43400</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-44100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-43500</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-8900</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-8800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-8700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-38100</v>
-      </c>
-      <c r="T72" s="3">
-        <v>-7000</v>
       </c>
       <c r="U72" s="3">
         <v>-7000</v>
       </c>
       <c r="V72" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="W72" s="3">
         <v>-6200</v>
       </c>
-      <c r="W72" s="3">
+      <c r="X72" s="3">
         <v>-5900</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Y72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="Z72" s="3">
         <v>-6500</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AA72" s="3">
         <v>-6300</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AB72" s="3">
         <v>-6400</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AC72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5498,8 +5674,11 @@
       <c r="AB73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5578,8 +5757,11 @@
       <c r="AB74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5658,88 +5840,94 @@
       <c r="AB75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-19000</v>
+        <v>-19400</v>
       </c>
       <c r="E76" s="3">
+        <v>-19500</v>
+      </c>
+      <c r="F76" s="3">
         <v>-3000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>-2100</v>
       </c>
-      <c r="G76" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H76" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="I76" s="3">
         <v>-1100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
+        <v>-2700</v>
+      </c>
+      <c r="K76" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="L76" s="3">
+        <v>-3100</v>
+      </c>
+      <c r="M76" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="N76" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="O76" s="3">
         <v>-2600</v>
       </c>
-      <c r="J76" s="3">
-        <v>-2400</v>
-      </c>
-      <c r="K76" s="3">
-        <v>-3100</v>
-      </c>
-      <c r="L76" s="3">
-        <v>-3200</v>
-      </c>
-      <c r="M76" s="3">
-        <v>-2900</v>
-      </c>
-      <c r="N76" s="3">
-        <v>-2600</v>
-      </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-2300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>32400</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>34800</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>32000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>31300</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>29900</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>30400</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>31600</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>30500</v>
-      </c>
-      <c r="Y76" s="3">
-        <v>29000</v>
       </c>
       <c r="Z76" s="3">
         <v>29000</v>
       </c>
       <c r="AA76" s="3">
+        <v>29000</v>
+      </c>
+      <c r="AB76" s="3">
         <v>29400</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5818,119 +6006,125 @@
       <c r="AB77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:28" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-32300</v>
+        <v>8900</v>
       </c>
       <c r="E81" s="3">
-        <v>-1100</v>
+        <v>-33100</v>
       </c>
       <c r="F81" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="G81" s="3">
         <v>-700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-8900</v>
-      </c>
       <c r="H81" s="3">
+        <v>-9100</v>
+      </c>
+      <c r="I81" s="3">
         <v>-800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-400</v>
-      </c>
-      <c r="K81" s="3">
-        <v>-300</v>
       </c>
       <c r="L81" s="3">
         <v>-300</v>
@@ -5942,49 +6136,52 @@
         <v>-300</v>
       </c>
       <c r="O81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="P81" s="3">
         <v>-3700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>1200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-500</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-100</v>
       </c>
       <c r="T81" s="3">
         <v>-100</v>
       </c>
       <c r="U81" s="3">
-        <v>-500</v>
+        <v>-100</v>
       </c>
       <c r="V81" s="3">
         <v>-500</v>
       </c>
       <c r="W81" s="3">
+        <v>-500</v>
+      </c>
+      <c r="X81" s="3">
         <v>-800</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>1300</v>
-      </c>
-      <c r="Y81" s="3">
-        <v>-300</v>
       </c>
       <c r="Z81" s="3">
         <v>-300</v>
       </c>
       <c r="AA81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="AB81" s="3">
         <v>-600</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6013,8 +6210,9 @@
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
-    </row>
-    <row r="83" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6052,11 +6250,11 @@
         <v>0</v>
       </c>
       <c r="O83" s="3">
+        <v>0</v>
+      </c>
+      <c r="P83" s="3">
         <v>-100</v>
       </c>
-      <c r="P83" s="3">
-        <v>0</v>
-      </c>
       <c r="Q83" s="3">
         <v>0</v>
       </c>
@@ -6064,11 +6262,11 @@
         <v>0</v>
       </c>
       <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3">
         <v>200</v>
       </c>
-      <c r="T83" s="3">
-        <v>0</v>
-      </c>
       <c r="U83" s="3">
         <v>0</v>
       </c>
@@ -6093,8 +6291,11 @@
       <c r="AB83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6173,8 +6374,11 @@
       <c r="AB84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6253,8 +6457,11 @@
       <c r="AB85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6333,8 +6540,11 @@
       <c r="AB86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6413,8 +6623,11 @@
       <c r="AB87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6493,28 +6706,31 @@
       <c r="AB88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E89" s="3">
         <v>-600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-400</v>
       </c>
-      <c r="G89" s="3">
-        <v>-800</v>
-      </c>
       <c r="H89" s="3">
-        <v>-400</v>
+        <v>-900</v>
       </c>
       <c r="I89" s="3">
-        <v>0</v>
+        <v>-500</v>
       </c>
       <c r="J89" s="3">
         <v>0</v>
@@ -6526,22 +6742,22 @@
         <v>0</v>
       </c>
       <c r="M89" s="3">
+        <v>0</v>
+      </c>
+      <c r="N89" s="3">
         <v>-100</v>
       </c>
-      <c r="N89" s="3">
-        <v>0</v>
-      </c>
       <c r="O89" s="3">
         <v>0</v>
       </c>
       <c r="P89" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="Q89" s="3">
         <v>-100</v>
       </c>
       <c r="R89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="S89" s="3">
         <v>-200</v>
@@ -6553,13 +6769,13 @@
         <v>-200</v>
       </c>
       <c r="V89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="W89" s="3">
         <v>-400</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>-900</v>
-      </c>
-      <c r="X89" s="3">
-        <v>-100</v>
       </c>
       <c r="Y89" s="3">
         <v>-100</v>
@@ -6568,13 +6784,16 @@
         <v>-100</v>
       </c>
       <c r="AA89" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AB89" s="3">
         <v>-200</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6603,8 +6822,9 @@
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
-    </row>
-    <row r="91" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6612,7 +6832,7 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F91" s="3">
         <v>0</v>
@@ -6641,11 +6861,11 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="P91" s="3">
-        <v>0</v>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
@@ -6653,11 +6873,11 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T91" s="3">
-        <v>0</v>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
@@ -6672,19 +6892,22 @@
         <v>0</v>
       </c>
       <c r="Y91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="3">
         <v>-100</v>
       </c>
-      <c r="Z91" s="3">
-        <v>0</v>
-      </c>
       <c r="AA91" s="3">
         <v>0</v>
       </c>
       <c r="AB91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6763,8 +6986,11 @@
       <c r="AB92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6843,8 +7069,11 @@
       <c r="AB93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -6894,37 +7123,40 @@
         <v>0</v>
       </c>
       <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3">
         <v>400</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>100</v>
       </c>
-      <c r="U94" s="3">
-        <v>0</v>
-      </c>
       <c r="V94" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="W94" s="3">
         <v>-100</v>
       </c>
       <c r="X94" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="Y94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z94" s="3">
         <v>-100</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>200</v>
       </c>
-      <c r="AA94" s="3">
-        <v>0</v>
-      </c>
       <c r="AB94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:28" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6953,8 +7185,9 @@
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
-    </row>
-    <row r="96" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7033,8 +7266,11 @@
       <c r="AB96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7113,8 +7349,11 @@
       <c r="AB97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7193,8 +7432,11 @@
       <c r="AB98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7273,49 +7515,52 @@
       <c r="AB99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>0</v>
+      </c>
+      <c r="E100" s="3">
         <v>1200</v>
       </c>
-      <c r="E100" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="F100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G100" s="3">
+      <c r="G100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H100" s="3">
         <v>200</v>
       </c>
-      <c r="H100" s="3">
-        <v>2400</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>4</v>
+      <c r="I100" s="3">
+        <v>2500</v>
       </c>
       <c r="J100" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
       </c>
       <c r="M100" s="3">
+        <v>0</v>
+      </c>
+      <c r="N100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
-        <v>0</v>
-      </c>
       <c r="O100" s="3">
         <v>0</v>
       </c>
       <c r="P100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="Q100" s="3">
         <v>100</v>
@@ -7324,7 +7569,7 @@
         <v>100</v>
       </c>
       <c r="S100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T100" s="3">
         <v>0</v>
@@ -7336,25 +7581,28 @@
         <v>0</v>
       </c>
       <c r="W100" s="3">
+        <v>0</v>
+      </c>
+      <c r="X100" s="3">
         <v>1900</v>
       </c>
-      <c r="X100" s="3">
-        <v>0</v>
-      </c>
       <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>100</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>200</v>
       </c>
-      <c r="AA100" s="3">
-        <v>0</v>
-      </c>
       <c r="AB100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7433,29 +7681,32 @@
       <c r="AB101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:28" x14ac:dyDescent="0.2">
+      <c r="AC101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>500</v>
+        <v>-500</v>
       </c>
       <c r="E102" s="3">
+        <v>600</v>
+      </c>
+      <c r="F102" s="3">
         <v>-300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-400</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>2000</v>
       </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
       <c r="J102" s="3">
         <v>0</v>
       </c>
@@ -7475,42 +7726,45 @@
         <v>0</v>
       </c>
       <c r="P102" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="3">
         <v>-100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-100</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-300</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-400</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>900</v>
-      </c>
-      <c r="X102" s="3">
-        <v>-100</v>
       </c>
       <c r="Y102" s="3">
         <v>-100</v>
       </c>
       <c r="Z102" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AA102" s="3">
         <v>200</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,122 +665,130 @@
     <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
@@ -862,8 +870,14 @@
       <c r="AC8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -945,8 +959,14 @@
       <c r="AC9" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -1028,8 +1048,14 @@
       <c r="AC10" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1059,68 +1085,70 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3">
+        <v>100</v>
+      </c>
+      <c r="F12" s="3">
         <v>-7200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>31900</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
+      <c r="H12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I12" s="3">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3">
         <v>5200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>4</v>
+      <c r="L12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
       </c>
-      <c r="O12" s="3">
-        <v>0</v>
+      <c r="O12" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="P12" s="3">
         <v>0</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
+      <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
         <v>100</v>
       </c>
-      <c r="U12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V12" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W12" s="3" t="s">
         <v>4</v>
       </c>
@@ -1142,8 +1170,14 @@
       <c r="AC12" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE12" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,8 +1259,14 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1245,48 +1285,48 @@
       <c r="H14" s="3">
         <v>0</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>4</v>
+      <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
       </c>
       <c r="K14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
+      <c r="L14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N14" s="3" t="s">
-        <v>4</v>
+      <c r="N14" s="3">
+        <v>0</v>
       </c>
       <c r="O14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="P14" s="3">
+      <c r="P14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="R14" s="3">
         <v>3600</v>
       </c>
-      <c r="Q14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="S14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="T14" s="3">
+      <c r="T14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="V14" s="3">
         <v>-400</v>
       </c>
-      <c r="U14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W14" s="3" t="s">
         <v>4</v>
       </c>
@@ -1302,14 +1342,20 @@
       <c r="AA14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AB14" s="3">
-        <v>0</v>
+      <c r="AB14" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="AC14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD14" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1362,14 +1408,14 @@
         <v>0</v>
       </c>
       <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+      <c r="V15" s="3">
         <v>200</v>
       </c>
-      <c r="U15" s="3">
-        <v>0</v>
-      </c>
-      <c r="V15" s="3">
-        <v>0</v>
-      </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
@@ -1391,8 +1437,14 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,91 +1471,99 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F17" s="3">
         <v>-6500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>33100</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>9000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>200</v>
-      </c>
-      <c r="M17" s="3">
-        <v>300</v>
-      </c>
-      <c r="N17" s="3">
-        <v>300</v>
       </c>
       <c r="O17" s="3">
         <v>300</v>
       </c>
       <c r="P17" s="3">
+        <v>300</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>300</v>
+      </c>
+      <c r="R17" s="3">
         <v>3700</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>400</v>
-      </c>
-      <c r="S17" s="3">
-        <v>500</v>
-      </c>
-      <c r="T17" s="3">
-        <v>0</v>
       </c>
       <c r="U17" s="3">
         <v>500</v>
       </c>
       <c r="V17" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="W17" s="3">
         <v>500</v>
       </c>
       <c r="X17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>500</v>
+      </c>
+      <c r="Z17" s="3">
         <v>800</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>600</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>300</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>400</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AD17" s="3">
         <v>600</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AE17" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1511,82 +1571,88 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G18" s="3">
         <v>-33100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>-1200</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-9000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-200</v>
-      </c>
-      <c r="M18" s="3">
-        <v>-300</v>
-      </c>
-      <c r="N18" s="3">
-        <v>-300</v>
       </c>
       <c r="O18" s="3">
         <v>-300</v>
       </c>
       <c r="P18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R18" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>-600</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>-400</v>
-      </c>
-      <c r="S18" s="3">
-        <v>-500</v>
-      </c>
-      <c r="T18" s="3">
-        <v>0</v>
       </c>
       <c r="U18" s="3">
         <v>-500</v>
       </c>
       <c r="V18" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="W18" s="3">
         <v>-500</v>
       </c>
       <c r="X18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>-500</v>
+      </c>
+      <c r="Z18" s="3">
         <v>-800</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>-600</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>-300</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>-400</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AD18" s="3">
         <v>-600</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AE18" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,8 +1682,10 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1634,26 +1702,26 @@
         <v>0</v>
       </c>
       <c r="H20" s="3">
+        <v>0</v>
+      </c>
+      <c r="I20" s="3">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3">
         <v>-100</v>
       </c>
-      <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
       <c r="K20" s="3">
         <v>0</v>
       </c>
       <c r="L20" s="3">
+        <v>0</v>
+      </c>
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
         <v>-100</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
-      <c r="N20" s="3">
-        <v>0</v>
-      </c>
       <c r="O20" s="3">
         <v>0</v>
       </c>
@@ -1664,43 +1732,49 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
         <v>1700</v>
       </c>
-      <c r="S20" s="3">
-        <v>0</v>
-      </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+      <c r="V20" s="3">
         <v>-100</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>400</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>100</v>
       </c>
-      <c r="W20" s="3">
-        <v>0</v>
-      </c>
-      <c r="X20" s="3">
-        <v>0</v>
-      </c>
       <c r="Y20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="3">
         <v>1900</v>
       </c>
-      <c r="Z20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
         <v>100</v>
       </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1708,31 +1782,31 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>6500</v>
+      </c>
+      <c r="G21" s="3">
         <v>-33100</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>-1200</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>-700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-9100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>-800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>-400</v>
-      </c>
-      <c r="L21" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M21" s="3">
-        <v>-300</v>
       </c>
       <c r="N21" s="3">
         <v>-300</v>
@@ -1741,49 +1815,55 @@
         <v>-300</v>
       </c>
       <c r="P21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R21" s="3">
         <v>-3800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>-600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>1300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>-500</v>
       </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>-100</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>-500</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>-500</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>-800</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>1300</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>-300</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>-300</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AD21" s="3">
         <v>-600</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AE21" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1865,40 +1945,46 @@
       <c r="AC22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-3700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F23" s="3">
         <v>6500</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-33100</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-1200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-700</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-9100</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-400</v>
-      </c>
-      <c r="L23" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M23" s="3">
-        <v>-300</v>
       </c>
       <c r="N23" s="3">
         <v>-300</v>
@@ -1907,61 +1993,67 @@
         <v>-300</v>
       </c>
       <c r="P23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R23" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>-600</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>1200</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>-500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>-100</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>-100</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>-500</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>-500</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>-800</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>1300</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>-300</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>-300</v>
       </c>
-      <c r="AB23" s="3">
+      <c r="AD23" s="3">
         <v>-600</v>
       </c>
-      <c r="AC23" s="3">
+      <c r="AE23" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3">
         <v>-2400</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
       </c>
@@ -1974,11 +2066,11 @@
       <c r="J24" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
-      <c r="L24" s="3">
-        <v>0</v>
+      <c r="K24" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -2031,8 +2123,14 @@
       <c r="AC24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,40 +2212,46 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F26" s="3">
         <v>8900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-33100</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-1200</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-700</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-9100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-400</v>
-      </c>
-      <c r="L26" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-300</v>
       </c>
       <c r="N26" s="3">
         <v>-300</v>
@@ -2156,81 +2260,87 @@
         <v>-300</v>
       </c>
       <c r="P26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R26" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>-600</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>1200</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>-500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>-100</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>-100</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>-500</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>-500</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Z26" s="3">
         <v>-800</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>1300</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>-300</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>-300</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AD26" s="3">
         <v>-600</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AE26" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F27" s="3">
         <v>8900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-33100</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-1200</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-700</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-9100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-400</v>
-      </c>
-      <c r="L27" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-300</v>
       </c>
       <c r="N27" s="3">
         <v>-300</v>
@@ -2239,49 +2349,55 @@
         <v>-300</v>
       </c>
       <c r="P27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R27" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>-600</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>1200</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>-500</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>-100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>-100</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>-500</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>-500</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Z27" s="3">
         <v>-800</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>1300</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>-300</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>-300</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AD27" s="3">
         <v>-600</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AE27" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2479,14 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2568,14 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2657,14 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,8 +2746,14 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -2630,26 +2770,26 @@
         <v>0</v>
       </c>
       <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
         <v>100</v>
       </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
       <c r="K32" s="3">
         <v>0</v>
       </c>
       <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
         <v>100</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
       <c r="O32" s="3">
         <v>0</v>
       </c>
@@ -2660,75 +2800,81 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
         <v>-1700</v>
       </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
         <v>100</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>-400</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>-100</v>
       </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
       <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
         <v>-1900</v>
       </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
         <v>-100</v>
       </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F33" s="3">
         <v>8900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-33100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-9100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-400</v>
-      </c>
-      <c r="L33" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-300</v>
       </c>
       <c r="N33" s="3">
         <v>-300</v>
@@ -2737,49 +2883,55 @@
         <v>-300</v>
       </c>
       <c r="P33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R33" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>-600</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>1200</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>-500</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>-100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>-100</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>-500</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>-500</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Z33" s="3">
         <v>-800</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>1300</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>-300</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>-300</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AD33" s="3">
         <v>-600</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AE33" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,40 +3013,46 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F35" s="3">
         <v>8900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-33100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-9100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-400</v>
-      </c>
-      <c r="L35" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-300</v>
       </c>
       <c r="N35" s="3">
         <v>-300</v>
@@ -2903,137 +3061,149 @@
         <v>-300</v>
       </c>
       <c r="P35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R35" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>-600</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>1200</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>-500</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>-100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>-100</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>-500</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>-500</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Z35" s="3">
         <v>-800</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>1300</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>-300</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>-300</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AD35" s="3">
         <v>-600</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AE35" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3233,10 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,38 +3266,40 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>500</v>
+      </c>
+      <c r="E41" s="3">
+        <v>300</v>
+      </c>
+      <c r="F41" s="3">
         <v>700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>1100</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>2100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
       <c r="M41" s="3">
         <v>0</v>
       </c>
@@ -3142,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
         <v>100</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>200</v>
       </c>
       <c r="U41" s="3">
         <v>0</v>
@@ -3157,42 +3331,48 @@
         <v>200</v>
       </c>
       <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>200</v>
+      </c>
+      <c r="Y41" s="3">
         <v>400</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>900</v>
       </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
         <v>100</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AC41" s="3">
         <v>300</v>
       </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>4</v>
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
       </c>
       <c r="H42" s="3">
         <v>0</v>
@@ -3228,7 +3408,7 @@
         <v>0</v>
       </c>
       <c r="S42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T42" s="3">
         <v>0</v>
@@ -3240,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="X42" s="3">
         <v>0</v>
@@ -3252,16 +3432,22 @@
         <v>0</v>
       </c>
       <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
         <v>100</v>
       </c>
-      <c r="AB42" s="3">
+      <c r="AD42" s="3">
         <v>100</v>
       </c>
-      <c r="AC42" s="3">
+      <c r="AE42" s="3">
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -3269,10 +3455,10 @@
         <v>300</v>
       </c>
       <c r="E43" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F43" s="3">
-        <v>100</v>
+        <v>300</v>
       </c>
       <c r="G43" s="3">
         <v>200</v>
@@ -3281,10 +3467,10 @@
         <v>100</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K43" s="3">
         <v>0</v>
@@ -3293,49 +3479,49 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O43" s="3">
         <v>100</v>
       </c>
       <c r="P43" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>100</v>
+      </c>
+      <c r="R43" s="3">
         <v>200</v>
-      </c>
-      <c r="Q43" s="3">
-        <v>300</v>
-      </c>
-      <c r="R43" s="3">
-        <v>300</v>
       </c>
       <c r="S43" s="3">
         <v>300</v>
       </c>
       <c r="T43" s="3">
+        <v>300</v>
+      </c>
+      <c r="U43" s="3">
+        <v>300</v>
+      </c>
+      <c r="V43" s="3">
         <v>200</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>400</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>300</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>300</v>
-      </c>
-      <c r="X43" s="3">
-        <v>200</v>
-      </c>
-      <c r="Y43" s="3">
-        <v>200</v>
       </c>
       <c r="Z43" s="3">
         <v>200</v>
       </c>
       <c r="AA43" s="3">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="AB43" s="3">
         <v>200</v>
@@ -3343,8 +3529,14 @@
       <c r="AC43" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD43" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -3426,8 +3618,14 @@
       <c r="AC44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -3440,11 +3638,11 @@
       <c r="F45" s="3">
         <v>0</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>4</v>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>0</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>4</v>
@@ -3458,11 +3656,11 @@
       <c r="L45" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M45" s="3">
-        <v>0</v>
-      </c>
-      <c r="N45" s="3">
-        <v>0</v>
+      <c r="M45" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="O45" s="3">
         <v>0</v>
@@ -3509,58 +3707,64 @@
       <c r="AC45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>800</v>
+      </c>
+      <c r="E46" s="3">
+        <v>600</v>
+      </c>
+      <c r="F46" s="3">
         <v>1000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1300</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>100</v>
-      </c>
-      <c r="K46" s="3">
-        <v>100</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
       </c>
       <c r="M46" s="3">
         <v>100</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>100</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q46" s="3">
         <v>200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>200</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>300</v>
-      </c>
-      <c r="R46" s="3">
-        <v>400</v>
-      </c>
-      <c r="S46" s="3">
-        <v>500</v>
       </c>
       <c r="T46" s="3">
         <v>400</v>
@@ -3569,31 +3773,37 @@
         <v>500</v>
       </c>
       <c r="V46" s="3">
+        <v>400</v>
+      </c>
+      <c r="W46" s="3">
+        <v>500</v>
+      </c>
+      <c r="X46" s="3">
         <v>600</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>800</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1200</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>200</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>300</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>400</v>
       </c>
       <c r="AB46" s="3">
         <v>300</v>
       </c>
       <c r="AC46" s="3">
+        <v>400</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>300</v>
+      </c>
+      <c r="AE46" s="3">
         <v>500</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3675,8 +3885,14 @@
       <c r="AC47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -3695,14 +3911,14 @@
       <c r="H48" s="3">
         <v>0</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>4</v>
+      <c r="I48" s="3">
+        <v>0</v>
       </c>
       <c r="J48" s="3">
         <v>0</v>
       </c>
-      <c r="K48" s="3">
-        <v>0</v>
+      <c r="K48" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="L48" s="3">
         <v>0</v>
@@ -3720,46 +3936,52 @@
         <v>0</v>
       </c>
       <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
         <v>31000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>32900</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>31500</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>30200</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>30700</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>29300</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>29200</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>29900</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>31200</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>31200</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>31100</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AD48" s="3">
         <v>32100</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AE48" s="3">
         <v>30400</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -3803,31 +4025,31 @@
         <v>0</v>
       </c>
       <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
         <v>3100</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>3300</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>3200</v>
-      </c>
-      <c r="T49" s="3">
-        <v>3100</v>
-      </c>
-      <c r="U49" s="3">
-        <v>3300</v>
       </c>
       <c r="V49" s="3">
         <v>3100</v>
       </c>
       <c r="W49" s="3">
+        <v>3300</v>
+      </c>
+      <c r="X49" s="3">
         <v>3100</v>
       </c>
-      <c r="X49" s="3">
-        <v>3200</v>
-      </c>
       <c r="Y49" s="3">
-        <v>3200</v>
+        <v>3100</v>
       </c>
       <c r="Z49" s="3">
         <v>3200</v>
@@ -3836,13 +4058,19 @@
         <v>3200</v>
       </c>
       <c r="AB49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>3200</v>
+      </c>
+      <c r="AD49" s="3">
         <v>3300</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AE49" s="3">
         <v>3300</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4152,14 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,8 +4241,14 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -4016,10 +4256,10 @@
         <v>100</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4070,14 +4310,14 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
+        <v>0</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
         <v>100</v>
       </c>
-      <c r="X52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y52" s="3">
-        <v>0</v>
-      </c>
       <c r="Z52" s="3">
         <v>0</v>
       </c>
@@ -4085,13 +4325,19 @@
         <v>0</v>
       </c>
       <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
         <v>100</v>
       </c>
-      <c r="AC52" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE52" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4419,103 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>900</v>
+      </c>
+      <c r="E54" s="3">
+        <v>700</v>
+      </c>
+      <c r="F54" s="3">
         <v>1100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>1400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>800</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>1100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>1500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>2100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>100</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
       </c>
       <c r="M54" s="3">
         <v>100</v>
       </c>
       <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
         <v>100</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
+        <v>100</v>
+      </c>
+      <c r="Q54" s="3">
         <v>200</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>200</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>34300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>36700</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>35200</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>3600</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>34500</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>33100</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>33200</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>34300</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>34600</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>34700</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>34800</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AD54" s="3">
         <v>35800</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AE54" s="3">
         <v>34200</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4545,10 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,91 +4578,99 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>200</v>
+      </c>
+      <c r="F57" s="3">
         <v>100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>1900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>1400</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>1100</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>900</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>900</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>2200</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>2300</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>2300</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>2400</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>2200</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Z57" s="3">
         <v>2200</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="AA57" s="3">
         <v>900</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AB57" s="3">
         <v>5600</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AC57" s="3">
         <v>5600</v>
       </c>
-      <c r="AB57" s="3">
+      <c r="AD57" s="3">
         <v>6200</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AE57" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -4416,10 +4684,10 @@
         <v>700</v>
       </c>
       <c r="G58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -4431,46 +4699,46 @@
         <v>600</v>
       </c>
       <c r="L58" s="3">
+        <v>600</v>
+      </c>
+      <c r="M58" s="3">
+        <v>600</v>
+      </c>
+      <c r="N58" s="3">
         <v>1200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>1600</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>1500</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>1500</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>1400</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>1100</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>1000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>900</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>800</v>
       </c>
-      <c r="U58" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="V58" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="W58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="X58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y58" s="3">
-        <v>0</v>
+      <c r="X58" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y58" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="Z58" s="3">
         <v>0</v>
@@ -4479,46 +4747,52 @@
         <v>0</v>
       </c>
       <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
         <v>100</v>
       </c>
-      <c r="AC58" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AE58" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E59" s="3">
+        <v>2600</v>
+      </c>
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>2000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>2000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>1700</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>1500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>1800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1700</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>1500</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="M59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>4</v>
       </c>
@@ -4531,11 +4805,11 @@
       <c r="Q59" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="R59" s="3">
-        <v>0</v>
-      </c>
-      <c r="S59" s="3">
-        <v>0</v>
+      <c r="R59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="S59" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="T59" s="3">
         <v>0</v>
@@ -4549,135 +4823,147 @@
       <c r="W59" s="3">
         <v>0</v>
       </c>
-      <c r="X59" s="3" t="s">
-        <v>4</v>
+      <c r="X59" s="3">
+        <v>0</v>
       </c>
       <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA59" s="3">
         <v>3200</v>
       </c>
-      <c r="Z59" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="AA59" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="AB59" s="3" t="s">
         <v>4</v>
       </c>
       <c r="AC59" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="AE59" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="E60" s="3">
+        <v>3600</v>
+      </c>
+      <c r="F60" s="3">
         <v>3300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>3000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>2400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>2200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>2700</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2700</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>3000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>3200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2800</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2400</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>2000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1900</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>3100</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>3000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>2300</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>2400</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>2200</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>2200</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>4100</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>5600</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>5600</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AD60" s="3">
         <v>6300</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AE60" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>17600</v>
+      </c>
+      <c r="F61" s="3">
         <v>17200</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>17500</v>
-      </c>
-      <c r="F61" s="3">
-        <v>800</v>
-      </c>
-      <c r="G61" s="3">
-        <v>900</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
       </c>
       <c r="I61" s="3">
+        <v>900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>800</v>
+      </c>
+      <c r="K61" s="3">
         <v>500</v>
-      </c>
-      <c r="J61" s="3">
-        <v>100</v>
-      </c>
-      <c r="K61" s="3">
-        <v>100</v>
       </c>
       <c r="L61" s="3">
         <v>100</v>
@@ -4689,10 +4975,10 @@
         <v>100</v>
       </c>
       <c r="O61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P61" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q61" s="3">
         <v>0</v>
@@ -4707,34 +4993,40 @@
         <v>0</v>
       </c>
       <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
         <v>1000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>800</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>700</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>600</v>
       </c>
-      <c r="Y61" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="3">
-        <v>200</v>
-      </c>
       <c r="AA61" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AB61" s="3">
         <v>200</v>
       </c>
       <c r="AC61" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+        <v>200</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>200</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -4816,8 +5108,14 @@
       <c r="AC62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5197,14 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5286,14 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5375,103 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="F66" s="3">
         <v>20500</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>2800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>2500</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>2000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>1900</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3100</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3200</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3100</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>2800</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>2700</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>4100</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>5800</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>5800</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AD66" s="3">
         <v>6400</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AE66" s="3">
         <v>4300</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5501,10 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5586,14 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5675,14 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5764,14 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,91 +5853,103 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-76800</v>
+        <v>-84600</v>
       </c>
       <c r="E72" s="3">
+        <v>-81000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-76700</v>
+      </c>
+      <c r="G72" s="3">
         <v>-80500</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-54500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-53600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-52900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-43800</v>
-      </c>
-      <c r="J72" s="3">
-        <v>-43000</v>
-      </c>
-      <c r="K72" s="3">
-        <v>-40800</v>
       </c>
       <c r="L72" s="3">
         <v>-43000</v>
       </c>
       <c r="M72" s="3">
+        <v>-40800</v>
+      </c>
+      <c r="N72" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="O72" s="3">
         <v>-43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-43400</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-44100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-43500</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="S72" s="3">
         <v>-8900</v>
       </c>
-      <c r="R72" s="3">
+      <c r="T72" s="3">
         <v>-8800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="U72" s="3">
         <v>-8700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="V72" s="3">
         <v>-38100</v>
       </c>
-      <c r="U72" s="3">
+      <c r="W72" s="3">
         <v>-7000</v>
       </c>
-      <c r="V72" s="3">
+      <c r="X72" s="3">
         <v>-7000</v>
       </c>
-      <c r="W72" s="3">
+      <c r="Y72" s="3">
         <v>-6200</v>
       </c>
-      <c r="X72" s="3">
+      <c r="Z72" s="3">
         <v>-5900</v>
       </c>
-      <c r="Y72" s="3">
+      <c r="AA72" s="3">
         <v>-5200</v>
       </c>
-      <c r="Z72" s="3">
+      <c r="AB72" s="3">
         <v>-6500</v>
       </c>
-      <c r="AA72" s="3">
+      <c r="AC72" s="3">
         <v>-6300</v>
       </c>
-      <c r="AB72" s="3">
+      <c r="AD72" s="3">
         <v>-6400</v>
       </c>
-      <c r="AC72" s="3">
+      <c r="AE72" s="3">
         <v>-4600</v>
       </c>
     </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +6031,14 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +6120,14 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6209,103 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-20400</v>
+      </c>
+      <c r="F76" s="3">
         <v>-19400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>-19500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>-3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>-2100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>-1500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>-1100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>-2700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>-2400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>-3100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-3200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>-2900</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>-2600</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>-2300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>32400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>34800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>32000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>31300</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>29900</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>30400</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>31600</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>30500</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>29000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>29000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AD76" s="3">
         <v>29400</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AE76" s="3">
         <v>29900</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,128 +6387,140 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-4200</v>
+      </c>
+      <c r="F81" s="3">
         <v>8900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-33100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-9100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-400</v>
-      </c>
-      <c r="L81" s="3">
-        <v>-300</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-300</v>
       </c>
       <c r="N81" s="3">
         <v>-300</v>
@@ -6139,49 +6529,55 @@
         <v>-300</v>
       </c>
       <c r="P81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-300</v>
+      </c>
+      <c r="R81" s="3">
         <v>-3700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>-600</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>1200</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>-500</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>-100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>-100</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>-500</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>-500</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Z81" s="3">
         <v>-800</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>1300</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>-300</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>-300</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AD81" s="3">
         <v>-600</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AE81" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,8 +6607,10 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -6253,26 +6651,26 @@
         <v>0</v>
       </c>
       <c r="P83" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3">
         <v>-100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3">
-        <v>0</v>
-      </c>
       <c r="S83" s="3">
         <v>0</v>
       </c>
       <c r="T83" s="3">
+        <v>0</v>
+      </c>
+      <c r="U83" s="3">
+        <v>0</v>
+      </c>
+      <c r="V83" s="3">
         <v>200</v>
       </c>
-      <c r="U83" s="3">
-        <v>0</v>
-      </c>
-      <c r="V83" s="3">
-        <v>0</v>
-      </c>
       <c r="W83" s="3">
         <v>0</v>
       </c>
@@ -6294,8 +6692,14 @@
       <c r="AC83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD83" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6781,14 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6870,14 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6959,14 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +7048,14 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,8 +7137,14 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -6718,26 +7152,26 @@
         <v>-500</v>
       </c>
       <c r="E89" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G89" s="3">
         <v>-600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-300</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-400</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>-900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3">
-        <v>0</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
       <c r="L89" s="3">
         <v>0</v>
       </c>
@@ -6745,25 +7179,25 @@
         <v>0</v>
       </c>
       <c r="N89" s="3">
+        <v>0</v>
+      </c>
+      <c r="O89" s="3">
+        <v>0</v>
+      </c>
+      <c r="P89" s="3">
         <v>-100</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
       <c r="Q89" s="3">
+        <v>0</v>
+      </c>
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
         <v>-100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>-100</v>
-      </c>
-      <c r="S89" s="3">
-        <v>-200</v>
-      </c>
-      <c r="T89" s="3">
-        <v>-200</v>
       </c>
       <c r="U89" s="3">
         <v>-200</v>
@@ -6772,28 +7206,34 @@
         <v>-200</v>
       </c>
       <c r="W89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="X89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="Y89" s="3">
         <v>-400</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>-900</v>
-      </c>
-      <c r="Y89" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Z89" s="3">
-        <v>-100</v>
       </c>
       <c r="AA89" s="3">
         <v>-100</v>
       </c>
       <c r="AB89" s="3">
-        <v>-200</v>
+        <v>-100</v>
       </c>
       <c r="AC89" s="3">
         <v>-100</v>
       </c>
-    </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD89" s="3">
+        <v>-200</v>
+      </c>
+      <c r="AE89" s="3">
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,8 +7263,10 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -6864,26 +7306,26 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>4</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3">
-        <v>0</v>
+      <c r="R91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>4</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3">
         <v>0</v>
       </c>
-      <c r="V91" s="3">
-        <v>0</v>
+      <c r="V91" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="W91" s="3">
         <v>0</v>
@@ -6895,19 +7337,25 @@
         <v>0</v>
       </c>
       <c r="Z91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB91" s="3">
         <v>-100</v>
       </c>
-      <c r="AA91" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB91" s="3">
-        <v>0</v>
-      </c>
       <c r="AC91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD91" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE91" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7437,14 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,8 +7526,14 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -7126,37 +7586,43 @@
         <v>0</v>
       </c>
       <c r="T94" s="3">
+        <v>0</v>
+      </c>
+      <c r="U94" s="3">
+        <v>0</v>
+      </c>
+      <c r="V94" s="3">
         <v>400</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>100</v>
       </c>
-      <c r="V94" s="3">
-        <v>0</v>
-      </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y94" s="3">
         <v>-100</v>
-      </c>
-      <c r="X94" s="3">
-        <v>-100</v>
-      </c>
-      <c r="Y94" s="3">
-        <v>0</v>
       </c>
       <c r="Z94" s="3">
         <v>-100</v>
       </c>
       <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB94" s="3">
+        <v>-100</v>
+      </c>
+      <c r="AC94" s="3">
         <v>200</v>
       </c>
-      <c r="AB94" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE94" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7652,10 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7737,14 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7826,14 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7915,14 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,64 +8004,70 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>700</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>1200</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="H100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J100" s="3">
         <v>200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>2500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L100" s="3">
-        <v>0</v>
-      </c>
-      <c r="M100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="N100" s="3">
+        <v>0</v>
+      </c>
+      <c r="O100" s="3">
+        <v>0</v>
+      </c>
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
-      </c>
-      <c r="P100" s="3">
-        <v>0</v>
-      </c>
       <c r="Q100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R100" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S100" s="3">
         <v>100</v>
       </c>
       <c r="T100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="U100" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="V100" s="3">
         <v>0</v>
@@ -7584,25 +8076,31 @@
         <v>0</v>
       </c>
       <c r="X100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y100" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z100" s="3">
         <v>1900</v>
       </c>
-      <c r="Y100" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB100" s="3">
         <v>100</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>200</v>
       </c>
-      <c r="AB100" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC100" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD100" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -7684,35 +8182,41 @@
       <c r="AC101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD101" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-300</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-400</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>2000</v>
       </c>
-      <c r="J102" s="3">
-        <v>0</v>
-      </c>
-      <c r="K102" s="3">
-        <v>0</v>
-      </c>
       <c r="L102" s="3">
         <v>0</v>
       </c>
@@ -7729,42 +8233,48 @@
         <v>0</v>
       </c>
       <c r="Q102" s="3">
+        <v>0</v>
+      </c>
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
         <v>-100</v>
-      </c>
-      <c r="R102" s="3">
-        <v>100</v>
-      </c>
-      <c r="S102" s="3">
-        <v>-200</v>
       </c>
       <c r="T102" s="3">
         <v>100</v>
       </c>
       <c r="U102" s="3">
+        <v>-200</v>
+      </c>
+      <c r="V102" s="3">
+        <v>100</v>
+      </c>
+      <c r="W102" s="3">
         <v>-100</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-300</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>-400</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>900</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>-100</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-100</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>200</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AD102" s="3">
         <v>-200</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AE102" s="3">
         <v>-200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/KWGBF_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="92">
   <si>
     <t>KWGBF</t>
   </si>
@@ -1099,10 +1099,10 @@
         <v>100</v>
       </c>
       <c r="F12" s="3">
-        <v>-7200</v>
+        <v>-7100</v>
       </c>
       <c r="G12" s="3">
-        <v>31900</v>
+        <v>31300</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>4</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="3">
-        <v>5200</v>
+        <v>5100</v>
       </c>
       <c r="K12" s="3">
         <v>100</v>
@@ -1478,26 +1478,26 @@
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>4</v>
+      <c r="D17" s="3">
+        <v>3600</v>
       </c>
       <c r="E17" s="3">
-        <v>4200</v>
+        <v>4100</v>
       </c>
       <c r="F17" s="3">
-        <v>-6500</v>
+        <v>-6400</v>
       </c>
       <c r="G17" s="3">
-        <v>33100</v>
+        <v>32500</v>
       </c>
       <c r="H17" s="3">
-        <v>1200</v>
+        <v>1100</v>
       </c>
       <c r="I17" s="3">
         <v>700</v>
       </c>
       <c r="J17" s="3">
-        <v>9000</v>
+        <v>8800</v>
       </c>
       <c r="K17" s="3">
         <v>800</v>
@@ -1571,22 +1571,22 @@
         <v>4</v>
       </c>
       <c r="E18" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F18" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G18" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H18" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I18" s="3">
         <v>-700</v>
       </c>
       <c r="J18" s="3">
-        <v>-9000</v>
+        <v>-8800</v>
       </c>
       <c r="K18" s="3">
         <v>-800</v>
@@ -1782,22 +1782,22 @@
         <v>4</v>
       </c>
       <c r="E21" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F21" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G21" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H21" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I21" s="3">
         <v>-700</v>
       </c>
       <c r="J21" s="3">
-        <v>-9100</v>
+        <v>-8900</v>
       </c>
       <c r="K21" s="3">
         <v>-800</v>
@@ -1960,22 +1960,22 @@
         <v>-3700</v>
       </c>
       <c r="E23" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F23" s="3">
-        <v>6500</v>
+        <v>6400</v>
       </c>
       <c r="G23" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H23" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I23" s="3">
         <v>-700</v>
       </c>
       <c r="J23" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K23" s="3">
         <v>-800</v>
@@ -2052,7 +2052,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="3">
-        <v>-2400</v>
+        <v>-2300</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>4</v>
@@ -2223,26 +2223,26 @@
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>4</v>
+      <c r="D26" s="3">
+        <v>-3700</v>
       </c>
       <c r="E26" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F26" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G26" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H26" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I26" s="3">
         <v>-700</v>
       </c>
       <c r="J26" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K26" s="3">
         <v>-800</v>
@@ -2312,26 +2312,26 @@
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>4</v>
+      <c r="D27" s="3">
+        <v>-3700</v>
       </c>
       <c r="E27" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F27" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G27" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H27" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I27" s="3">
         <v>-700</v>
       </c>
       <c r="J27" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K27" s="3">
         <v>-800</v>
@@ -2846,26 +2846,26 @@
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>4</v>
+      <c r="D33" s="3">
+        <v>-3700</v>
       </c>
       <c r="E33" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F33" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G33" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H33" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I33" s="3">
         <v>-700</v>
       </c>
       <c r="J33" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K33" s="3">
         <v>-800</v>
@@ -3024,26 +3024,26 @@
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>4</v>
+      <c r="D35" s="3">
+        <v>-3700</v>
       </c>
       <c r="E35" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F35" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G35" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H35" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I35" s="3">
         <v>-700</v>
       </c>
       <c r="J35" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K35" s="3">
         <v>-800</v>
@@ -3292,7 +3292,7 @@
         <v>900</v>
       </c>
       <c r="J41" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="K41" s="3">
         <v>2100</v>
@@ -4259,7 +4259,7 @@
         <v>100</v>
       </c>
       <c r="F52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="G52" s="3">
         <v>0</v>
@@ -4687,7 +4687,7 @@
         <v>700</v>
       </c>
       <c r="H58" s="3">
-        <v>700</v>
+        <v>600</v>
       </c>
       <c r="I58" s="3">
         <v>600</v>
@@ -4764,7 +4764,7 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E59" s="3">
         <v>2600</v>
@@ -4776,7 +4776,7 @@
         <v>2000</v>
       </c>
       <c r="H59" s="3">
-        <v>2000</v>
+        <v>1900</v>
       </c>
       <c r="I59" s="3">
         <v>1700</v>
@@ -4853,16 +4853,16 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="E60" s="3">
-        <v>3600</v>
+        <v>3500</v>
       </c>
       <c r="F60" s="3">
         <v>3300</v>
       </c>
       <c r="G60" s="3">
-        <v>3400</v>
+        <v>3300</v>
       </c>
       <c r="H60" s="3">
         <v>3000</v>
@@ -4942,16 +4942,16 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>18100</v>
+        <v>17800</v>
       </c>
       <c r="E61" s="3">
-        <v>17600</v>
+        <v>17300</v>
       </c>
       <c r="F61" s="3">
+        <v>16900</v>
+      </c>
+      <c r="G61" s="3">
         <v>17200</v>
-      </c>
-      <c r="G61" s="3">
-        <v>17500</v>
       </c>
       <c r="H61" s="3">
         <v>800</v>
@@ -5387,25 +5387,25 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21700</v>
+        <v>21300</v>
       </c>
       <c r="E66" s="3">
-        <v>21100</v>
+        <v>20800</v>
       </c>
       <c r="F66" s="3">
+        <v>20100</v>
+      </c>
+      <c r="G66" s="3">
         <v>20500</v>
       </c>
-      <c r="G66" s="3">
-        <v>20900</v>
-      </c>
       <c r="H66" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="I66" s="3">
-        <v>3300</v>
+        <v>3200</v>
       </c>
       <c r="J66" s="3">
-        <v>3000</v>
+        <v>2900</v>
       </c>
       <c r="K66" s="3">
         <v>3200</v>
@@ -5865,25 +5865,25 @@
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-84600</v>
+        <v>-83100</v>
       </c>
       <c r="E72" s="3">
-        <v>-81000</v>
+        <v>-79500</v>
       </c>
       <c r="F72" s="3">
-        <v>-76700</v>
+        <v>-75400</v>
       </c>
       <c r="G72" s="3">
-        <v>-80500</v>
+        <v>-79000</v>
       </c>
       <c r="H72" s="3">
-        <v>-54500</v>
+        <v>-53500</v>
       </c>
       <c r="I72" s="3">
-        <v>-53600</v>
+        <v>-52600</v>
       </c>
       <c r="J72" s="3">
-        <v>-52900</v>
+        <v>-51900</v>
       </c>
       <c r="K72" s="3">
         <v>-43800</v>
@@ -6221,16 +6221,16 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>-20800</v>
+        <v>-20400</v>
       </c>
       <c r="E76" s="3">
-        <v>-20400</v>
+        <v>-20100</v>
       </c>
       <c r="F76" s="3">
-        <v>-19400</v>
+        <v>-19100</v>
       </c>
       <c r="G76" s="3">
-        <v>-19500</v>
+        <v>-19100</v>
       </c>
       <c r="H76" s="3">
         <v>-3000</v>
@@ -6239,7 +6239,7 @@
         <v>-2100</v>
       </c>
       <c r="J76" s="3">
-        <v>-1500</v>
+        <v>-1400</v>
       </c>
       <c r="K76" s="3">
         <v>-1100</v>
@@ -6492,26 +6492,26 @@
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>4</v>
+      <c r="D81" s="3">
+        <v>-3700</v>
       </c>
       <c r="E81" s="3">
-        <v>-4200</v>
+        <v>-4100</v>
       </c>
       <c r="F81" s="3">
-        <v>8900</v>
+        <v>8700</v>
       </c>
       <c r="G81" s="3">
-        <v>-33100</v>
+        <v>-32500</v>
       </c>
       <c r="H81" s="3">
-        <v>-1200</v>
+        <v>-1100</v>
       </c>
       <c r="I81" s="3">
         <v>-700</v>
       </c>
       <c r="J81" s="3">
-        <v>-9100</v>
+        <v>-9000</v>
       </c>
       <c r="K81" s="3">
         <v>-800</v>
@@ -7167,7 +7167,7 @@
         <v>-400</v>
       </c>
       <c r="J89" s="3">
-        <v>-900</v>
+        <v>-800</v>
       </c>
       <c r="K89" s="3">
         <v>-500</v>
@@ -8203,7 +8203,7 @@
         <v>-500</v>
       </c>
       <c r="G102" s="3">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="H102" s="3">
         <v>-300</v>
